--- a/commands/cmos1/cmos1_command_deck.xlsx
+++ b/commands/cmos1/cmos1_command_deck.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10107"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thanasi/Documents/FOXSI/Data/formatter/foxsi4-commands/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thanasi/Documents/FOXSI/Data/formatter/foxsi4-commands/commands/cmos1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0662C359-76DF-9F47-8029-AE1EAFDB0FA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B04B8D2-AD8D-D147-BFD4-9629A1E3EF60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17920" xr2:uid="{1DE950B2-129E-5A4D-8896-FB78BBCF4CAC}"/>
   </bookViews>
@@ -351,9 +351,6 @@
     <t>0x4d</t>
   </si>
   <si>
-    <t>0x7d</t>
-  </si>
-  <si>
     <t>noop</t>
   </si>
   <si>
@@ -691,6 +688,9 @@
   </si>
   <si>
     <t>0x0000008c</t>
+  </si>
+  <si>
+    <t>0x75</t>
   </si>
 </sst>
 </file>
@@ -1193,10 +1193,10 @@
   <dimension ref="A1:AC63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="N25" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="N27" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="Z51" sqref="Z51"/>
+      <selection pane="bottomRight" activeCell="Y34" sqref="Y34:Y63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -1653,7 +1653,7 @@
         <v>61</v>
       </c>
       <c r="K6" s="23" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L6" s="6">
         <v>0</v>
@@ -1698,7 +1698,7 @@
         <v>104</v>
       </c>
       <c r="Z6" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AA6" s="25" t="s">
         <v>57</v>
@@ -1712,7 +1712,7 @@
     </row>
     <row r="7" spans="1:29" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="19" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B7" s="18" t="s">
         <v>72</v>
@@ -1740,7 +1740,7 @@
         <v>17</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K7" s="23" t="s">
         <v>102</v>
@@ -1788,7 +1788,7 @@
         <v>104</v>
       </c>
       <c r="Z7" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AA7" s="25" t="s">
         <v>57</v>
@@ -1797,12 +1797,12 @@
         <v>100</v>
       </c>
       <c r="AC7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="8" spans="1:29" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="19" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B8" s="18" t="s">
         <v>72</v>
@@ -1830,7 +1830,7 @@
         <v>17</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K8" s="23" t="s">
         <v>102</v>
@@ -1878,7 +1878,7 @@
         <v>104</v>
       </c>
       <c r="Z8" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AA8" s="25" t="s">
         <v>57</v>
@@ -1887,12 +1887,12 @@
         <v>100</v>
       </c>
       <c r="AC8" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="9" spans="1:29" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="19" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B9" s="18" t="s">
         <v>72</v>
@@ -1920,7 +1920,7 @@
         <v>17</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K9" s="23" t="s">
         <v>102</v>
@@ -1968,7 +1968,7 @@
         <v>104</v>
       </c>
       <c r="Z9" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AA9" s="25" t="s">
         <v>57</v>
@@ -1977,12 +1977,12 @@
         <v>100</v>
       </c>
       <c r="AC9" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="10" spans="1:29" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B10" s="18" t="s">
         <v>72</v>
@@ -2010,7 +2010,7 @@
         <v>17</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K10" s="23" t="s">
         <v>102</v>
@@ -2058,7 +2058,7 @@
         <v>104</v>
       </c>
       <c r="Z10" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AA10" s="25" t="s">
         <v>57</v>
@@ -2067,7 +2067,7 @@
         <v>100</v>
       </c>
       <c r="AC10" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="11" spans="1:29" ht="16" x14ac:dyDescent="0.2">
@@ -2148,7 +2148,7 @@
         <v>104</v>
       </c>
       <c r="Z11" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AA11" s="25" t="s">
         <v>57</v>
@@ -2157,12 +2157,12 @@
         <v>100</v>
       </c>
       <c r="AC11" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="12" spans="1:29" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B12" s="26" t="s">
         <v>72</v>
@@ -2238,7 +2238,7 @@
         <v>104</v>
       </c>
       <c r="Z12" s="27" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AA12" s="25" t="s">
         <v>57</v>
@@ -2247,7 +2247,7 @@
         <v>100</v>
       </c>
       <c r="AC12" s="28" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="13" spans="1:29" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
@@ -2280,7 +2280,7 @@
         <v>17</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K13" s="23" t="s">
         <v>102</v>
@@ -2328,7 +2328,7 @@
         <v>104</v>
       </c>
       <c r="Z13" s="27" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AA13" s="25" t="s">
         <v>57</v>
@@ -2337,12 +2337,12 @@
         <v>100</v>
       </c>
       <c r="AC13" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="14" spans="1:29" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="19" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B14" s="18" t="s">
         <v>72</v>
@@ -2370,7 +2370,7 @@
         <v>17</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K14" s="23" t="s">
         <v>102</v>
@@ -2418,7 +2418,7 @@
         <v>104</v>
       </c>
       <c r="Z14" s="27" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AA14" s="25" t="s">
         <v>57</v>
@@ -2427,12 +2427,12 @@
         <v>100</v>
       </c>
       <c r="AC14" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="15" spans="1:29" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="19" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B15" s="18" t="s">
         <v>72</v>
@@ -2460,7 +2460,7 @@
         <v>17</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K15" s="23" t="s">
         <v>102</v>
@@ -2508,7 +2508,7 @@
         <v>104</v>
       </c>
       <c r="Z15" s="27" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AA15" s="25" t="s">
         <v>57</v>
@@ -2517,12 +2517,12 @@
         <v>100</v>
       </c>
       <c r="AC15" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="16" spans="1:29" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="19" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B16" s="18" t="s">
         <v>72</v>
@@ -2598,7 +2598,7 @@
         <v>104</v>
       </c>
       <c r="Z16" s="27" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AA16" s="25" t="s">
         <v>57</v>
@@ -2607,12 +2607,12 @@
         <v>100</v>
       </c>
       <c r="AC16" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="17" spans="1:29" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="19" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B17" s="18" t="s">
         <v>72</v>
@@ -2688,7 +2688,7 @@
         <v>104</v>
       </c>
       <c r="Z17" s="27" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AA17" s="25" t="s">
         <v>57</v>
@@ -2697,12 +2697,12 @@
         <v>100</v>
       </c>
       <c r="AC17" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="18" spans="1:29" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="19" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B18" s="18" t="s">
         <v>72</v>
@@ -2778,7 +2778,7 @@
         <v>104</v>
       </c>
       <c r="Z18" s="27" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AA18" s="25" t="s">
         <v>57</v>
@@ -2787,12 +2787,12 @@
         <v>100</v>
       </c>
       <c r="AC18" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="19" spans="1:29" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="19" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B19" s="18" t="s">
         <v>72</v>
@@ -2868,7 +2868,7 @@
         <v>104</v>
       </c>
       <c r="Z19" s="27" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AA19" s="25" t="s">
         <v>57</v>
@@ -2877,12 +2877,12 @@
         <v>100</v>
       </c>
       <c r="AC19" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="20" spans="1:29" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="19" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B20" s="18" t="s">
         <v>72</v>
@@ -2958,7 +2958,7 @@
         <v>104</v>
       </c>
       <c r="Z20" s="27" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AA20" s="25" t="s">
         <v>57</v>
@@ -2967,12 +2967,12 @@
         <v>100</v>
       </c>
       <c r="AC20" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="21" spans="1:29" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="19" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B21" s="18" t="s">
         <v>72</v>
@@ -3000,7 +3000,7 @@
         <v>17</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="K21" s="23" t="s">
         <v>102</v>
@@ -3048,7 +3048,7 @@
         <v>104</v>
       </c>
       <c r="Z21" s="27" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AA21" s="25" t="s">
         <v>57</v>
@@ -3057,12 +3057,12 @@
         <v>100</v>
       </c>
       <c r="AC21" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="22" spans="1:29" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="19" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B22" s="18" t="s">
         <v>72</v>
@@ -3090,7 +3090,7 @@
         <v>17</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="K22" s="23" t="s">
         <v>102</v>
@@ -3138,7 +3138,7 @@
         <v>104</v>
       </c>
       <c r="Z22" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AA22" s="25" t="s">
         <v>57</v>
@@ -3147,12 +3147,12 @@
         <v>100</v>
       </c>
       <c r="AC22" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="23" spans="1:29" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="19" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B23" s="18" t="s">
         <v>72</v>
@@ -3180,7 +3180,7 @@
         <v>17</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="K23" s="23" t="s">
         <v>102</v>
@@ -3228,7 +3228,7 @@
         <v>104</v>
       </c>
       <c r="Z23" s="27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AA23" s="25" t="s">
         <v>57</v>
@@ -3237,12 +3237,12 @@
         <v>100</v>
       </c>
       <c r="AC23" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="24" spans="1:29" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="19" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B24" s="18" t="s">
         <v>72</v>
@@ -3270,7 +3270,7 @@
         <v>17</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="K24" s="23" t="s">
         <v>102</v>
@@ -3318,7 +3318,7 @@
         <v>104</v>
       </c>
       <c r="Z24" s="27" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AA24" s="25" t="s">
         <v>57</v>
@@ -3327,12 +3327,12 @@
         <v>100</v>
       </c>
       <c r="AC24" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="25" spans="1:29" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="19" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B25" s="18" t="s">
         <v>72</v>
@@ -3360,7 +3360,7 @@
         <v>17</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="K25" s="23" t="s">
         <v>102</v>
@@ -3408,7 +3408,7 @@
         <v>104</v>
       </c>
       <c r="Z25" s="27" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AA25" s="25" t="s">
         <v>57</v>
@@ -3417,12 +3417,12 @@
         <v>100</v>
       </c>
       <c r="AC25" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="26" spans="1:29" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="19" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B26" s="18" t="s">
         <v>72</v>
@@ -3450,7 +3450,7 @@
         <v>17</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="K26" s="23" t="s">
         <v>102</v>
@@ -3498,7 +3498,7 @@
         <v>104</v>
       </c>
       <c r="Z26" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AA26" s="25" t="s">
         <v>57</v>
@@ -3507,12 +3507,12 @@
         <v>100</v>
       </c>
       <c r="AC26" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="27" spans="1:29" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="19" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B27" s="18" t="s">
         <v>72</v>
@@ -3540,7 +3540,7 @@
         <v>17</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="K27" s="23" t="s">
         <v>102</v>
@@ -3588,7 +3588,7 @@
         <v>104</v>
       </c>
       <c r="Z27" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AA27" s="23" t="s">
         <v>57</v>
@@ -3597,12 +3597,12 @@
         <v>100</v>
       </c>
       <c r="AC27" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="28" spans="1:29" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="19" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B28" s="18" t="s">
         <v>72</v>
@@ -3630,7 +3630,7 @@
         <v>17</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="K28" s="23" t="s">
         <v>102</v>
@@ -3678,7 +3678,7 @@
         <v>104</v>
       </c>
       <c r="Z28" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AA28" s="23" t="s">
         <v>57</v>
@@ -3687,12 +3687,12 @@
         <v>100</v>
       </c>
       <c r="AC28" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="29" spans="1:29" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="19" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B29" s="18" t="s">
         <v>72</v>
@@ -3720,7 +3720,7 @@
         <v>17</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="K29" s="23" t="s">
         <v>102</v>
@@ -3768,7 +3768,7 @@
         <v>104</v>
       </c>
       <c r="Z29" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AA29" s="23" t="s">
         <v>57</v>
@@ -3777,12 +3777,12 @@
         <v>100</v>
       </c>
       <c r="AC29" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="30" spans="1:29" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="33" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B30" s="26" t="s">
         <v>72</v>
@@ -3858,7 +3858,7 @@
         <v>104</v>
       </c>
       <c r="Z30" s="27" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AA30" s="25" t="s">
         <v>57</v>
@@ -3867,12 +3867,12 @@
         <v>100</v>
       </c>
       <c r="AC30" s="28" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="31" spans="1:29" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="33" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B31" s="26" t="s">
         <v>72</v>
@@ -3948,7 +3948,7 @@
         <v>104</v>
       </c>
       <c r="Z31" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AA31" s="25" t="s">
         <v>57</v>
@@ -3957,12 +3957,12 @@
         <v>100</v>
       </c>
       <c r="AC31" s="28" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="32" spans="1:29" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="33" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B32" s="26" t="s">
         <v>72</v>
@@ -3990,10 +3990,10 @@
         <v>17</v>
       </c>
       <c r="J32" s="33" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="K32" s="25" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L32" s="30">
         <v>0</v>
@@ -4038,7 +4038,7 @@
         <v>104</v>
       </c>
       <c r="Z32" s="27" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AA32" s="25" t="s">
         <v>57</v>
@@ -4047,7 +4047,7 @@
         <v>100</v>
       </c>
       <c r="AC32" s="28" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="33" spans="1:29" s="8" customFormat="1" ht="5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4153,7 +4153,7 @@
         <v>97</v>
       </c>
       <c r="Y34" s="22" t="s">
-        <v>105</v>
+        <v>218</v>
       </c>
       <c r="Z34" s="3" t="s">
         <v>57</v>
@@ -4243,7 +4243,7 @@
         <v>97</v>
       </c>
       <c r="Y35" s="22" t="s">
-        <v>105</v>
+        <v>218</v>
       </c>
       <c r="Z35" s="3" t="s">
         <v>57</v>
@@ -4333,7 +4333,7 @@
         <v>97</v>
       </c>
       <c r="Y36" s="22" t="s">
-        <v>105</v>
+        <v>218</v>
       </c>
       <c r="Z36" s="3" t="s">
         <v>57</v>
@@ -4423,7 +4423,7 @@
         <v>97</v>
       </c>
       <c r="Y37" s="22" t="s">
-        <v>105</v>
+        <v>218</v>
       </c>
       <c r="Z37" s="3" t="s">
         <v>57</v>
@@ -4513,7 +4513,7 @@
         <v>97</v>
       </c>
       <c r="Y38" s="22" t="s">
-        <v>105</v>
+        <v>218</v>
       </c>
       <c r="Z38" s="3" t="s">
         <v>57</v>
@@ -4603,7 +4603,7 @@
         <v>97</v>
       </c>
       <c r="Y39" s="22" t="s">
-        <v>105</v>
+        <v>218</v>
       </c>
       <c r="Z39" s="3" t="s">
         <v>57</v>
@@ -4693,7 +4693,7 @@
         <v>97</v>
       </c>
       <c r="Y40" s="22" t="s">
-        <v>105</v>
+        <v>218</v>
       </c>
       <c r="Z40" s="3" t="s">
         <v>57</v>
@@ -4783,7 +4783,7 @@
         <v>97</v>
       </c>
       <c r="Y41" s="22" t="s">
-        <v>105</v>
+        <v>218</v>
       </c>
       <c r="Z41" s="3" t="s">
         <v>57</v>
@@ -4873,7 +4873,7 @@
         <v>97</v>
       </c>
       <c r="Y42" s="22" t="s">
-        <v>105</v>
+        <v>218</v>
       </c>
       <c r="Z42" s="3" t="s">
         <v>57</v>
@@ -4963,7 +4963,7 @@
         <v>97</v>
       </c>
       <c r="Y43" s="22" t="s">
-        <v>105</v>
+        <v>218</v>
       </c>
       <c r="Z43" s="3" t="s">
         <v>57</v>
@@ -4980,7 +4980,7 @@
     </row>
     <row r="44" spans="1:29" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="19" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B44" s="18" t="s">
         <v>72</v>
@@ -5053,24 +5053,24 @@
         <v>97</v>
       </c>
       <c r="Y44" s="22" t="s">
-        <v>105</v>
+        <v>218</v>
       </c>
       <c r="Z44" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AA44" s="23" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AB44" t="s">
         <v>100</v>
       </c>
       <c r="AC44" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="45" spans="1:29" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="19" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B45" s="18" t="s">
         <v>72</v>
@@ -5143,24 +5143,24 @@
         <v>97</v>
       </c>
       <c r="Y45" s="22" t="s">
-        <v>105</v>
+        <v>218</v>
       </c>
       <c r="Z45" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AA45" s="23" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AB45" t="s">
         <v>100</v>
       </c>
       <c r="AC45" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="46" spans="1:29" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="19" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B46" s="18" t="s">
         <v>72</v>
@@ -5233,24 +5233,24 @@
         <v>97</v>
       </c>
       <c r="Y46" s="22" t="s">
-        <v>105</v>
+        <v>218</v>
       </c>
       <c r="Z46" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AA46" s="23" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AB46" t="s">
         <v>100</v>
       </c>
       <c r="AC46" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="47" spans="1:29" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B47" s="18" t="s">
         <v>72</v>
@@ -5323,7 +5323,7 @@
         <v>97</v>
       </c>
       <c r="Y47" s="22" t="s">
-        <v>105</v>
+        <v>218</v>
       </c>
       <c r="Z47" s="3" t="s">
         <v>57</v>
@@ -5335,12 +5335,12 @@
         <v>100</v>
       </c>
       <c r="AC47" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="48" spans="1:29" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="19" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B48" s="18" t="s">
         <v>72</v>
@@ -5413,24 +5413,24 @@
         <v>97</v>
       </c>
       <c r="Y48" s="22" t="s">
-        <v>105</v>
+        <v>218</v>
       </c>
       <c r="Z48" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AA48" s="23" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AB48" t="s">
         <v>100</v>
       </c>
       <c r="AC48" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="49" spans="1:29" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="19" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B49" s="18" t="s">
         <v>72</v>
@@ -5503,24 +5503,24 @@
         <v>97</v>
       </c>
       <c r="Y49" s="22" t="s">
-        <v>105</v>
+        <v>218</v>
       </c>
       <c r="Z49" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AA49" s="23" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AB49" t="s">
         <v>100</v>
       </c>
       <c r="AC49" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="50" spans="1:29" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="19" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B50" s="18" t="s">
         <v>72</v>
@@ -5593,24 +5593,24 @@
         <v>97</v>
       </c>
       <c r="Y50" s="22" t="s">
-        <v>105</v>
+        <v>218</v>
       </c>
       <c r="Z50" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AA50" s="23" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AB50" t="s">
         <v>100</v>
       </c>
       <c r="AC50" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="51" spans="1:29" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="19" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B51" s="18" t="s">
         <v>72</v>
@@ -5683,19 +5683,19 @@
         <v>97</v>
       </c>
       <c r="Y51" s="22" t="s">
-        <v>105</v>
+        <v>218</v>
       </c>
       <c r="Z51" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AA51" s="23" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AB51" t="s">
         <v>100</v>
       </c>
       <c r="AC51" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="52" spans="1:29" ht="16" x14ac:dyDescent="0.2">
@@ -5773,7 +5773,7 @@
         <v>97</v>
       </c>
       <c r="Y52" s="22" t="s">
-        <v>105</v>
+        <v>218</v>
       </c>
       <c r="Z52" s="3" t="s">
         <v>57</v>
@@ -5863,7 +5863,7 @@
         <v>97</v>
       </c>
       <c r="Y53" s="22" t="s">
-        <v>105</v>
+        <v>218</v>
       </c>
       <c r="Z53" s="3" t="s">
         <v>57</v>
@@ -5953,7 +5953,7 @@
         <v>97</v>
       </c>
       <c r="Y54" s="22" t="s">
-        <v>105</v>
+        <v>218</v>
       </c>
       <c r="Z54" s="3" t="s">
         <v>57</v>
@@ -6043,7 +6043,7 @@
         <v>97</v>
       </c>
       <c r="Y55" s="22" t="s">
-        <v>105</v>
+        <v>218</v>
       </c>
       <c r="Z55" s="3" t="s">
         <v>57</v>
@@ -6133,7 +6133,7 @@
         <v>97</v>
       </c>
       <c r="Y56" s="22" t="s">
-        <v>105</v>
+        <v>218</v>
       </c>
       <c r="Z56" s="3" t="s">
         <v>57</v>
@@ -6223,7 +6223,7 @@
         <v>97</v>
       </c>
       <c r="Y57" s="22" t="s">
-        <v>105</v>
+        <v>218</v>
       </c>
       <c r="Z57" s="3" t="s">
         <v>57</v>
@@ -6313,13 +6313,13 @@
         <v>97</v>
       </c>
       <c r="Y58" s="22" t="s">
-        <v>105</v>
+        <v>218</v>
       </c>
       <c r="Z58" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AA58" s="23" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AB58" t="s">
         <v>100</v>
@@ -6403,13 +6403,13 @@
         <v>97</v>
       </c>
       <c r="Y59" s="22" t="s">
-        <v>105</v>
+        <v>218</v>
       </c>
       <c r="Z59" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AA59" s="23" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AB59" t="s">
         <v>100</v>
@@ -6493,13 +6493,13 @@
         <v>97</v>
       </c>
       <c r="Y60" s="22" t="s">
-        <v>105</v>
+        <v>218</v>
       </c>
       <c r="Z60" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AA60" s="23" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AB60" t="s">
         <v>100</v>
@@ -6583,13 +6583,13 @@
         <v>97</v>
       </c>
       <c r="Y61" s="22" t="s">
-        <v>105</v>
+        <v>218</v>
       </c>
       <c r="Z61" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AA61" s="23" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AB61" t="s">
         <v>100</v>
@@ -6673,13 +6673,13 @@
         <v>97</v>
       </c>
       <c r="Y62" s="22" t="s">
-        <v>105</v>
+        <v>218</v>
       </c>
       <c r="Z62" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AA62" s="23" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AB62" t="s">
         <v>100</v>
@@ -6763,13 +6763,13 @@
         <v>97</v>
       </c>
       <c r="Y63" s="22" t="s">
-        <v>105</v>
+        <v>218</v>
       </c>
       <c r="Z63" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AA63" s="23" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AB63" t="s">
         <v>100</v>

--- a/commands/cmos1/cmos1_command_deck.xlsx
+++ b/commands/cmos1/cmos1_command_deck.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thanasi/Documents/FOXSI/Data/formatter/foxsi4-commands/commands/cmos1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thanasi/Documents/FOXSI/Data/formatter/foxsi-4matter/foxsi4-commands/commands/cmos1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B04B8D2-AD8D-D147-BFD4-9629A1E3EF60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C615F99-7E64-6C4C-9DB1-273FBF26C5A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17920" xr2:uid="{1DE950B2-129E-5A4D-8896-FB78BBCF4CAC}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17900" xr2:uid="{1DE950B2-129E-5A4D-8896-FB78BBCF4CAC}"/>
   </bookViews>
   <sheets>
     <sheet name="all_systems" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="851" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1176" uniqueCount="297">
   <si>
     <t>R=1/W=0</t>
   </si>
@@ -120,24 +120,6 @@
     <t>read_err_flag</t>
   </si>
   <si>
-    <t>off</t>
-  </si>
-  <si>
-    <t>on</t>
-  </si>
-  <si>
-    <t>ground_off</t>
-  </si>
-  <si>
-    <t>ground_on</t>
-  </si>
-  <si>
-    <t>hv_ramp_down_start</t>
-  </si>
-  <si>
-    <t>hv_ramp_up_start</t>
-  </si>
-  <si>
     <t>start_data_store</t>
   </si>
   <si>
@@ -150,15 +132,6 @@
     <t>notify_launch_hold</t>
   </si>
   <si>
-    <t>insert_attenuator</t>
-  </si>
-  <si>
-    <t>set_pc_exposure</t>
-  </si>
-  <si>
-    <t>set_ql_exposure</t>
-  </si>
-  <si>
     <t>notify_shutter_open</t>
   </si>
   <si>
@@ -177,30 +150,9 @@
     <t>CdTe select</t>
   </si>
   <si>
-    <t>set_trigger_thresholds</t>
-  </si>
-  <si>
-    <t>set_strip_enable_status</t>
-  </si>
-  <si>
-    <t>set_hv</t>
-  </si>
-  <si>
-    <t>set_readout_mode</t>
-  </si>
-  <si>
     <t>mode</t>
   </si>
   <si>
-    <t>set_power_output_mask</t>
-  </si>
-  <si>
-    <t>mask</t>
-  </si>
-  <si>
-    <t>value</t>
-  </si>
-  <si>
     <t>instruction</t>
   </si>
   <si>
@@ -216,9 +168,6 @@
     <t>applicability</t>
   </si>
   <si>
-    <t>control power output with Formatter local SPI bus</t>
-  </si>
-  <si>
     <t>hk</t>
   </si>
   <si>
@@ -267,48 +216,12 @@
     <t>read all housekeeping data from system</t>
   </si>
   <si>
-    <t>turn systems off (to power distribution system)</t>
-  </si>
-  <si>
-    <t>turn systems on (to power distribution system)</t>
-  </si>
-  <si>
-    <t>turn systems on or off (to power distribution system)</t>
-  </si>
-  <si>
-    <t>set high voltage value (DAC setting for CdTe)</t>
-  </si>
-  <si>
-    <t>start high voltage ramping down</t>
-  </si>
-  <si>
-    <t>start high voltage ramping up</t>
-  </si>
-  <si>
     <t>tell system to stop storing data on disk</t>
   </si>
   <si>
     <t>tell system to start storing data on disk</t>
   </si>
   <si>
-    <t>change the CdTe readout mode (sparse/full)</t>
-  </si>
-  <si>
-    <t>set CdTe trigger thresholds (for each strip? For all strips?)</t>
-  </si>
-  <si>
-    <t>set enable/disable mask for CdTe strips</t>
-  </si>
-  <si>
-    <t>set photon counting mode exposure time for CMOS camera</t>
-  </si>
-  <si>
-    <t>set quick look mode exposure time for CMOS camera</t>
-  </si>
-  <si>
-    <t>insert the attenuator ring</t>
-  </si>
-  <si>
     <t>notify system that launch will occur soon</t>
   </si>
   <si>
@@ -330,9 +243,6 @@
     <t>?</t>
   </si>
   <si>
-    <t>thresholds</t>
-  </si>
-  <si>
     <t>exp</t>
   </si>
   <si>
@@ -387,9 +297,6 @@
     <t>start_cmos_exposure</t>
   </si>
   <si>
-    <t>0xb0</t>
-  </si>
-  <si>
     <t>0x00000040</t>
   </si>
   <si>
@@ -691,6 +598,333 @@
   </si>
   <si>
     <t>0x75</t>
+  </si>
+  <si>
+    <t>start CMOS setup (first stops, then inits, then trains, then sets exposure).</t>
+  </si>
+  <si>
+    <t>0x00000020</t>
+  </si>
+  <si>
+    <t>set_exposure_192</t>
+  </si>
+  <si>
+    <t>set_exposure_value_02</t>
+  </si>
+  <si>
+    <t>set_exposure_value_03</t>
+  </si>
+  <si>
+    <t>set_exposure_value_04</t>
+  </si>
+  <si>
+    <t>set_exposure_value_05</t>
+  </si>
+  <si>
+    <t>set_exposure_value_06</t>
+  </si>
+  <si>
+    <t>set_exposure_value_07</t>
+  </si>
+  <si>
+    <t>set_exposure_value_08</t>
+  </si>
+  <si>
+    <t>set_exposure_value_09</t>
+  </si>
+  <si>
+    <t>set_exposure_value_10</t>
+  </si>
+  <si>
+    <t>set_exposure_value_11</t>
+  </si>
+  <si>
+    <t>set_exposure_value_12</t>
+  </si>
+  <si>
+    <t>set_exposure_value_13</t>
+  </si>
+  <si>
+    <t>set_exposure_value_14</t>
+  </si>
+  <si>
+    <t>set_exposure_value_15</t>
+  </si>
+  <si>
+    <t>set_exposure_value_16</t>
+  </si>
+  <si>
+    <t>set_exposure_value_17</t>
+  </si>
+  <si>
+    <t>set_exposure_value_18</t>
+  </si>
+  <si>
+    <t>set_exposure_value_19</t>
+  </si>
+  <si>
+    <t>set_exposure_value_20</t>
+  </si>
+  <si>
+    <t>set_exposure_value_21</t>
+  </si>
+  <si>
+    <t>set_exposure_value_0a</t>
+  </si>
+  <si>
+    <t>set_exposure_value_0b</t>
+  </si>
+  <si>
+    <t>set_exposure_value_0c</t>
+  </si>
+  <si>
+    <t>set_exposure_value_0d</t>
+  </si>
+  <si>
+    <t>set_exposure_value_0e</t>
+  </si>
+  <si>
+    <t>set_exposure_value_0f</t>
+  </si>
+  <si>
+    <t>set_exposure_value_1a</t>
+  </si>
+  <si>
+    <t>set_exposure_value_1b</t>
+  </si>
+  <si>
+    <t>set_exposure_value_1c</t>
+  </si>
+  <si>
+    <t>set_exposure_value_1d</t>
+  </si>
+  <si>
+    <t>set_exposure_value_1e</t>
+  </si>
+  <si>
+    <t>set_exposure_value_1f</t>
+  </si>
+  <si>
+    <t>set quick look mode and photon counting mode exposure time to 192 for CMOS camera</t>
+  </si>
+  <si>
+    <t>0x00000030</t>
+  </si>
+  <si>
+    <t>0x00000034</t>
+  </si>
+  <si>
+    <t>0x021085f0</t>
+  </si>
+  <si>
+    <t>set quick look mode and photon counting mode exposure time to 0x02 for CMOS sensor</t>
+  </si>
+  <si>
+    <t>set quick look mode and photon counting mode exposure time to 0x03 for CMOS sensor</t>
+  </si>
+  <si>
+    <t>set quick look mode and photon counting mode exposure time to 0x04 for CMOS sensor</t>
+  </si>
+  <si>
+    <t>set quick look mode and photon counting mode exposure time to 0x05 for CMOS sensor</t>
+  </si>
+  <si>
+    <t>set quick look mode and photon counting mode exposure time to 0x06 for CMOS sensor</t>
+  </si>
+  <si>
+    <t>0x031085f0</t>
+  </si>
+  <si>
+    <t>0x041085f0</t>
+  </si>
+  <si>
+    <t>0x051085f0</t>
+  </si>
+  <si>
+    <t>0x061085f0</t>
+  </si>
+  <si>
+    <t>0x071085f0</t>
+  </si>
+  <si>
+    <t>0x081085f0</t>
+  </si>
+  <si>
+    <t>0x091085f0</t>
+  </si>
+  <si>
+    <t>0x0a1085f0</t>
+  </si>
+  <si>
+    <t>0x0b1085f0</t>
+  </si>
+  <si>
+    <t>0x0c1085f0</t>
+  </si>
+  <si>
+    <t>0x0d1085f0</t>
+  </si>
+  <si>
+    <t>0x0e1085f0</t>
+  </si>
+  <si>
+    <t>0x0f1085f0</t>
+  </si>
+  <si>
+    <t>0x111085f0</t>
+  </si>
+  <si>
+    <t>0x101085f0</t>
+  </si>
+  <si>
+    <t>0x121085f0</t>
+  </si>
+  <si>
+    <t>0x131085f0</t>
+  </si>
+  <si>
+    <t>0x141085f0</t>
+  </si>
+  <si>
+    <t>0x151085f0</t>
+  </si>
+  <si>
+    <t>0x161085f0</t>
+  </si>
+  <si>
+    <t>0x171085f0</t>
+  </si>
+  <si>
+    <t>0x181085f0</t>
+  </si>
+  <si>
+    <t>0x191085f0</t>
+  </si>
+  <si>
+    <t>0x1a1085f0</t>
+  </si>
+  <si>
+    <t>0x1b1085f0</t>
+  </si>
+  <si>
+    <t>0x1c1085f0</t>
+  </si>
+  <si>
+    <t>0x1d1085f0</t>
+  </si>
+  <si>
+    <t>0x1e1085f0</t>
+  </si>
+  <si>
+    <t>0x1f1085f0</t>
+  </si>
+  <si>
+    <t>0x201085f0</t>
+  </si>
+  <si>
+    <t>0x211085f0</t>
+  </si>
+  <si>
+    <t>set quick look mode and photon counting mode exposure time to 0x07 for CMOS sensor</t>
+  </si>
+  <si>
+    <t>set quick look mode and photon counting mode exposure time to 0x08 for CMOS sensor</t>
+  </si>
+  <si>
+    <t>set quick look mode and photon counting mode exposure time to 0x09 for CMOS sensor</t>
+  </si>
+  <si>
+    <t>set quick look mode and photon counting mode exposure time to 0x0a for CMOS sensor</t>
+  </si>
+  <si>
+    <t>set quick look mode and photon counting mode exposure time to 0x0b for CMOS sensor</t>
+  </si>
+  <si>
+    <t>set quick look mode and photon counting mode exposure time to 0x0c for CMOS sensor</t>
+  </si>
+  <si>
+    <t>set quick look mode and photon counting mode exposure time to 0x0d for CMOS sensor</t>
+  </si>
+  <si>
+    <t>set quick look mode and photon counting mode exposure time to 0x0e for CMOS sensor</t>
+  </si>
+  <si>
+    <t>set quick look mode and photon counting mode exposure time to 0x0f for CMOS sensor</t>
+  </si>
+  <si>
+    <t>set quick look mode and photon counting mode exposure time to 0x10 for CMOS sensor</t>
+  </si>
+  <si>
+    <t>set quick look mode and photon counting mode exposure time to 0x11 for CMOS sensor</t>
+  </si>
+  <si>
+    <t>set quick look mode and photon counting mode exposure time to 0x12 for CMOS sensor</t>
+  </si>
+  <si>
+    <t>set quick look mode and photon counting mode exposure time to 0x13 for CMOS sensor</t>
+  </si>
+  <si>
+    <t>set quick look mode and photon counting mode exposure time to 0x14 for CMOS sensor</t>
+  </si>
+  <si>
+    <t>set quick look mode and photon counting mode exposure time to 0x15 for CMOS sensor</t>
+  </si>
+  <si>
+    <t>set quick look mode and photon counting mode exposure time to 0x16 for CMOS sensor</t>
+  </si>
+  <si>
+    <t>set quick look mode and photon counting mode exposure time to 0x17 for CMOS sensor</t>
+  </si>
+  <si>
+    <t>set quick look mode and photon counting mode exposure time to 0x18 for CMOS sensor</t>
+  </si>
+  <si>
+    <t>set quick look mode and photon counting mode exposure time to 0x19 for CMOS sensor</t>
+  </si>
+  <si>
+    <t>set quick look mode and photon counting mode exposure time to 0x1a for CMOS sensor</t>
+  </si>
+  <si>
+    <t>set quick look mode and photon counting mode exposure time to 0x1b for CMOS sensor</t>
+  </si>
+  <si>
+    <t>set quick look mode and photon counting mode exposure time to 0x1c for CMOS sensor</t>
+  </si>
+  <si>
+    <t>set quick look mode and photon counting mode exposure time to 0x1d for CMOS sensor</t>
+  </si>
+  <si>
+    <t>set quick look mode and photon counting mode exposure time to 0x1e for CMOS sensor</t>
+  </si>
+  <si>
+    <t>set quick look mode and photon counting mode exposure time to 0x1f for CMOS sensor</t>
+  </si>
+  <si>
+    <t>set quick look mode and photon counting mode exposure time to 0x20 for CMOS sensor</t>
+  </si>
+  <si>
+    <t>set quick look mode and photon counting mode exposure time to 0x21 for CMOS sensor</t>
+  </si>
+  <si>
+    <t>cmos_stop_to_start</t>
+  </si>
+  <si>
+    <t>reboot_cmos</t>
+  </si>
+  <si>
+    <t>remove_all_data</t>
+  </si>
+  <si>
+    <t>0x00000088</t>
+  </si>
+  <si>
+    <t>0x00000084</t>
+  </si>
+  <si>
+    <t>0x00000100</t>
+  </si>
+  <si>
+    <t>0x218</t>
   </si>
 </sst>
 </file>
@@ -1190,13 +1424,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{283F008E-2DBD-E446-BC2F-AA0D9FF4122A}">
-  <dimension ref="A1:AC63"/>
+  <dimension ref="A1:AC85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="N27" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B64" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="Y34" sqref="Y34:Y63"/>
+      <selection pane="bottomRight" activeCell="A80" sqref="A80:A85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -1204,7 +1438,7 @@
     <col min="1" max="1" width="25.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" customWidth="1"/>
-    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.1640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.33203125" bestFit="1" customWidth="1"/>
@@ -1241,7 +1475,7 @@
       </c>
       <c r="K1" s="35"/>
       <c r="L1" s="35" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="M1" s="35"/>
       <c r="N1" s="35"/>
@@ -1256,7 +1490,7 @@
       <c r="W1" s="35"/>
       <c r="X1" s="12"/>
       <c r="Y1" s="34" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="Z1" s="35"/>
       <c r="AA1" s="36"/>
@@ -1266,7 +1500,7 @@
         <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>0</v>
@@ -1299,7 +1533,7 @@
         <v>7</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>8</v>
@@ -1308,25 +1542,25 @@
         <v>9</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="W2" s="15" t="s">
         <v>10</v>
@@ -1335,13 +1569,13 @@
         <v>11</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="Z2" s="1" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="AA2" s="12" t="s">
-        <v>103</v>
+        <v>73</v>
       </c>
       <c r="AB2" s="1" t="s">
         <v>12</v>
@@ -1355,7 +1589,7 @@
         <v>14</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="C3" s="3">
         <v>1</v>
@@ -1383,7 +1617,7 @@
         <v>16</v>
       </c>
       <c r="K3" s="23" t="s">
-        <v>102</v>
+        <v>72</v>
       </c>
       <c r="L3" s="6">
         <v>0</v>
@@ -1422,22 +1656,22 @@
         <v>1</v>
       </c>
       <c r="X3" s="13" t="s">
-        <v>97</v>
+        <v>68</v>
       </c>
       <c r="Y3" s="22" t="s">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="Z3" s="3" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="AA3" s="25" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="AB3" t="s">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="AC3" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:29" ht="16" x14ac:dyDescent="0.2">
@@ -1445,7 +1679,7 @@
         <v>19</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="C4" s="3">
         <v>1</v>
@@ -1473,7 +1707,7 @@
         <v>25</v>
       </c>
       <c r="K4" s="23" t="s">
-        <v>102</v>
+        <v>72</v>
       </c>
       <c r="L4" s="6">
         <v>0</v>
@@ -1512,22 +1746,22 @@
         <v>0</v>
       </c>
       <c r="X4" s="13" t="s">
-        <v>97</v>
+        <v>68</v>
       </c>
       <c r="Y4" s="22" t="s">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="Z4" s="3" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="AA4" s="25" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="AB4" t="s">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="AC4" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:29" ht="16" x14ac:dyDescent="0.2">
@@ -1535,7 +1769,7 @@
         <v>20</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="C5" s="3">
         <v>1</v>
@@ -1563,61 +1797,61 @@
         <v>26</v>
       </c>
       <c r="K5" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="L5" s="6">
+        <v>0</v>
+      </c>
+      <c r="M5" s="6">
+        <v>0</v>
+      </c>
+      <c r="N5" s="6">
+        <v>0</v>
+      </c>
+      <c r="O5" s="6">
+        <v>0</v>
+      </c>
+      <c r="P5" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="6">
+        <v>1</v>
+      </c>
+      <c r="R5" s="6">
+        <v>1</v>
+      </c>
+      <c r="S5" s="6">
+        <v>1</v>
+      </c>
+      <c r="T5" s="6">
+        <v>1</v>
+      </c>
+      <c r="U5" s="6">
+        <v>1</v>
+      </c>
+      <c r="V5" s="6">
+        <v>1</v>
+      </c>
+      <c r="W5" s="16">
+        <v>0</v>
+      </c>
+      <c r="X5" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y5" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA5" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC5" t="s">
         <v>57</v>
-      </c>
-      <c r="L5" s="6">
-        <v>0</v>
-      </c>
-      <c r="M5" s="6">
-        <v>0</v>
-      </c>
-      <c r="N5" s="6">
-        <v>0</v>
-      </c>
-      <c r="O5" s="6">
-        <v>0</v>
-      </c>
-      <c r="P5" s="6">
-        <v>1</v>
-      </c>
-      <c r="Q5" s="6">
-        <v>1</v>
-      </c>
-      <c r="R5" s="6">
-        <v>1</v>
-      </c>
-      <c r="S5" s="6">
-        <v>1</v>
-      </c>
-      <c r="T5" s="6">
-        <v>1</v>
-      </c>
-      <c r="U5" s="6">
-        <v>1</v>
-      </c>
-      <c r="V5" s="6">
-        <v>1</v>
-      </c>
-      <c r="W5" s="16">
-        <v>0</v>
-      </c>
-      <c r="X5" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="Y5" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="Z5" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="AA5" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="AB5" t="s">
-        <v>100</v>
-      </c>
-      <c r="AC5" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:29" ht="16" x14ac:dyDescent="0.2">
@@ -1625,7 +1859,7 @@
         <v>21</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="C6" s="3">
         <v>1</v>
@@ -1650,10 +1884,10 @@
         <v>17</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="K6" s="23" t="s">
-        <v>117</v>
+        <v>296</v>
       </c>
       <c r="L6" s="6">
         <v>0</v>
@@ -1692,30 +1926,30 @@
         <v>0</v>
       </c>
       <c r="X6" s="13" t="s">
-        <v>97</v>
+        <v>68</v>
       </c>
       <c r="Y6" s="22" t="s">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="Z6" s="3" t="s">
-        <v>123</v>
+        <v>295</v>
       </c>
       <c r="AA6" s="25" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="AB6" t="s">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="AC6" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:29" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="19" t="s">
-        <v>124</v>
+      <c r="A7" s="3" t="s">
+        <v>93</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="C7" s="3">
         <v>1</v>
@@ -1740,10 +1974,10 @@
         <v>17</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="K7" s="23" t="s">
-        <v>102</v>
+        <v>72</v>
       </c>
       <c r="L7" s="6">
         <v>0</v>
@@ -1782,30 +2016,30 @@
         <v>0</v>
       </c>
       <c r="X7" s="13" t="s">
-        <v>97</v>
+        <v>68</v>
       </c>
       <c r="Y7" s="22" t="s">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="Z7" s="3" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="AA7" s="25" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="AB7" t="s">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="AC7" t="s">
-        <v>177</v>
+        <v>146</v>
       </c>
     </row>
     <row r="8" spans="1:29" ht="16" x14ac:dyDescent="0.2">
-      <c r="A8" s="19" t="s">
-        <v>126</v>
+      <c r="A8" s="3" t="s">
+        <v>95</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="C8" s="3">
         <v>1</v>
@@ -1830,10 +2064,10 @@
         <v>17</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="K8" s="23" t="s">
-        <v>102</v>
+        <v>72</v>
       </c>
       <c r="L8" s="6">
         <v>0</v>
@@ -1872,30 +2106,30 @@
         <v>0</v>
       </c>
       <c r="X8" s="13" t="s">
-        <v>97</v>
+        <v>68</v>
       </c>
       <c r="Y8" s="22" t="s">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="Z8" s="3" t="s">
-        <v>127</v>
+        <v>96</v>
       </c>
       <c r="AA8" s="25" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="AB8" t="s">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="AC8" t="s">
-        <v>178</v>
+        <v>147</v>
       </c>
     </row>
     <row r="9" spans="1:29" ht="16" x14ac:dyDescent="0.2">
-      <c r="A9" s="19" t="s">
-        <v>128</v>
+      <c r="A9" s="3" t="s">
+        <v>97</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="C9" s="3">
         <v>1</v>
@@ -1920,10 +2154,10 @@
         <v>17</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>130</v>
+        <v>99</v>
       </c>
       <c r="K9" s="23" t="s">
-        <v>102</v>
+        <v>72</v>
       </c>
       <c r="L9" s="6">
         <v>0</v>
@@ -1962,30 +2196,30 @@
         <v>0</v>
       </c>
       <c r="X9" s="13" t="s">
-        <v>97</v>
+        <v>68</v>
       </c>
       <c r="Y9" s="22" t="s">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="Z9" s="3" t="s">
-        <v>132</v>
+        <v>101</v>
       </c>
       <c r="AA9" s="25" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="AB9" t="s">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="AC9" t="s">
-        <v>179</v>
+        <v>148</v>
       </c>
     </row>
     <row r="10" spans="1:29" ht="16" x14ac:dyDescent="0.2">
-      <c r="A10" s="19" t="s">
-        <v>129</v>
+      <c r="A10" s="3" t="s">
+        <v>98</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="C10" s="3">
         <v>1</v>
@@ -2010,72 +2244,72 @@
         <v>17</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>131</v>
+        <v>100</v>
       </c>
       <c r="K10" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="L10" s="6">
+        <v>0</v>
+      </c>
+      <c r="M10" s="6">
+        <v>0</v>
+      </c>
+      <c r="N10" s="6">
+        <v>0</v>
+      </c>
+      <c r="O10" s="6">
+        <v>0</v>
+      </c>
+      <c r="P10" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="6">
+        <v>0</v>
+      </c>
+      <c r="R10" s="6">
+        <v>0</v>
+      </c>
+      <c r="S10" s="6">
+        <v>0</v>
+      </c>
+      <c r="T10" s="6">
+        <v>0</v>
+      </c>
+      <c r="U10" s="6">
+        <v>1</v>
+      </c>
+      <c r="V10" s="6">
+        <v>1</v>
+      </c>
+      <c r="W10" s="16">
+        <v>0</v>
+      </c>
+      <c r="X10" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y10" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z10" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="L10" s="6">
-        <v>0</v>
-      </c>
-      <c r="M10" s="6">
-        <v>0</v>
-      </c>
-      <c r="N10" s="6">
-        <v>0</v>
-      </c>
-      <c r="O10" s="6">
-        <v>0</v>
-      </c>
-      <c r="P10" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="6">
-        <v>0</v>
-      </c>
-      <c r="R10" s="6">
-        <v>0</v>
-      </c>
-      <c r="S10" s="6">
-        <v>0</v>
-      </c>
-      <c r="T10" s="6">
-        <v>0</v>
-      </c>
-      <c r="U10" s="6">
-        <v>1</v>
-      </c>
-      <c r="V10" s="6">
-        <v>1</v>
-      </c>
-      <c r="W10" s="16">
-        <v>0</v>
-      </c>
-      <c r="X10" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="Y10" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="Z10" s="3" t="s">
-        <v>133</v>
-      </c>
       <c r="AA10" s="25" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="AB10" t="s">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="AC10" t="s">
-        <v>180</v>
+        <v>149</v>
       </c>
     </row>
     <row r="11" spans="1:29" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" s="19" t="s">
+      <c r="A11" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="C11" s="3">
         <v>1</v>
@@ -2100,10 +2334,10 @@
         <v>17</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="K11" s="23" t="s">
-        <v>102</v>
+        <v>72</v>
       </c>
       <c r="L11" s="6">
         <v>0</v>
@@ -2142,30 +2376,30 @@
         <v>0</v>
       </c>
       <c r="X11" s="13" t="s">
-        <v>97</v>
+        <v>68</v>
       </c>
       <c r="Y11" s="22" t="s">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="Z11" s="3" t="s">
-        <v>134</v>
+        <v>103</v>
       </c>
       <c r="AA11" s="25" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="AB11" t="s">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="AC11" t="s">
-        <v>181</v>
+        <v>150</v>
       </c>
     </row>
     <row r="12" spans="1:29" ht="16" x14ac:dyDescent="0.2">
-      <c r="A12" s="19" t="s">
-        <v>135</v>
+      <c r="A12" s="3" t="s">
+        <v>104</v>
       </c>
       <c r="B12" s="26" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="C12" s="27">
         <v>1</v>
@@ -2190,10 +2424,10 @@
         <v>17</v>
       </c>
       <c r="J12" s="27" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="K12" s="25" t="s">
-        <v>102</v>
+        <v>72</v>
       </c>
       <c r="L12" s="30">
         <v>0</v>
@@ -2232,30 +2466,30 @@
         <v>0</v>
       </c>
       <c r="X12" s="29" t="s">
-        <v>97</v>
+        <v>68</v>
       </c>
       <c r="Y12" s="32" t="s">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="Z12" s="27" t="s">
-        <v>136</v>
+        <v>105</v>
       </c>
       <c r="AA12" s="25" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="AB12" s="28" t="s">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="AC12" s="28" t="s">
-        <v>182</v>
+        <v>151</v>
       </c>
     </row>
     <row r="13" spans="1:29" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" s="19" t="s">
+      <c r="A13" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="C13" s="3">
         <v>1</v>
@@ -2280,10 +2514,10 @@
         <v>17</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>138</v>
+        <v>107</v>
       </c>
       <c r="K13" s="23" t="s">
-        <v>102</v>
+        <v>72</v>
       </c>
       <c r="L13" s="6">
         <v>0</v>
@@ -2322,30 +2556,30 @@
         <v>0</v>
       </c>
       <c r="X13" s="13" t="s">
-        <v>97</v>
+        <v>68</v>
       </c>
       <c r="Y13" s="22" t="s">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="Z13" s="27" t="s">
-        <v>137</v>
+        <v>106</v>
       </c>
       <c r="AA13" s="25" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="AB13" t="s">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="AC13" t="s">
-        <v>183</v>
+        <v>152</v>
       </c>
     </row>
     <row r="14" spans="1:29" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14" s="19" t="s">
-        <v>139</v>
+      <c r="A14" s="3" t="s">
+        <v>108</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="C14" s="3">
         <v>1</v>
@@ -2370,10 +2604,10 @@
         <v>17</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>138</v>
+        <v>107</v>
       </c>
       <c r="K14" s="23" t="s">
-        <v>102</v>
+        <v>72</v>
       </c>
       <c r="L14" s="6">
         <v>0</v>
@@ -2412,30 +2646,30 @@
         <v>0</v>
       </c>
       <c r="X14" s="13" t="s">
-        <v>97</v>
+        <v>68</v>
       </c>
       <c r="Y14" s="22" t="s">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="Z14" s="27" t="s">
-        <v>140</v>
+        <v>109</v>
       </c>
       <c r="AA14" s="25" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="AB14" t="s">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="AC14" t="s">
-        <v>184</v>
+        <v>153</v>
       </c>
     </row>
     <row r="15" spans="1:29" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A15" s="19" t="s">
-        <v>142</v>
+      <c r="A15" s="3" t="s">
+        <v>111</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="C15" s="3">
         <v>1</v>
@@ -2460,10 +2694,10 @@
         <v>17</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>143</v>
+        <v>112</v>
       </c>
       <c r="K15" s="23" t="s">
-        <v>102</v>
+        <v>72</v>
       </c>
       <c r="L15" s="6">
         <v>0</v>
@@ -2502,30 +2736,30 @@
         <v>0</v>
       </c>
       <c r="X15" s="13" t="s">
-        <v>97</v>
+        <v>68</v>
       </c>
       <c r="Y15" s="22" t="s">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="Z15" s="27" t="s">
-        <v>141</v>
+        <v>110</v>
       </c>
       <c r="AA15" s="25" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="AB15" t="s">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="AC15" t="s">
-        <v>185</v>
+        <v>154</v>
       </c>
     </row>
     <row r="16" spans="1:29" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A16" s="19" t="s">
-        <v>151</v>
+      <c r="A16" s="3" t="s">
+        <v>120</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="C16" s="3">
         <v>1</v>
@@ -2550,10 +2784,10 @@
         <v>17</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="K16" s="23" t="s">
-        <v>102</v>
+        <v>72</v>
       </c>
       <c r="L16" s="6">
         <v>0</v>
@@ -2592,30 +2826,30 @@
         <v>0</v>
       </c>
       <c r="X16" s="13" t="s">
-        <v>97</v>
+        <v>68</v>
       </c>
       <c r="Y16" s="22" t="s">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="Z16" s="27" t="s">
-        <v>152</v>
+        <v>121</v>
       </c>
       <c r="AA16" s="25" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="AB16" t="s">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="AC16" t="s">
-        <v>186</v>
+        <v>155</v>
       </c>
     </row>
     <row r="17" spans="1:29" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A17" s="19" t="s">
-        <v>153</v>
+      <c r="A17" s="3" t="s">
+        <v>122</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="C17" s="3">
         <v>1</v>
@@ -2640,10 +2874,10 @@
         <v>17</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="K17" s="23" t="s">
-        <v>102</v>
+        <v>72</v>
       </c>
       <c r="L17" s="6">
         <v>0</v>
@@ -2682,30 +2916,30 @@
         <v>0</v>
       </c>
       <c r="X17" s="13" t="s">
-        <v>97</v>
+        <v>68</v>
       </c>
       <c r="Y17" s="22" t="s">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="Z17" s="27" t="s">
-        <v>154</v>
+        <v>123</v>
       </c>
       <c r="AA17" s="25" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="AB17" t="s">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="AC17" t="s">
-        <v>187</v>
+        <v>156</v>
       </c>
     </row>
     <row r="18" spans="1:29" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A18" s="19" t="s">
-        <v>155</v>
+      <c r="A18" s="3" t="s">
+        <v>124</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="C18" s="3">
         <v>1</v>
@@ -2730,10 +2964,10 @@
         <v>17</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="K18" s="23" t="s">
-        <v>102</v>
+        <v>72</v>
       </c>
       <c r="L18" s="6">
         <v>0</v>
@@ -2772,30 +3006,30 @@
         <v>0</v>
       </c>
       <c r="X18" s="13" t="s">
-        <v>97</v>
+        <v>68</v>
       </c>
       <c r="Y18" s="22" t="s">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="Z18" s="27" t="s">
-        <v>156</v>
+        <v>125</v>
       </c>
       <c r="AA18" s="25" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="AB18" t="s">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="AC18" t="s">
-        <v>188</v>
+        <v>157</v>
       </c>
     </row>
     <row r="19" spans="1:29" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19" s="19" t="s">
-        <v>157</v>
+      <c r="A19" s="3" t="s">
+        <v>126</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="C19" s="3">
         <v>1</v>
@@ -2820,10 +3054,10 @@
         <v>17</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="K19" s="23" t="s">
-        <v>102</v>
+        <v>72</v>
       </c>
       <c r="L19" s="6">
         <v>0</v>
@@ -2862,30 +3096,30 @@
         <v>0</v>
       </c>
       <c r="X19" s="13" t="s">
-        <v>97</v>
+        <v>68</v>
       </c>
       <c r="Y19" s="22" t="s">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="Z19" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="AA19" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC19" t="s">
         <v>158</v>
-      </c>
-      <c r="AA19" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="AB19" t="s">
-        <v>100</v>
-      </c>
-      <c r="AC19" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="20" spans="1:29" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="19" t="s">
-        <v>159</v>
+      <c r="A20" s="3" t="s">
+        <v>128</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="C20" s="3">
         <v>1</v>
@@ -2910,10 +3144,10 @@
         <v>17</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="K20" s="23" t="s">
-        <v>102</v>
+        <v>72</v>
       </c>
       <c r="L20" s="6">
         <v>0</v>
@@ -2952,30 +3186,30 @@
         <v>0</v>
       </c>
       <c r="X20" s="13" t="s">
-        <v>97</v>
+        <v>68</v>
       </c>
       <c r="Y20" s="22" t="s">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="Z20" s="27" t="s">
-        <v>160</v>
+        <v>129</v>
       </c>
       <c r="AA20" s="25" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="AB20" t="s">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="AC20" t="s">
-        <v>190</v>
+        <v>159</v>
       </c>
     </row>
     <row r="21" spans="1:29" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="19" t="s">
-        <v>162</v>
+      <c r="A21" s="3" t="s">
+        <v>131</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="C21" s="3">
         <v>1</v>
@@ -3000,10 +3234,10 @@
         <v>17</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>176</v>
+        <v>145</v>
       </c>
       <c r="K21" s="23" t="s">
-        <v>102</v>
+        <v>72</v>
       </c>
       <c r="L21" s="6">
         <v>0</v>
@@ -3042,30 +3276,30 @@
         <v>0</v>
       </c>
       <c r="X21" s="13" t="s">
-        <v>97</v>
+        <v>68</v>
       </c>
       <c r="Y21" s="22" t="s">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="Z21" s="27" t="s">
-        <v>163</v>
+        <v>132</v>
       </c>
       <c r="AA21" s="25" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="AB21" t="s">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="AC21" t="s">
-        <v>191</v>
+        <v>160</v>
       </c>
     </row>
     <row r="22" spans="1:29" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" s="19" t="s">
-        <v>161</v>
+      <c r="A22" s="3" t="s">
+        <v>130</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="C22" s="3">
         <v>1</v>
@@ -3090,10 +3324,10 @@
         <v>17</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>176</v>
+        <v>145</v>
       </c>
       <c r="K22" s="23" t="s">
-        <v>102</v>
+        <v>72</v>
       </c>
       <c r="L22" s="6">
         <v>0</v>
@@ -3132,30 +3366,30 @@
         <v>0</v>
       </c>
       <c r="X22" s="13" t="s">
-        <v>97</v>
+        <v>68</v>
       </c>
       <c r="Y22" s="22" t="s">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="Z22" s="27" t="s">
-        <v>164</v>
+        <v>133</v>
       </c>
       <c r="AA22" s="25" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="AB22" t="s">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="AC22" t="s">
-        <v>192</v>
+        <v>161</v>
       </c>
     </row>
     <row r="23" spans="1:29" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A23" s="19" t="s">
-        <v>165</v>
+      <c r="A23" s="3" t="s">
+        <v>134</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="C23" s="3">
         <v>1</v>
@@ -3180,10 +3414,10 @@
         <v>17</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>175</v>
+        <v>144</v>
       </c>
       <c r="K23" s="23" t="s">
-        <v>102</v>
+        <v>72</v>
       </c>
       <c r="L23" s="6">
         <v>0</v>
@@ -3222,30 +3456,30 @@
         <v>0</v>
       </c>
       <c r="X23" s="13" t="s">
-        <v>97</v>
+        <v>68</v>
       </c>
       <c r="Y23" s="22" t="s">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="Z23" s="27" t="s">
-        <v>166</v>
+        <v>135</v>
       </c>
       <c r="AA23" s="25" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="AB23" t="s">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="AC23" t="s">
-        <v>193</v>
+        <v>162</v>
       </c>
     </row>
     <row r="24" spans="1:29" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A24" s="19" t="s">
-        <v>167</v>
+      <c r="A24" s="3" t="s">
+        <v>136</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="C24" s="3">
         <v>1</v>
@@ -3270,10 +3504,10 @@
         <v>17</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>175</v>
+        <v>144</v>
       </c>
       <c r="K24" s="23" t="s">
-        <v>102</v>
+        <v>72</v>
       </c>
       <c r="L24" s="6">
         <v>0</v>
@@ -3312,30 +3546,30 @@
         <v>0</v>
       </c>
       <c r="X24" s="13" t="s">
-        <v>97</v>
+        <v>68</v>
       </c>
       <c r="Y24" s="22" t="s">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="Z24" s="27" t="s">
-        <v>168</v>
+        <v>137</v>
       </c>
       <c r="AA24" s="25" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="AB24" t="s">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="AC24" t="s">
-        <v>194</v>
+        <v>163</v>
       </c>
     </row>
     <row r="25" spans="1:29" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A25" s="19" t="s">
-        <v>169</v>
+      <c r="A25" s="3" t="s">
+        <v>138</v>
       </c>
       <c r="B25" s="18" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="C25" s="3">
         <v>1</v>
@@ -3360,10 +3594,10 @@
         <v>17</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>175</v>
+        <v>144</v>
       </c>
       <c r="K25" s="23" t="s">
-        <v>102</v>
+        <v>72</v>
       </c>
       <c r="L25" s="6">
         <v>0</v>
@@ -3402,30 +3636,30 @@
         <v>0</v>
       </c>
       <c r="X25" s="13" t="s">
-        <v>97</v>
+        <v>68</v>
       </c>
       <c r="Y25" s="22" t="s">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="Z25" s="27" t="s">
-        <v>170</v>
+        <v>139</v>
       </c>
       <c r="AA25" s="25" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="AB25" t="s">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="AC25" t="s">
-        <v>195</v>
+        <v>164</v>
       </c>
     </row>
     <row r="26" spans="1:29" ht="16" x14ac:dyDescent="0.2">
-      <c r="A26" s="19" t="s">
-        <v>171</v>
+      <c r="A26" s="3" t="s">
+        <v>140</v>
       </c>
       <c r="B26" s="18" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="C26" s="3">
         <v>1</v>
@@ -3450,10 +3684,10 @@
         <v>17</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>174</v>
+        <v>143</v>
       </c>
       <c r="K26" s="23" t="s">
-        <v>102</v>
+        <v>72</v>
       </c>
       <c r="L26" s="6">
         <v>0</v>
@@ -3492,30 +3726,30 @@
         <v>0</v>
       </c>
       <c r="X26" s="13" t="s">
-        <v>97</v>
+        <v>68</v>
       </c>
       <c r="Y26" s="22" t="s">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="Z26" s="3" t="s">
-        <v>201</v>
+        <v>170</v>
       </c>
       <c r="AA26" s="25" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="AB26" t="s">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="AC26" t="s">
-        <v>196</v>
+        <v>165</v>
       </c>
     </row>
     <row r="27" spans="1:29" ht="16" x14ac:dyDescent="0.2">
-      <c r="A27" s="19" t="s">
-        <v>206</v>
+      <c r="A27" s="3" t="s">
+        <v>175</v>
       </c>
       <c r="B27" s="18" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="C27" s="3">
         <v>1</v>
@@ -3540,10 +3774,10 @@
         <v>17</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>207</v>
+        <v>176</v>
       </c>
       <c r="K27" s="23" t="s">
-        <v>102</v>
+        <v>72</v>
       </c>
       <c r="L27" s="6">
         <v>0</v>
@@ -3582,30 +3816,30 @@
         <v>0</v>
       </c>
       <c r="X27" s="13" t="s">
-        <v>97</v>
+        <v>68</v>
       </c>
       <c r="Y27" s="22" t="s">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="Z27" s="3" t="s">
-        <v>208</v>
+        <v>177</v>
       </c>
       <c r="AA27" s="23" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="AB27" t="s">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="AC27" t="s">
-        <v>212</v>
+        <v>181</v>
       </c>
     </row>
     <row r="28" spans="1:29" ht="16" x14ac:dyDescent="0.2">
-      <c r="A28" s="19" t="s">
-        <v>172</v>
+      <c r="A28" s="3" t="s">
+        <v>141</v>
       </c>
       <c r="B28" s="18" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="C28" s="3">
         <v>1</v>
@@ -3630,10 +3864,10 @@
         <v>17</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>174</v>
+        <v>143</v>
       </c>
       <c r="K28" s="23" t="s">
-        <v>102</v>
+        <v>72</v>
       </c>
       <c r="L28" s="6">
         <v>0</v>
@@ -3672,30 +3906,30 @@
         <v>0</v>
       </c>
       <c r="X28" s="13" t="s">
-        <v>97</v>
+        <v>68</v>
       </c>
       <c r="Y28" s="22" t="s">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="Z28" s="3" t="s">
-        <v>202</v>
+        <v>171</v>
       </c>
       <c r="AA28" s="23" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="AB28" t="s">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="AC28" t="s">
-        <v>197</v>
+        <v>166</v>
       </c>
     </row>
     <row r="29" spans="1:29" ht="16" x14ac:dyDescent="0.2">
-      <c r="A29" s="19" t="s">
-        <v>210</v>
+      <c r="A29" s="3" t="s">
+        <v>179</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="C29" s="3">
         <v>1</v>
@@ -3720,10 +3954,10 @@
         <v>17</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>207</v>
+        <v>176</v>
       </c>
       <c r="K29" s="23" t="s">
-        <v>102</v>
+        <v>72</v>
       </c>
       <c r="L29" s="6">
         <v>0</v>
@@ -3762,30 +3996,30 @@
         <v>0</v>
       </c>
       <c r="X29" s="13" t="s">
-        <v>97</v>
+        <v>68</v>
       </c>
       <c r="Y29" s="22" t="s">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="Z29" s="3" t="s">
-        <v>209</v>
+        <v>178</v>
       </c>
       <c r="AA29" s="23" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="AB29" t="s">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="AC29" t="s">
-        <v>211</v>
+        <v>180</v>
       </c>
     </row>
     <row r="30" spans="1:29" ht="16" x14ac:dyDescent="0.2">
-      <c r="A30" s="33" t="s">
-        <v>173</v>
+      <c r="A30" s="27" t="s">
+        <v>142</v>
       </c>
       <c r="B30" s="26" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="C30" s="27">
         <v>1</v>
@@ -3810,10 +4044,10 @@
         <v>17</v>
       </c>
       <c r="J30" s="27" t="s">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="K30" s="25" t="s">
-        <v>102</v>
+        <v>72</v>
       </c>
       <c r="L30" s="30">
         <v>0</v>
@@ -3852,30 +4086,30 @@
         <v>0</v>
       </c>
       <c r="X30" s="29" t="s">
-        <v>97</v>
+        <v>68</v>
       </c>
       <c r="Y30" s="32" t="s">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="Z30" s="27" t="s">
-        <v>203</v>
+        <v>172</v>
       </c>
       <c r="AA30" s="25" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="AB30" s="28" t="s">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="AC30" s="28" t="s">
-        <v>198</v>
+        <v>167</v>
       </c>
     </row>
     <row r="31" spans="1:29" ht="16" x14ac:dyDescent="0.2">
-      <c r="A31" s="33" t="s">
-        <v>213</v>
+      <c r="A31" s="27" t="s">
+        <v>182</v>
       </c>
       <c r="B31" s="26" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="C31" s="27">
         <v>1</v>
@@ -3900,10 +4134,10 @@
         <v>17</v>
       </c>
       <c r="J31" s="27" t="s">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="K31" s="25" t="s">
-        <v>102</v>
+        <v>72</v>
       </c>
       <c r="L31" s="30">
         <v>0</v>
@@ -3942,30 +4176,30 @@
         <v>0</v>
       </c>
       <c r="X31" s="29" t="s">
-        <v>97</v>
+        <v>68</v>
       </c>
       <c r="Y31" s="32" t="s">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="Z31" s="3" t="s">
-        <v>201</v>
+        <v>170</v>
       </c>
       <c r="AA31" s="25" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="AB31" s="28" t="s">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="AC31" s="28" t="s">
-        <v>198</v>
+        <v>167</v>
       </c>
     </row>
     <row r="32" spans="1:29" ht="16" x14ac:dyDescent="0.2">
-      <c r="A32" s="33" t="s">
-        <v>199</v>
+      <c r="A32" s="27" t="s">
+        <v>168</v>
       </c>
       <c r="B32" s="26" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="C32" s="27">
         <v>1</v>
@@ -3990,10 +4224,10 @@
         <v>17</v>
       </c>
       <c r="J32" s="33" t="s">
-        <v>200</v>
+        <v>169</v>
       </c>
       <c r="K32" s="25" t="s">
-        <v>205</v>
+        <v>174</v>
       </c>
       <c r="L32" s="30">
         <v>0</v>
@@ -4032,22 +4266,22 @@
         <v>0</v>
       </c>
       <c r="X32" s="29" t="s">
-        <v>97</v>
+        <v>68</v>
       </c>
       <c r="Y32" s="32" t="s">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="Z32" s="27" t="s">
-        <v>204</v>
+        <v>173</v>
       </c>
       <c r="AA32" s="25" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="AB32" s="28" t="s">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="AC32" s="28" t="s">
-        <v>198</v>
+        <v>167</v>
       </c>
     </row>
     <row r="33" spans="1:29" s="8" customFormat="1" ht="5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4080,26 +4314,26 @@
     </row>
     <row r="34" spans="1:29" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B34" s="18" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="C34" s="3">
         <v>0</v>
       </c>
       <c r="D34" s="10">
-        <v>1000000</v>
+        <v>100100</v>
       </c>
       <c r="E34" s="3" t="str">
-        <f t="shared" ref="E34:E61" si="1">_xlfn.CONCAT("0x", DEC2HEX(_xlfn.BITLSHIFT($C34,7) + BIN2DEC($D34)))</f>
-        <v>0x40</v>
+        <f t="shared" ref="E34:E83" si="1">_xlfn.CONCAT("0x", DEC2HEX(_xlfn.BITLSHIFT($C34,7) + BIN2DEC($D34)))</f>
+        <v>0x24</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="G34">
-        <v>2</v>
+        <v>17</v>
+      </c>
+      <c r="G34" t="s">
+        <v>17</v>
       </c>
       <c r="H34" s="3" t="s">
         <v>17</v>
@@ -4111,10 +4345,10 @@
         <v>17</v>
       </c>
       <c r="K34" s="23" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="L34" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M34" s="6">
         <v>1</v>
@@ -4126,70 +4360,70 @@
         <v>0</v>
       </c>
       <c r="P34" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q34" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R34" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S34" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T34" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U34" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V34" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W34" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X34" s="13" t="s">
-        <v>97</v>
+        <v>68</v>
       </c>
       <c r="Y34" s="22" t="s">
-        <v>218</v>
+        <v>187</v>
       </c>
       <c r="Z34" s="3" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="AA34" s="23">
         <v>0</v>
       </c>
       <c r="AB34" t="s">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="AC34" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
     </row>
     <row r="35" spans="1:29" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B35" s="18" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="C35" s="3">
         <v>0</v>
       </c>
       <c r="D35" s="10">
-        <v>1000010</v>
+        <v>100101</v>
       </c>
       <c r="E35" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>0x42</v>
+        <v>0x25</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="G35">
-        <v>2</v>
+        <v>17</v>
+      </c>
+      <c r="G35" t="s">
+        <v>17</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>17</v>
@@ -4201,10 +4435,10 @@
         <v>17</v>
       </c>
       <c r="K35" s="23" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="L35" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M35" s="6">
         <v>1</v>
@@ -4216,64 +4450,64 @@
         <v>0</v>
       </c>
       <c r="P35" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q35" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R35" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S35" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T35" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U35" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V35" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W35" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X35" s="13" t="s">
-        <v>97</v>
+        <v>68</v>
       </c>
       <c r="Y35" s="22" t="s">
-        <v>218</v>
+        <v>187</v>
       </c>
       <c r="Z35" s="3" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="AA35" s="23">
         <v>0</v>
       </c>
       <c r="AB35" t="s">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="AC35" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
     </row>
-    <row r="36" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:29" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>30</v>
+        <v>76</v>
       </c>
       <c r="B36" s="18" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="C36" s="3">
         <v>0</v>
       </c>
       <c r="D36" s="10">
-        <v>1000100</v>
+        <v>11000</v>
       </c>
       <c r="E36" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>0x44</v>
+        <f>_xlfn.CONCAT("0x", DEC2HEX(_xlfn.BITLSHIFT($C36,7) + BIN2DEC($D36)))</f>
+        <v>0x18</v>
       </c>
       <c r="F36" s="3" t="s">
         <v>17</v>
@@ -4291,10 +4525,10 @@
         <v>17</v>
       </c>
       <c r="K36" s="23" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="L36" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M36" s="6">
         <v>0</v>
@@ -4321,49 +4555,49 @@
         <v>0</v>
       </c>
       <c r="U36" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V36" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W36" s="16">
         <v>0</v>
       </c>
       <c r="X36" s="13" t="s">
-        <v>97</v>
+        <v>68</v>
       </c>
       <c r="Y36" s="22" t="s">
-        <v>218</v>
+        <v>187</v>
       </c>
       <c r="Z36" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="AA36" s="23">
-        <v>0</v>
+        <v>87</v>
+      </c>
+      <c r="AA36" s="23" t="s">
+        <v>113</v>
       </c>
       <c r="AB36" t="s">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="AC36" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
     </row>
     <row r="37" spans="1:29" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="B37" s="18" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="C37" s="3">
         <v>0</v>
       </c>
       <c r="D37" s="10">
-        <v>1000101</v>
+        <v>11111</v>
       </c>
       <c r="E37" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>0x45</v>
+        <v>0x1F</v>
       </c>
       <c r="F37" s="3" t="s">
         <v>17</v>
@@ -4377,14 +4611,14 @@
       <c r="I37" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="J37" s="3" t="s">
+      <c r="J37" t="s">
         <v>17</v>
       </c>
       <c r="K37" s="23" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="L37" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M37" s="6">
         <v>0</v>
@@ -4411,55 +4645,55 @@
         <v>0</v>
       </c>
       <c r="U37" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V37" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W37" s="16">
         <v>0</v>
       </c>
       <c r="X37" s="13" t="s">
-        <v>97</v>
+        <v>68</v>
       </c>
       <c r="Y37" s="22" t="s">
-        <v>218</v>
+        <v>187</v>
       </c>
       <c r="Z37" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="AA37" s="23">
-        <v>0</v>
+        <v>88</v>
+      </c>
+      <c r="AA37" s="23" t="s">
+        <v>113</v>
       </c>
       <c r="AB37" t="s">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="AC37" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
     </row>
     <row r="38" spans="1:29" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>52</v>
+        <v>85</v>
       </c>
       <c r="B38" s="18" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="C38" s="3">
         <v>0</v>
       </c>
       <c r="D38" s="10">
-        <v>1110111</v>
+        <v>10000</v>
       </c>
       <c r="E38" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>0x77</v>
+        <v>0x10</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="G38">
-        <v>2</v>
+        <v>17</v>
+      </c>
+      <c r="G38" t="s">
+        <v>17</v>
       </c>
       <c r="H38" s="3" t="s">
         <v>17</v>
@@ -4467,14 +4701,14 @@
       <c r="I38" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="J38" s="3" t="s">
+      <c r="J38" t="s">
         <v>17</v>
       </c>
       <c r="K38" s="23" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="L38" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M38" s="6">
         <v>0</v>
@@ -4501,28 +4735,28 @@
         <v>0</v>
       </c>
       <c r="U38" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V38" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W38" s="16">
         <v>0</v>
       </c>
       <c r="X38" s="13" t="s">
-        <v>97</v>
+        <v>68</v>
       </c>
       <c r="Y38" s="22" t="s">
-        <v>218</v>
+        <v>187</v>
       </c>
       <c r="Z38" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="AA38" s="23">
-        <v>0</v>
+        <v>89</v>
+      </c>
+      <c r="AA38" s="23" t="s">
+        <v>113</v>
       </c>
       <c r="AB38" t="s">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="AC38" t="s">
         <v>79</v>
@@ -4530,26 +4764,26 @@
     </row>
     <row r="39" spans="1:29" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
-        <v>49</v>
+        <v>75</v>
       </c>
       <c r="B39" s="18" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="C39" s="3">
         <v>0</v>
       </c>
       <c r="D39" s="10">
-        <v>1100001</v>
+        <v>10001</v>
       </c>
       <c r="E39" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>0x61</v>
+        <v>0x11</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="G39">
-        <v>2</v>
+        <v>17</v>
+      </c>
+      <c r="G39" t="s">
+        <v>17</v>
       </c>
       <c r="H39" s="3" t="s">
         <v>17</v>
@@ -4557,11 +4791,11 @@
       <c r="I39" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="J39" s="3" t="s">
+      <c r="J39" t="s">
         <v>17</v>
       </c>
       <c r="K39" s="23" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="L39" s="6">
         <v>0</v>
@@ -4576,43 +4810,43 @@
         <v>0</v>
       </c>
       <c r="P39" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q39" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R39" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S39" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T39" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U39" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V39" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W39" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X39" s="13" t="s">
-        <v>97</v>
+        <v>68</v>
       </c>
       <c r="Y39" s="22" t="s">
-        <v>218</v>
+        <v>187</v>
       </c>
       <c r="Z39" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="AA39" s="23">
-        <v>0</v>
+        <v>41</v>
+      </c>
+      <c r="AA39" s="23" t="s">
+        <v>41</v>
       </c>
       <c r="AB39" t="s">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="AC39" t="s">
         <v>80</v>
@@ -4620,20 +4854,20 @@
     </row>
     <row r="40" spans="1:29" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
-        <v>32</v>
+        <v>86</v>
       </c>
       <c r="B40" s="18" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="C40" s="3">
         <v>0</v>
       </c>
       <c r="D40" s="10">
-        <v>1100010</v>
+        <v>10010</v>
       </c>
       <c r="E40" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>0x62</v>
+        <v>0x12</v>
       </c>
       <c r="F40" s="3" t="s">
         <v>17</v>
@@ -4647,11 +4881,11 @@
       <c r="I40" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="J40" s="3" t="s">
+      <c r="J40" t="s">
         <v>17</v>
       </c>
       <c r="K40" s="23" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="L40" s="6">
         <v>0</v>
@@ -4666,43 +4900,43 @@
         <v>0</v>
       </c>
       <c r="P40" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q40" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R40" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S40" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T40" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U40" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V40" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W40" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X40" s="13" t="s">
-        <v>97</v>
+        <v>68</v>
       </c>
       <c r="Y40" s="22" t="s">
-        <v>218</v>
+        <v>187</v>
       </c>
       <c r="Z40" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="AA40" s="23">
-        <v>0</v>
+        <v>90</v>
+      </c>
+      <c r="AA40" s="23" t="s">
+        <v>113</v>
       </c>
       <c r="AB40" t="s">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="AC40" t="s">
         <v>81</v>
@@ -4710,20 +4944,20 @@
     </row>
     <row r="41" spans="1:29" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
-        <v>33</v>
+        <v>84</v>
       </c>
       <c r="B41" s="18" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="C41" s="3">
         <v>0</v>
       </c>
       <c r="D41" s="10">
-        <v>1100011</v>
+        <v>10011</v>
       </c>
       <c r="E41" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>0x63</v>
+        <v>0x13</v>
       </c>
       <c r="F41" s="3" t="s">
         <v>17</v>
@@ -4737,11 +4971,11 @@
       <c r="I41" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="J41" s="3" t="s">
+      <c r="J41" t="s">
         <v>17</v>
       </c>
       <c r="K41" s="23" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="L41" s="6">
         <v>0</v>
@@ -4756,64 +4990,64 @@
         <v>0</v>
       </c>
       <c r="P41" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q41" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R41" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S41" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T41" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U41" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V41" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W41" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X41" s="13" t="s">
-        <v>97</v>
+        <v>68</v>
       </c>
       <c r="Y41" s="22" t="s">
-        <v>218</v>
+        <v>187</v>
       </c>
       <c r="Z41" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="AA41" s="23">
-        <v>0</v>
+        <v>91</v>
+      </c>
+      <c r="AA41" s="23" t="s">
+        <v>113</v>
       </c>
       <c r="AB41" t="s">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="AC41" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="42" spans="1:29" ht="16" x14ac:dyDescent="0.2">
-      <c r="A42" s="3" t="s">
-        <v>35</v>
+      <c r="A42" s="19" t="s">
+        <v>290</v>
       </c>
       <c r="B42" s="18" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="C42" s="3">
         <v>0</v>
       </c>
       <c r="D42" s="10">
-        <v>100100</v>
+        <v>11100</v>
       </c>
       <c r="E42" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>0x24</v>
+        <v>0x1C</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>17</v>
@@ -4827,17 +5061,17 @@
       <c r="I42" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="J42" s="3" t="s">
+      <c r="J42" t="s">
         <v>17</v>
       </c>
       <c r="K42" s="23" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="L42" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M42" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N42" s="6">
         <v>0</v>
@@ -4846,19 +5080,19 @@
         <v>0</v>
       </c>
       <c r="P42" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q42" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R42" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S42" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T42" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U42" s="6">
         <v>1</v>
@@ -4867,43 +5101,43 @@
         <v>1</v>
       </c>
       <c r="W42" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X42" s="13" t="s">
-        <v>97</v>
+        <v>68</v>
       </c>
       <c r="Y42" s="22" t="s">
-        <v>218</v>
+        <v>187</v>
       </c>
       <c r="Z42" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="AA42" s="23">
-        <v>0</v>
+        <v>189</v>
+      </c>
+      <c r="AA42" s="23" t="s">
+        <v>113</v>
       </c>
       <c r="AB42" t="s">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="AC42" t="s">
-        <v>83</v>
+        <v>188</v>
       </c>
     </row>
     <row r="43" spans="1:29" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
-        <v>34</v>
+        <v>183</v>
       </c>
       <c r="B43" s="18" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="C43" s="3">
         <v>0</v>
       </c>
       <c r="D43" s="10">
-        <v>100101</v>
+        <v>1111</v>
       </c>
       <c r="E43" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>0x25</v>
+        <v>0xF</v>
       </c>
       <c r="F43" s="3" t="s">
         <v>17</v>
@@ -4917,17 +5151,17 @@
       <c r="I43" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="J43" s="3" t="s">
+      <c r="J43" t="s">
         <v>17</v>
       </c>
       <c r="K43" s="23" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="L43" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M43" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N43" s="6">
         <v>0</v>
@@ -4936,19 +5170,19 @@
         <v>0</v>
       </c>
       <c r="P43" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q43" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R43" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S43" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T43" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U43" s="6">
         <v>1</v>
@@ -4957,43 +5191,43 @@
         <v>1</v>
       </c>
       <c r="W43" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X43" s="13" t="s">
-        <v>97</v>
+        <v>68</v>
       </c>
       <c r="Y43" s="22" t="s">
-        <v>218</v>
+        <v>187</v>
       </c>
       <c r="Z43" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="AA43" s="23">
-        <v>0</v>
+        <v>185</v>
+      </c>
+      <c r="AA43" s="23" t="s">
+        <v>113</v>
       </c>
       <c r="AB43" t="s">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="AC43" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
-    <row r="44" spans="1:29" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:29" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="19" t="s">
-        <v>106</v>
+        <v>184</v>
       </c>
       <c r="B44" s="18" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="C44" s="3">
         <v>0</v>
       </c>
       <c r="D44" s="10">
-        <v>11000</v>
+        <v>1100</v>
       </c>
       <c r="E44" s="3" t="str">
-        <f>_xlfn.CONCAT("0x", DEC2HEX(_xlfn.BITLSHIFT($C44,7) + BIN2DEC($D44)))</f>
-        <v>0x18</v>
+        <f t="shared" si="1"/>
+        <v>0xC</v>
       </c>
       <c r="F44" s="3" t="s">
         <v>17</v>
@@ -5007,11 +5241,11 @@
       <c r="I44" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="J44" s="3" t="s">
+      <c r="J44" t="s">
         <v>17</v>
       </c>
       <c r="K44" s="23" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="L44" s="6">
         <v>0</v>
@@ -5050,40 +5284,40 @@
         <v>0</v>
       </c>
       <c r="X44" s="13" t="s">
-        <v>97</v>
+        <v>68</v>
       </c>
       <c r="Y44" s="22" t="s">
-        <v>218</v>
+        <v>187</v>
       </c>
       <c r="Z44" s="3" t="s">
-        <v>118</v>
+        <v>186</v>
       </c>
       <c r="AA44" s="23" t="s">
-        <v>144</v>
+        <v>113</v>
       </c>
       <c r="AB44" t="s">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="AC44" t="s">
-        <v>107</v>
+        <v>82</v>
       </c>
     </row>
     <row r="45" spans="1:29" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="19" t="s">
-        <v>113</v>
+        <v>291</v>
       </c>
       <c r="B45" s="18" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="C45" s="3">
         <v>0</v>
       </c>
       <c r="D45" s="10">
-        <v>11111</v>
+        <v>1101</v>
       </c>
       <c r="E45" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>0x1F</v>
+        <v>0xD</v>
       </c>
       <c r="F45" s="3" t="s">
         <v>17</v>
@@ -5101,7 +5335,7 @@
         <v>17</v>
       </c>
       <c r="K45" s="23" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="L45" s="6">
         <v>0</v>
@@ -5140,40 +5374,37 @@
         <v>0</v>
       </c>
       <c r="X45" s="13" t="s">
-        <v>97</v>
+        <v>68</v>
       </c>
       <c r="Y45" s="22" t="s">
-        <v>218</v>
+        <v>187</v>
       </c>
       <c r="Z45" s="3" t="s">
-        <v>119</v>
+        <v>293</v>
       </c>
       <c r="AA45" s="23" t="s">
-        <v>144</v>
+        <v>113</v>
       </c>
       <c r="AB45" t="s">
-        <v>100</v>
-      </c>
-      <c r="AC45" t="s">
-        <v>108</v>
+        <v>70</v>
       </c>
     </row>
     <row r="46" spans="1:29" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="19" t="s">
-        <v>115</v>
+        <v>292</v>
       </c>
       <c r="B46" s="18" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="C46" s="3">
         <v>0</v>
       </c>
       <c r="D46" s="10">
-        <v>10000</v>
+        <v>1110</v>
       </c>
       <c r="E46" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>0x10</v>
+        <v>0xE</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>17</v>
@@ -5191,7 +5422,7 @@
         <v>17</v>
       </c>
       <c r="K46" s="23" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="L46" s="6">
         <v>0</v>
@@ -5230,46 +5461,43 @@
         <v>0</v>
       </c>
       <c r="X46" s="13" t="s">
-        <v>97</v>
+        <v>68</v>
       </c>
       <c r="Y46" s="22" t="s">
-        <v>218</v>
+        <v>187</v>
       </c>
       <c r="Z46" s="3" t="s">
-        <v>120</v>
+        <v>294</v>
       </c>
       <c r="AA46" s="23" t="s">
-        <v>144</v>
+        <v>113</v>
       </c>
       <c r="AB46" t="s">
-        <v>100</v>
-      </c>
-      <c r="AC46" t="s">
-        <v>109</v>
+        <v>70</v>
       </c>
     </row>
     <row r="47" spans="1:29" ht="16" x14ac:dyDescent="0.2">
-      <c r="A47" s="3" t="s">
-        <v>105</v>
+      <c r="A47" s="19" t="s">
+        <v>190</v>
       </c>
       <c r="B47" s="18" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="C47" s="3">
         <v>0</v>
       </c>
       <c r="D47" s="10">
-        <v>10001</v>
+        <v>1000000</v>
       </c>
       <c r="E47" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>0x11</v>
+        <v>0x40</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>17</v>
+        <v>69</v>
       </c>
       <c r="G47" t="s">
-        <v>17</v>
+        <v>68</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>17</v>
@@ -5277,11 +5505,11 @@
       <c r="I47" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="J47" t="s">
+      <c r="J47" s="3" t="s">
         <v>17</v>
       </c>
       <c r="K47" s="23" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="L47" s="6">
         <v>0</v>
@@ -5320,46 +5548,46 @@
         <v>0</v>
       </c>
       <c r="X47" s="13" t="s">
-        <v>97</v>
+        <v>68</v>
       </c>
       <c r="Y47" s="22" t="s">
-        <v>218</v>
+        <v>187</v>
       </c>
       <c r="Z47" s="3" t="s">
-        <v>57</v>
+        <v>224</v>
       </c>
       <c r="AA47" s="23" t="s">
-        <v>57</v>
+        <v>113</v>
       </c>
       <c r="AB47" t="s">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="AC47" t="s">
-        <v>110</v>
+        <v>223</v>
       </c>
     </row>
     <row r="48" spans="1:29" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="19" t="s">
-        <v>116</v>
+        <v>191</v>
       </c>
       <c r="B48" s="18" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="C48" s="3">
         <v>0</v>
       </c>
       <c r="D48" s="10">
-        <v>10010</v>
+        <v>1000010</v>
       </c>
       <c r="E48" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>0x12</v>
+        <v>0x42</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>17</v>
+        <v>69</v>
       </c>
       <c r="G48" t="s">
-        <v>17</v>
+        <v>68</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>17</v>
@@ -5367,89 +5595,89 @@
       <c r="I48" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="J48" t="s">
+      <c r="J48" s="3" t="s">
         <v>17</v>
       </c>
       <c r="K48" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="L48" s="6">
-        <v>0</v>
-      </c>
-      <c r="M48" s="6">
-        <v>0</v>
-      </c>
-      <c r="N48" s="6">
-        <v>0</v>
-      </c>
-      <c r="O48" s="6">
-        <v>0</v>
-      </c>
-      <c r="P48" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q48" s="6">
-        <v>0</v>
-      </c>
-      <c r="R48" s="6">
-        <v>0</v>
-      </c>
-      <c r="S48" s="6">
-        <v>0</v>
-      </c>
-      <c r="T48" s="6">
-        <v>0</v>
-      </c>
-      <c r="U48" s="6">
-        <v>1</v>
-      </c>
-      <c r="V48" s="6">
-        <v>1</v>
-      </c>
-      <c r="W48" s="16">
+        <v>41</v>
+      </c>
+      <c r="L48" s="30">
+        <v>0</v>
+      </c>
+      <c r="M48" s="30">
+        <v>0</v>
+      </c>
+      <c r="N48" s="30">
+        <v>0</v>
+      </c>
+      <c r="O48" s="30">
+        <v>0</v>
+      </c>
+      <c r="P48" s="30">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="30">
+        <v>0</v>
+      </c>
+      <c r="R48" s="30">
+        <v>0</v>
+      </c>
+      <c r="S48" s="30">
+        <v>0</v>
+      </c>
+      <c r="T48" s="30">
+        <v>0</v>
+      </c>
+      <c r="U48" s="30">
+        <v>1</v>
+      </c>
+      <c r="V48" s="30">
+        <v>1</v>
+      </c>
+      <c r="W48" s="31">
         <v>0</v>
       </c>
       <c r="X48" s="13" t="s">
-        <v>97</v>
+        <v>68</v>
       </c>
       <c r="Y48" s="22" t="s">
-        <v>218</v>
+        <v>187</v>
       </c>
       <c r="Z48" s="3" t="s">
-        <v>121</v>
+        <v>225</v>
       </c>
       <c r="AA48" s="23" t="s">
-        <v>144</v>
+        <v>226</v>
       </c>
       <c r="AB48" t="s">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="AC48" t="s">
-        <v>111</v>
+        <v>227</v>
       </c>
     </row>
     <row r="49" spans="1:29" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="19" t="s">
-        <v>114</v>
+        <v>192</v>
       </c>
       <c r="B49" s="18" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="C49" s="3">
         <v>0</v>
       </c>
       <c r="D49" s="10">
-        <v>10011</v>
+        <v>1000011</v>
       </c>
       <c r="E49" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>0x13</v>
+        <v>0x43</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>17</v>
+        <v>69</v>
       </c>
       <c r="G49" t="s">
-        <v>17</v>
+        <v>68</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>17</v>
@@ -5457,89 +5685,89 @@
       <c r="I49" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="J49" t="s">
+      <c r="J49" s="3" t="s">
         <v>17</v>
       </c>
       <c r="K49" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="L49" s="6">
-        <v>0</v>
-      </c>
-      <c r="M49" s="6">
-        <v>0</v>
-      </c>
-      <c r="N49" s="6">
-        <v>0</v>
-      </c>
-      <c r="O49" s="6">
-        <v>0</v>
-      </c>
-      <c r="P49" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q49" s="6">
-        <v>0</v>
-      </c>
-      <c r="R49" s="6">
-        <v>0</v>
-      </c>
-      <c r="S49" s="6">
-        <v>0</v>
-      </c>
-      <c r="T49" s="6">
-        <v>0</v>
-      </c>
-      <c r="U49" s="6">
-        <v>1</v>
-      </c>
-      <c r="V49" s="6">
-        <v>1</v>
-      </c>
-      <c r="W49" s="16">
+        <v>41</v>
+      </c>
+      <c r="L49" s="30">
+        <v>0</v>
+      </c>
+      <c r="M49" s="30">
+        <v>0</v>
+      </c>
+      <c r="N49" s="30">
+        <v>0</v>
+      </c>
+      <c r="O49" s="30">
+        <v>0</v>
+      </c>
+      <c r="P49" s="30">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="30">
+        <v>0</v>
+      </c>
+      <c r="R49" s="30">
+        <v>0</v>
+      </c>
+      <c r="S49" s="30">
+        <v>0</v>
+      </c>
+      <c r="T49" s="30">
+        <v>0</v>
+      </c>
+      <c r="U49" s="30">
+        <v>1</v>
+      </c>
+      <c r="V49" s="30">
+        <v>1</v>
+      </c>
+      <c r="W49" s="31">
         <v>0</v>
       </c>
       <c r="X49" s="13" t="s">
-        <v>97</v>
+        <v>68</v>
       </c>
       <c r="Y49" s="22" t="s">
-        <v>218</v>
+        <v>187</v>
       </c>
       <c r="Z49" s="3" t="s">
-        <v>122</v>
+        <v>225</v>
       </c>
       <c r="AA49" s="23" t="s">
-        <v>144</v>
+        <v>232</v>
       </c>
       <c r="AB49" t="s">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="AC49" t="s">
-        <v>112</v>
+        <v>228</v>
       </c>
     </row>
     <row r="50" spans="1:29" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="19" t="s">
-        <v>214</v>
+        <v>193</v>
       </c>
       <c r="B50" s="18" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="C50" s="3">
         <v>0</v>
       </c>
       <c r="D50" s="10">
-        <v>1111</v>
+        <v>1000100</v>
       </c>
       <c r="E50" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>0xF</v>
+        <v>0x44</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>17</v>
+        <v>69</v>
       </c>
       <c r="G50" t="s">
-        <v>17</v>
+        <v>68</v>
       </c>
       <c r="H50" s="3" t="s">
         <v>17</v>
@@ -5547,89 +5775,89 @@
       <c r="I50" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="J50" t="s">
+      <c r="J50" s="3" t="s">
         <v>17</v>
       </c>
       <c r="K50" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="L50" s="6">
-        <v>0</v>
-      </c>
-      <c r="M50" s="6">
-        <v>0</v>
-      </c>
-      <c r="N50" s="6">
-        <v>0</v>
-      </c>
-      <c r="O50" s="6">
-        <v>0</v>
-      </c>
-      <c r="P50" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q50" s="6">
-        <v>0</v>
-      </c>
-      <c r="R50" s="6">
-        <v>0</v>
-      </c>
-      <c r="S50" s="6">
-        <v>0</v>
-      </c>
-      <c r="T50" s="6">
-        <v>0</v>
-      </c>
-      <c r="U50" s="6">
-        <v>1</v>
-      </c>
-      <c r="V50" s="6">
-        <v>1</v>
-      </c>
-      <c r="W50" s="16">
+        <v>41</v>
+      </c>
+      <c r="L50" s="30">
+        <v>0</v>
+      </c>
+      <c r="M50" s="30">
+        <v>0</v>
+      </c>
+      <c r="N50" s="30">
+        <v>0</v>
+      </c>
+      <c r="O50" s="30">
+        <v>0</v>
+      </c>
+      <c r="P50" s="30">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="30">
+        <v>0</v>
+      </c>
+      <c r="R50" s="30">
+        <v>0</v>
+      </c>
+      <c r="S50" s="30">
+        <v>0</v>
+      </c>
+      <c r="T50" s="30">
+        <v>0</v>
+      </c>
+      <c r="U50" s="30">
+        <v>1</v>
+      </c>
+      <c r="V50" s="30">
+        <v>1</v>
+      </c>
+      <c r="W50" s="31">
         <v>0</v>
       </c>
       <c r="X50" s="13" t="s">
-        <v>97</v>
+        <v>68</v>
       </c>
       <c r="Y50" s="22" t="s">
-        <v>218</v>
-      </c>
-      <c r="Z50" s="3" t="s">
-        <v>216</v>
+        <v>187</v>
+      </c>
+      <c r="Z50" s="27" t="s">
+        <v>225</v>
       </c>
       <c r="AA50" s="23" t="s">
-        <v>144</v>
+        <v>233</v>
       </c>
       <c r="AB50" t="s">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="AC50" t="s">
-        <v>112</v>
+        <v>229</v>
       </c>
     </row>
     <row r="51" spans="1:29" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="19" t="s">
-        <v>215</v>
+        <v>194</v>
       </c>
       <c r="B51" s="18" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="C51" s="3">
         <v>0</v>
       </c>
       <c r="D51" s="10">
-        <v>1100</v>
+        <v>1000101</v>
       </c>
       <c r="E51" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>0xC</v>
+        <v>0x45</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>17</v>
+        <v>69</v>
       </c>
       <c r="G51" t="s">
-        <v>17</v>
+        <v>68</v>
       </c>
       <c r="H51" s="3" t="s">
         <v>17</v>
@@ -5637,89 +5865,89 @@
       <c r="I51" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="J51" t="s">
+      <c r="J51" s="3" t="s">
         <v>17</v>
       </c>
       <c r="K51" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="L51" s="6">
-        <v>0</v>
-      </c>
-      <c r="M51" s="6">
-        <v>0</v>
-      </c>
-      <c r="N51" s="6">
-        <v>0</v>
-      </c>
-      <c r="O51" s="6">
-        <v>0</v>
-      </c>
-      <c r="P51" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q51" s="6">
-        <v>0</v>
-      </c>
-      <c r="R51" s="6">
-        <v>0</v>
-      </c>
-      <c r="S51" s="6">
-        <v>0</v>
-      </c>
-      <c r="T51" s="6">
-        <v>0</v>
-      </c>
-      <c r="U51" s="6">
-        <v>1</v>
-      </c>
-      <c r="V51" s="6">
-        <v>1</v>
-      </c>
-      <c r="W51" s="16">
+        <v>41</v>
+      </c>
+      <c r="L51" s="30">
+        <v>0</v>
+      </c>
+      <c r="M51" s="30">
+        <v>0</v>
+      </c>
+      <c r="N51" s="30">
+        <v>0</v>
+      </c>
+      <c r="O51" s="30">
+        <v>0</v>
+      </c>
+      <c r="P51" s="30">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="30">
+        <v>0</v>
+      </c>
+      <c r="R51" s="30">
+        <v>0</v>
+      </c>
+      <c r="S51" s="30">
+        <v>0</v>
+      </c>
+      <c r="T51" s="30">
+        <v>0</v>
+      </c>
+      <c r="U51" s="30">
+        <v>1</v>
+      </c>
+      <c r="V51" s="30">
+        <v>1</v>
+      </c>
+      <c r="W51" s="31">
         <v>0</v>
       </c>
       <c r="X51" s="13" t="s">
-        <v>97</v>
+        <v>68</v>
       </c>
       <c r="Y51" s="22" t="s">
-        <v>218</v>
+        <v>187</v>
       </c>
       <c r="Z51" s="3" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="AA51" s="23" t="s">
-        <v>144</v>
+        <v>234</v>
       </c>
       <c r="AB51" t="s">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="AC51" t="s">
-        <v>112</v>
+        <v>230</v>
       </c>
     </row>
     <row r="52" spans="1:29" ht="16" x14ac:dyDescent="0.2">
-      <c r="A52" s="3" t="s">
-        <v>50</v>
+      <c r="A52" s="19" t="s">
+        <v>195</v>
       </c>
       <c r="B52" s="18" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="C52" s="3">
         <v>0</v>
       </c>
       <c r="D52" s="10">
-        <v>11010</v>
+        <v>1000110</v>
       </c>
       <c r="E52" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>0x1A</v>
+        <v>0x46</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="G52">
-        <v>1</v>
+        <v>69</v>
+      </c>
+      <c r="G52" t="s">
+        <v>68</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>17</v>
@@ -5731,85 +5959,85 @@
         <v>17</v>
       </c>
       <c r="K52" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="L52" s="6">
-        <v>0</v>
-      </c>
-      <c r="M52" s="6">
-        <v>0</v>
-      </c>
-      <c r="N52" s="6">
-        <v>0</v>
-      </c>
-      <c r="O52" s="6">
-        <v>0</v>
-      </c>
-      <c r="P52" s="6">
-        <v>1</v>
-      </c>
-      <c r="Q52" s="6">
-        <v>1</v>
-      </c>
-      <c r="R52" s="6">
-        <v>1</v>
-      </c>
-      <c r="S52" s="6">
-        <v>1</v>
-      </c>
-      <c r="T52" s="6">
-        <v>1</v>
-      </c>
-      <c r="U52" s="6">
-        <v>0</v>
-      </c>
-      <c r="V52" s="6">
-        <v>0</v>
-      </c>
-      <c r="W52" s="16">
+        <v>41</v>
+      </c>
+      <c r="L52" s="30">
+        <v>0</v>
+      </c>
+      <c r="M52" s="30">
+        <v>0</v>
+      </c>
+      <c r="N52" s="30">
+        <v>0</v>
+      </c>
+      <c r="O52" s="30">
+        <v>0</v>
+      </c>
+      <c r="P52" s="30">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="30">
+        <v>0</v>
+      </c>
+      <c r="R52" s="30">
+        <v>0</v>
+      </c>
+      <c r="S52" s="30">
+        <v>0</v>
+      </c>
+      <c r="T52" s="30">
+        <v>0</v>
+      </c>
+      <c r="U52" s="30">
+        <v>1</v>
+      </c>
+      <c r="V52" s="30">
+        <v>1</v>
+      </c>
+      <c r="W52" s="31">
         <v>0</v>
       </c>
       <c r="X52" s="13" t="s">
-        <v>97</v>
+        <v>68</v>
       </c>
       <c r="Y52" s="22" t="s">
-        <v>218</v>
-      </c>
-      <c r="Z52" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="AA52" s="23">
-        <v>0</v>
+        <v>187</v>
+      </c>
+      <c r="Z52" s="27" t="s">
+        <v>225</v>
+      </c>
+      <c r="AA52" s="25" t="s">
+        <v>235</v>
       </c>
       <c r="AB52" t="s">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="AC52" t="s">
-        <v>85</v>
+        <v>231</v>
       </c>
     </row>
     <row r="53" spans="1:29" ht="16" x14ac:dyDescent="0.2">
-      <c r="A53" s="3" t="s">
-        <v>47</v>
+      <c r="A53" s="19" t="s">
+        <v>196</v>
       </c>
       <c r="B53" s="18" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="C53" s="3">
         <v>0</v>
       </c>
       <c r="D53" s="10">
-        <v>11100</v>
+        <v>1000111</v>
       </c>
       <c r="E53" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>0x1C</v>
+        <v>0x47</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>98</v>
+        <v>69</v>
       </c>
       <c r="G53" t="s">
-        <v>97</v>
+        <v>68</v>
       </c>
       <c r="H53" s="3" t="s">
         <v>17</v>
@@ -5821,85 +6049,85 @@
         <v>17</v>
       </c>
       <c r="K53" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="L53" s="6">
-        <v>0</v>
-      </c>
-      <c r="M53" s="6">
-        <v>0</v>
-      </c>
-      <c r="N53" s="6">
-        <v>0</v>
-      </c>
-      <c r="O53" s="6">
-        <v>0</v>
-      </c>
-      <c r="P53" s="6">
-        <v>1</v>
-      </c>
-      <c r="Q53" s="6">
-        <v>1</v>
-      </c>
-      <c r="R53" s="6">
-        <v>1</v>
-      </c>
-      <c r="S53" s="6">
-        <v>1</v>
-      </c>
-      <c r="T53" s="6">
-        <v>1</v>
-      </c>
-      <c r="U53" s="6">
-        <v>0</v>
-      </c>
-      <c r="V53" s="6">
-        <v>0</v>
-      </c>
-      <c r="W53" s="16">
+        <v>41</v>
+      </c>
+      <c r="L53" s="30">
+        <v>0</v>
+      </c>
+      <c r="M53" s="30">
+        <v>0</v>
+      </c>
+      <c r="N53" s="30">
+        <v>0</v>
+      </c>
+      <c r="O53" s="30">
+        <v>0</v>
+      </c>
+      <c r="P53" s="30">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="30">
+        <v>0</v>
+      </c>
+      <c r="R53" s="30">
+        <v>0</v>
+      </c>
+      <c r="S53" s="30">
+        <v>0</v>
+      </c>
+      <c r="T53" s="30">
+        <v>0</v>
+      </c>
+      <c r="U53" s="30">
+        <v>1</v>
+      </c>
+      <c r="V53" s="30">
+        <v>1</v>
+      </c>
+      <c r="W53" s="31">
         <v>0</v>
       </c>
       <c r="X53" s="13" t="s">
-        <v>97</v>
+        <v>68</v>
       </c>
       <c r="Y53" s="22" t="s">
-        <v>218</v>
+        <v>187</v>
       </c>
       <c r="Z53" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="AA53" s="23">
-        <v>0</v>
+        <v>225</v>
+      </c>
+      <c r="AA53" s="25" t="s">
+        <v>236</v>
       </c>
       <c r="AB53" t="s">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="AC53" t="s">
-        <v>86</v>
+        <v>263</v>
       </c>
     </row>
     <row r="54" spans="1:29" ht="16" x14ac:dyDescent="0.2">
-      <c r="A54" s="3" t="s">
-        <v>48</v>
+      <c r="A54" s="19" t="s">
+        <v>197</v>
       </c>
       <c r="B54" s="18" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="C54" s="3">
         <v>0</v>
       </c>
       <c r="D54" s="10">
-        <v>11101</v>
+        <v>1001000</v>
       </c>
       <c r="E54" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>0x1D</v>
+        <v>0x48</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="G54" t="s">
-        <v>97</v>
+        <v>68</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>17</v>
@@ -5911,85 +6139,85 @@
         <v>17</v>
       </c>
       <c r="K54" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="L54" s="6">
-        <v>0</v>
-      </c>
-      <c r="M54" s="6">
-        <v>0</v>
-      </c>
-      <c r="N54" s="6">
-        <v>0</v>
-      </c>
-      <c r="O54" s="6">
-        <v>0</v>
-      </c>
-      <c r="P54" s="6">
-        <v>1</v>
-      </c>
-      <c r="Q54" s="6">
-        <v>1</v>
-      </c>
-      <c r="R54" s="6">
-        <v>1</v>
-      </c>
-      <c r="S54" s="6">
-        <v>1</v>
-      </c>
-      <c r="T54" s="6">
-        <v>1</v>
-      </c>
-      <c r="U54" s="6">
-        <v>0</v>
-      </c>
-      <c r="V54" s="6">
-        <v>0</v>
-      </c>
-      <c r="W54" s="16">
+        <v>41</v>
+      </c>
+      <c r="L54" s="30">
+        <v>0</v>
+      </c>
+      <c r="M54" s="30">
+        <v>0</v>
+      </c>
+      <c r="N54" s="30">
+        <v>0</v>
+      </c>
+      <c r="O54" s="30">
+        <v>0</v>
+      </c>
+      <c r="P54" s="30">
+        <v>0</v>
+      </c>
+      <c r="Q54" s="30">
+        <v>0</v>
+      </c>
+      <c r="R54" s="30">
+        <v>0</v>
+      </c>
+      <c r="S54" s="30">
+        <v>0</v>
+      </c>
+      <c r="T54" s="30">
+        <v>0</v>
+      </c>
+      <c r="U54" s="30">
+        <v>1</v>
+      </c>
+      <c r="V54" s="30">
+        <v>1</v>
+      </c>
+      <c r="W54" s="31">
         <v>0</v>
       </c>
       <c r="X54" s="13" t="s">
-        <v>97</v>
+        <v>68</v>
       </c>
       <c r="Y54" s="22" t="s">
-        <v>218</v>
-      </c>
-      <c r="Z54" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="AA54" s="23">
-        <v>0</v>
+        <v>187</v>
+      </c>
+      <c r="Z54" s="27" t="s">
+        <v>225</v>
+      </c>
+      <c r="AA54" s="25" t="s">
+        <v>237</v>
       </c>
       <c r="AB54" t="s">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="AC54" t="s">
-        <v>87</v>
+        <v>264</v>
       </c>
     </row>
     <row r="55" spans="1:29" ht="16" x14ac:dyDescent="0.2">
-      <c r="A55" s="3" t="s">
-        <v>39</v>
+      <c r="A55" s="19" t="s">
+        <v>198</v>
       </c>
       <c r="B55" s="18" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="C55" s="3">
         <v>0</v>
       </c>
       <c r="D55" s="10">
-        <v>111010</v>
+        <v>1001001</v>
       </c>
       <c r="E55" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>0x3A</v>
+        <v>0x49</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="G55" t="s">
-        <v>97</v>
+        <v>68</v>
       </c>
       <c r="H55" s="3" t="s">
         <v>17</v>
@@ -6001,85 +6229,85 @@
         <v>17</v>
       </c>
       <c r="K55" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="L55" s="6">
-        <v>0</v>
-      </c>
-      <c r="M55" s="6">
-        <v>0</v>
-      </c>
-      <c r="N55" s="6">
-        <v>0</v>
-      </c>
-      <c r="O55" s="6">
-        <v>0</v>
-      </c>
-      <c r="P55" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q55" s="6">
-        <v>0</v>
-      </c>
-      <c r="R55" s="6">
-        <v>0</v>
-      </c>
-      <c r="S55" s="6">
-        <v>0</v>
-      </c>
-      <c r="T55" s="6">
-        <v>0</v>
-      </c>
-      <c r="U55" s="6">
-        <v>1</v>
-      </c>
-      <c r="V55" s="6">
-        <v>1</v>
-      </c>
-      <c r="W55" s="16">
+        <v>41</v>
+      </c>
+      <c r="L55" s="30">
+        <v>0</v>
+      </c>
+      <c r="M55" s="30">
+        <v>0</v>
+      </c>
+      <c r="N55" s="30">
+        <v>0</v>
+      </c>
+      <c r="O55" s="30">
+        <v>0</v>
+      </c>
+      <c r="P55" s="30">
+        <v>0</v>
+      </c>
+      <c r="Q55" s="30">
+        <v>0</v>
+      </c>
+      <c r="R55" s="30">
+        <v>0</v>
+      </c>
+      <c r="S55" s="30">
+        <v>0</v>
+      </c>
+      <c r="T55" s="30">
+        <v>0</v>
+      </c>
+      <c r="U55" s="30">
+        <v>1</v>
+      </c>
+      <c r="V55" s="30">
+        <v>1</v>
+      </c>
+      <c r="W55" s="31">
         <v>0</v>
       </c>
       <c r="X55" s="13" t="s">
-        <v>97</v>
+        <v>68</v>
       </c>
       <c r="Y55" s="22" t="s">
-        <v>218</v>
+        <v>187</v>
       </c>
       <c r="Z55" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="AA55" s="23">
-        <v>0</v>
+        <v>225</v>
+      </c>
+      <c r="AA55" s="25" t="s">
+        <v>238</v>
       </c>
       <c r="AB55" t="s">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="AC55" t="s">
-        <v>88</v>
+        <v>265</v>
       </c>
     </row>
     <row r="56" spans="1:29" ht="16" x14ac:dyDescent="0.2">
-      <c r="A56" s="3" t="s">
-        <v>40</v>
+      <c r="A56" s="19" t="s">
+        <v>211</v>
       </c>
       <c r="B56" s="18" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="C56" s="3">
         <v>0</v>
       </c>
       <c r="D56" s="10">
-        <v>111011</v>
+        <v>1001010</v>
       </c>
       <c r="E56" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>0x3B</v>
+        <v>0x4A</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="G56" t="s">
-        <v>97</v>
+        <v>68</v>
       </c>
       <c r="H56" s="3" t="s">
         <v>17</v>
@@ -6091,85 +6319,85 @@
         <v>17</v>
       </c>
       <c r="K56" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="L56" s="6">
-        <v>0</v>
-      </c>
-      <c r="M56" s="6">
-        <v>0</v>
-      </c>
-      <c r="N56" s="6">
-        <v>0</v>
-      </c>
-      <c r="O56" s="6">
-        <v>0</v>
-      </c>
-      <c r="P56" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q56" s="6">
-        <v>0</v>
-      </c>
-      <c r="R56" s="6">
-        <v>0</v>
-      </c>
-      <c r="S56" s="6">
-        <v>0</v>
-      </c>
-      <c r="T56" s="6">
-        <v>0</v>
-      </c>
-      <c r="U56" s="6">
-        <v>1</v>
-      </c>
-      <c r="V56" s="6">
-        <v>1</v>
-      </c>
-      <c r="W56" s="16">
+        <v>41</v>
+      </c>
+      <c r="L56" s="30">
+        <v>0</v>
+      </c>
+      <c r="M56" s="30">
+        <v>0</v>
+      </c>
+      <c r="N56" s="30">
+        <v>0</v>
+      </c>
+      <c r="O56" s="30">
+        <v>0</v>
+      </c>
+      <c r="P56" s="30">
+        <v>0</v>
+      </c>
+      <c r="Q56" s="30">
+        <v>0</v>
+      </c>
+      <c r="R56" s="30">
+        <v>0</v>
+      </c>
+      <c r="S56" s="30">
+        <v>0</v>
+      </c>
+      <c r="T56" s="30">
+        <v>0</v>
+      </c>
+      <c r="U56" s="30">
+        <v>1</v>
+      </c>
+      <c r="V56" s="30">
+        <v>1</v>
+      </c>
+      <c r="W56" s="31">
         <v>0</v>
       </c>
       <c r="X56" s="13" t="s">
-        <v>97</v>
+        <v>68</v>
       </c>
       <c r="Y56" s="22" t="s">
-        <v>218</v>
-      </c>
-      <c r="Z56" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="AA56" s="23">
-        <v>0</v>
+        <v>187</v>
+      </c>
+      <c r="Z56" s="27" t="s">
+        <v>225</v>
+      </c>
+      <c r="AA56" s="25" t="s">
+        <v>239</v>
       </c>
       <c r="AB56" t="s">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="AC56" t="s">
-        <v>89</v>
+        <v>266</v>
       </c>
     </row>
     <row r="57" spans="1:29" ht="16" x14ac:dyDescent="0.2">
-      <c r="A57" s="3" t="s">
-        <v>38</v>
+      <c r="A57" s="19" t="s">
+        <v>212</v>
       </c>
       <c r="B57" s="18" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="C57" s="3">
         <v>0</v>
       </c>
       <c r="D57" s="10">
-        <v>111001</v>
+        <v>1001011</v>
       </c>
       <c r="E57" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>0x39</v>
+        <v>0x4B</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>17</v>
+        <v>69</v>
       </c>
       <c r="G57" t="s">
-        <v>17</v>
+        <v>68</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>17</v>
@@ -6181,85 +6409,85 @@
         <v>17</v>
       </c>
       <c r="K57" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="L57" s="6">
-        <v>1</v>
-      </c>
-      <c r="M57" s="6">
-        <v>0</v>
-      </c>
-      <c r="N57" s="6">
-        <v>0</v>
-      </c>
-      <c r="O57" s="6">
-        <v>0</v>
-      </c>
-      <c r="P57" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q57" s="6">
-        <v>0</v>
-      </c>
-      <c r="R57" s="6">
-        <v>0</v>
-      </c>
-      <c r="S57" s="6">
-        <v>0</v>
-      </c>
-      <c r="T57" s="6">
-        <v>0</v>
-      </c>
-      <c r="U57" s="6">
-        <v>0</v>
-      </c>
-      <c r="V57" s="6">
-        <v>0</v>
-      </c>
-      <c r="W57" s="16">
+        <v>41</v>
+      </c>
+      <c r="L57" s="30">
+        <v>0</v>
+      </c>
+      <c r="M57" s="30">
+        <v>0</v>
+      </c>
+      <c r="N57" s="30">
+        <v>0</v>
+      </c>
+      <c r="O57" s="30">
+        <v>0</v>
+      </c>
+      <c r="P57" s="30">
+        <v>0</v>
+      </c>
+      <c r="Q57" s="30">
+        <v>0</v>
+      </c>
+      <c r="R57" s="30">
+        <v>0</v>
+      </c>
+      <c r="S57" s="30">
+        <v>0</v>
+      </c>
+      <c r="T57" s="30">
+        <v>0</v>
+      </c>
+      <c r="U57" s="30">
+        <v>1</v>
+      </c>
+      <c r="V57" s="30">
+        <v>1</v>
+      </c>
+      <c r="W57" s="31">
         <v>0</v>
       </c>
       <c r="X57" s="13" t="s">
-        <v>97</v>
+        <v>68</v>
       </c>
       <c r="Y57" s="22" t="s">
-        <v>218</v>
+        <v>187</v>
       </c>
       <c r="Z57" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="AA57" s="23">
-        <v>0</v>
+        <v>225</v>
+      </c>
+      <c r="AA57" s="25" t="s">
+        <v>240</v>
       </c>
       <c r="AB57" t="s">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="AC57" t="s">
-        <v>90</v>
+        <v>267</v>
       </c>
     </row>
     <row r="58" spans="1:29" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" s="19" t="s">
-        <v>36</v>
+        <v>213</v>
       </c>
       <c r="B58" s="18" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="C58" s="3">
         <v>0</v>
       </c>
       <c r="D58" s="10">
-        <v>1110000</v>
+        <v>1001100</v>
       </c>
       <c r="E58" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>0x70</v>
+        <v>0x4C</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>17</v>
+        <v>69</v>
       </c>
       <c r="G58" t="s">
-        <v>17</v>
+        <v>68</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>17</v>
@@ -6271,85 +6499,85 @@
         <v>17</v>
       </c>
       <c r="K58" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="L58" s="6">
-        <v>0</v>
-      </c>
-      <c r="M58" s="6">
-        <v>0</v>
-      </c>
-      <c r="N58" s="6">
-        <v>0</v>
-      </c>
-      <c r="O58" s="6">
-        <v>0</v>
-      </c>
-      <c r="P58" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q58" s="6">
-        <v>0</v>
-      </c>
-      <c r="R58" s="6">
-        <v>0</v>
-      </c>
-      <c r="S58" s="6">
-        <v>0</v>
-      </c>
-      <c r="T58" s="6">
-        <v>0</v>
-      </c>
-      <c r="U58" s="6">
-        <v>1</v>
-      </c>
-      <c r="V58" s="6">
-        <v>1</v>
-      </c>
-      <c r="W58" s="6">
+        <v>41</v>
+      </c>
+      <c r="L58" s="30">
+        <v>0</v>
+      </c>
+      <c r="M58" s="30">
+        <v>0</v>
+      </c>
+      <c r="N58" s="30">
+        <v>0</v>
+      </c>
+      <c r="O58" s="30">
+        <v>0</v>
+      </c>
+      <c r="P58" s="30">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="30">
+        <v>0</v>
+      </c>
+      <c r="R58" s="30">
+        <v>0</v>
+      </c>
+      <c r="S58" s="30">
+        <v>0</v>
+      </c>
+      <c r="T58" s="30">
+        <v>0</v>
+      </c>
+      <c r="U58" s="30">
+        <v>1</v>
+      </c>
+      <c r="V58" s="30">
+        <v>1</v>
+      </c>
+      <c r="W58" s="31">
         <v>0</v>
       </c>
       <c r="X58" s="13" t="s">
-        <v>97</v>
+        <v>68</v>
       </c>
       <c r="Y58" s="22" t="s">
-        <v>218</v>
-      </c>
-      <c r="Z58" s="3" t="s">
-        <v>150</v>
+        <v>187</v>
+      </c>
+      <c r="Z58" s="27" t="s">
+        <v>225</v>
       </c>
       <c r="AA58" s="23" t="s">
-        <v>144</v>
+        <v>241</v>
       </c>
       <c r="AB58" t="s">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="AC58" t="s">
-        <v>91</v>
+        <v>268</v>
       </c>
     </row>
     <row r="59" spans="1:29" ht="16" x14ac:dyDescent="0.2">
       <c r="A59" s="19" t="s">
-        <v>37</v>
+        <v>214</v>
       </c>
       <c r="B59" s="18" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="C59" s="3">
         <v>0</v>
       </c>
       <c r="D59" s="10">
-        <v>1110001</v>
+        <v>1001101</v>
       </c>
       <c r="E59" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>0x71</v>
+        <v>0x4D</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>17</v>
+        <v>69</v>
       </c>
       <c r="G59" t="s">
-        <v>17</v>
+        <v>68</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>17</v>
@@ -6361,85 +6589,85 @@
         <v>17</v>
       </c>
       <c r="K59" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="L59" s="6">
-        <v>0</v>
-      </c>
-      <c r="M59" s="6">
-        <v>0</v>
-      </c>
-      <c r="N59" s="6">
-        <v>0</v>
-      </c>
-      <c r="O59" s="6">
-        <v>0</v>
-      </c>
-      <c r="P59" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q59" s="6">
-        <v>0</v>
-      </c>
-      <c r="R59" s="6">
-        <v>0</v>
-      </c>
-      <c r="S59" s="6">
-        <v>0</v>
-      </c>
-      <c r="T59" s="6">
-        <v>0</v>
-      </c>
-      <c r="U59" s="6">
-        <v>1</v>
-      </c>
-      <c r="V59" s="6">
-        <v>1</v>
-      </c>
-      <c r="W59" s="6">
+        <v>41</v>
+      </c>
+      <c r="L59" s="30">
+        <v>0</v>
+      </c>
+      <c r="M59" s="30">
+        <v>0</v>
+      </c>
+      <c r="N59" s="30">
+        <v>0</v>
+      </c>
+      <c r="O59" s="30">
+        <v>0</v>
+      </c>
+      <c r="P59" s="30">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="30">
+        <v>0</v>
+      </c>
+      <c r="R59" s="30">
+        <v>0</v>
+      </c>
+      <c r="S59" s="30">
+        <v>0</v>
+      </c>
+      <c r="T59" s="30">
+        <v>0</v>
+      </c>
+      <c r="U59" s="30">
+        <v>1</v>
+      </c>
+      <c r="V59" s="30">
+        <v>1</v>
+      </c>
+      <c r="W59" s="31">
         <v>0</v>
       </c>
       <c r="X59" s="13" t="s">
-        <v>97</v>
+        <v>68</v>
       </c>
       <c r="Y59" s="22" t="s">
-        <v>218</v>
+        <v>187</v>
       </c>
       <c r="Z59" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="AA59" s="23" t="s">
-        <v>144</v>
+        <v>225</v>
+      </c>
+      <c r="AA59" s="25" t="s">
+        <v>242</v>
       </c>
       <c r="AB59" t="s">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="AC59" t="s">
-        <v>92</v>
+        <v>269</v>
       </c>
     </row>
     <row r="60" spans="1:29" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" s="19" t="s">
-        <v>41</v>
+        <v>215</v>
       </c>
       <c r="B60" s="18" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="C60" s="3">
         <v>0</v>
       </c>
       <c r="D60" s="10">
-        <v>1110010</v>
+        <v>1001110</v>
       </c>
       <c r="E60" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>0x72</v>
+        <v>0x4E</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>17</v>
+        <v>69</v>
       </c>
       <c r="G60" t="s">
-        <v>17</v>
+        <v>68</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>17</v>
@@ -6451,85 +6679,85 @@
         <v>17</v>
       </c>
       <c r="K60" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="L60" s="6">
-        <v>0</v>
-      </c>
-      <c r="M60" s="6">
-        <v>0</v>
-      </c>
-      <c r="N60" s="6">
-        <v>0</v>
-      </c>
-      <c r="O60" s="6">
-        <v>0</v>
-      </c>
-      <c r="P60" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q60" s="6">
-        <v>0</v>
-      </c>
-      <c r="R60" s="6">
-        <v>0</v>
-      </c>
-      <c r="S60" s="6">
-        <v>0</v>
-      </c>
-      <c r="T60" s="6">
-        <v>0</v>
-      </c>
-      <c r="U60" s="6">
-        <v>1</v>
-      </c>
-      <c r="V60" s="6">
-        <v>1</v>
-      </c>
-      <c r="W60" s="6">
+        <v>41</v>
+      </c>
+      <c r="L60" s="30">
+        <v>0</v>
+      </c>
+      <c r="M60" s="30">
+        <v>0</v>
+      </c>
+      <c r="N60" s="30">
+        <v>0</v>
+      </c>
+      <c r="O60" s="30">
+        <v>0</v>
+      </c>
+      <c r="P60" s="30">
+        <v>0</v>
+      </c>
+      <c r="Q60" s="30">
+        <v>0</v>
+      </c>
+      <c r="R60" s="30">
+        <v>0</v>
+      </c>
+      <c r="S60" s="30">
+        <v>0</v>
+      </c>
+      <c r="T60" s="30">
+        <v>0</v>
+      </c>
+      <c r="U60" s="30">
+        <v>1</v>
+      </c>
+      <c r="V60" s="30">
+        <v>1</v>
+      </c>
+      <c r="W60" s="31">
         <v>0</v>
       </c>
       <c r="X60" s="13" t="s">
-        <v>97</v>
+        <v>68</v>
       </c>
       <c r="Y60" s="22" t="s">
-        <v>218</v>
-      </c>
-      <c r="Z60" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="AA60" s="23" t="s">
-        <v>144</v>
+        <v>187</v>
+      </c>
+      <c r="Z60" s="27" t="s">
+        <v>225</v>
+      </c>
+      <c r="AA60" s="25" t="s">
+        <v>243</v>
       </c>
       <c r="AB60" t="s">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="AC60" t="s">
-        <v>93</v>
+        <v>270</v>
       </c>
     </row>
     <row r="61" spans="1:29" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" s="19" t="s">
-        <v>42</v>
+        <v>216</v>
       </c>
       <c r="B61" s="18" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="C61" s="3">
         <v>0</v>
       </c>
       <c r="D61" s="10">
-        <v>1110011</v>
+        <v>1001111</v>
       </c>
       <c r="E61" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>0x73</v>
+        <v>0x4F</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>17</v>
+        <v>69</v>
       </c>
       <c r="G61" t="s">
-        <v>17</v>
+        <v>68</v>
       </c>
       <c r="H61" s="3" t="s">
         <v>17</v>
@@ -6541,85 +6769,85 @@
         <v>17</v>
       </c>
       <c r="K61" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="L61" s="6">
-        <v>0</v>
-      </c>
-      <c r="M61" s="6">
-        <v>0</v>
-      </c>
-      <c r="N61" s="6">
-        <v>0</v>
-      </c>
-      <c r="O61" s="6">
-        <v>0</v>
-      </c>
-      <c r="P61" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q61" s="6">
-        <v>0</v>
-      </c>
-      <c r="R61" s="6">
-        <v>0</v>
-      </c>
-      <c r="S61" s="6">
-        <v>0</v>
-      </c>
-      <c r="T61" s="6">
-        <v>0</v>
-      </c>
-      <c r="U61" s="6">
-        <v>1</v>
-      </c>
-      <c r="V61" s="6">
-        <v>1</v>
-      </c>
-      <c r="W61" s="6">
+        <v>41</v>
+      </c>
+      <c r="L61" s="30">
+        <v>0</v>
+      </c>
+      <c r="M61" s="30">
+        <v>0</v>
+      </c>
+      <c r="N61" s="30">
+        <v>0</v>
+      </c>
+      <c r="O61" s="30">
+        <v>0</v>
+      </c>
+      <c r="P61" s="30">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="30">
+        <v>0</v>
+      </c>
+      <c r="R61" s="30">
+        <v>0</v>
+      </c>
+      <c r="S61" s="30">
+        <v>0</v>
+      </c>
+      <c r="T61" s="30">
+        <v>0</v>
+      </c>
+      <c r="U61" s="30">
+        <v>1</v>
+      </c>
+      <c r="V61" s="30">
+        <v>1</v>
+      </c>
+      <c r="W61" s="31">
         <v>0</v>
       </c>
       <c r="X61" s="13" t="s">
-        <v>97</v>
+        <v>68</v>
       </c>
       <c r="Y61" s="22" t="s">
-        <v>218</v>
+        <v>187</v>
       </c>
       <c r="Z61" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="AA61" s="23" t="s">
-        <v>144</v>
+        <v>225</v>
+      </c>
+      <c r="AA61" s="25" t="s">
+        <v>244</v>
       </c>
       <c r="AB61" t="s">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="AC61" t="s">
-        <v>94</v>
+        <v>271</v>
       </c>
     </row>
     <row r="62" spans="1:29" ht="16" x14ac:dyDescent="0.2">
       <c r="A62" s="19" t="s">
-        <v>43</v>
+        <v>199</v>
       </c>
       <c r="B62" s="18" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="C62" s="3">
         <v>0</v>
       </c>
       <c r="D62" s="10">
-        <v>1110100</v>
+        <v>1010000</v>
       </c>
       <c r="E62" s="3" t="str">
-        <f t="shared" ref="E62:E63" si="2">_xlfn.CONCAT("0x", DEC2HEX(_xlfn.BITLSHIFT($C62,7) + BIN2DEC($D62)))</f>
-        <v>0x74</v>
+        <f t="shared" si="1"/>
+        <v>0x50</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>17</v>
+        <v>69</v>
       </c>
       <c r="G62" t="s">
-        <v>17</v>
+        <v>68</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>17</v>
@@ -6631,151 +6859,2131 @@
         <v>17</v>
       </c>
       <c r="K62" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="L62" s="6">
-        <v>0</v>
-      </c>
-      <c r="M62" s="6">
-        <v>0</v>
-      </c>
-      <c r="N62" s="6">
-        <v>0</v>
-      </c>
-      <c r="O62" s="6">
-        <v>0</v>
-      </c>
-      <c r="P62" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q62" s="6">
-        <v>0</v>
-      </c>
-      <c r="R62" s="6">
-        <v>0</v>
-      </c>
-      <c r="S62" s="6">
-        <v>0</v>
-      </c>
-      <c r="T62" s="6">
-        <v>0</v>
-      </c>
-      <c r="U62" s="6">
-        <v>1</v>
-      </c>
-      <c r="V62" s="6">
-        <v>1</v>
-      </c>
-      <c r="W62" s="6">
+        <v>41</v>
+      </c>
+      <c r="L62" s="30">
+        <v>0</v>
+      </c>
+      <c r="M62" s="30">
+        <v>0</v>
+      </c>
+      <c r="N62" s="30">
+        <v>0</v>
+      </c>
+      <c r="O62" s="30">
+        <v>0</v>
+      </c>
+      <c r="P62" s="30">
+        <v>0</v>
+      </c>
+      <c r="Q62" s="30">
+        <v>0</v>
+      </c>
+      <c r="R62" s="30">
+        <v>0</v>
+      </c>
+      <c r="S62" s="30">
+        <v>0</v>
+      </c>
+      <c r="T62" s="30">
+        <v>0</v>
+      </c>
+      <c r="U62" s="30">
+        <v>1</v>
+      </c>
+      <c r="V62" s="30">
+        <v>1</v>
+      </c>
+      <c r="W62" s="31">
         <v>0</v>
       </c>
       <c r="X62" s="13" t="s">
-        <v>97</v>
+        <v>68</v>
       </c>
       <c r="Y62" s="22" t="s">
-        <v>218</v>
-      </c>
-      <c r="Z62" s="3" t="s">
-        <v>146</v>
+        <v>187</v>
+      </c>
+      <c r="Z62" s="27" t="s">
+        <v>225</v>
       </c>
       <c r="AA62" s="23" t="s">
-        <v>144</v>
+        <v>246</v>
       </c>
       <c r="AB62" t="s">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="AC62" t="s">
-        <v>95</v>
+        <v>272</v>
       </c>
     </row>
     <row r="63" spans="1:29" ht="16" x14ac:dyDescent="0.2">
       <c r="A63" s="19" t="s">
-        <v>44</v>
+        <v>200</v>
       </c>
       <c r="B63" s="18" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="C63" s="3">
         <v>0</v>
       </c>
       <c r="D63" s="10">
+        <v>1010001</v>
+      </c>
+      <c r="E63" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>0x51</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G63" t="s">
+        <v>68</v>
+      </c>
+      <c r="H63" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I63" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="J63" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K63" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="L63" s="30">
+        <v>0</v>
+      </c>
+      <c r="M63" s="30">
+        <v>0</v>
+      </c>
+      <c r="N63" s="30">
+        <v>0</v>
+      </c>
+      <c r="O63" s="30">
+        <v>0</v>
+      </c>
+      <c r="P63" s="30">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="30">
+        <v>0</v>
+      </c>
+      <c r="R63" s="30">
+        <v>0</v>
+      </c>
+      <c r="S63" s="30">
+        <v>0</v>
+      </c>
+      <c r="T63" s="30">
+        <v>0</v>
+      </c>
+      <c r="U63" s="30">
+        <v>1</v>
+      </c>
+      <c r="V63" s="30">
+        <v>1</v>
+      </c>
+      <c r="W63" s="31">
+        <v>0</v>
+      </c>
+      <c r="X63" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y63" s="22" t="s">
+        <v>187</v>
+      </c>
+      <c r="Z63" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="AA63" s="23" t="s">
+        <v>245</v>
+      </c>
+      <c r="AB63" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC63" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="64" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+      <c r="A64" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="B64" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C64" s="3">
+        <v>0</v>
+      </c>
+      <c r="D64" s="10">
+        <v>1010010</v>
+      </c>
+      <c r="E64" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>0x52</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G64" t="s">
+        <v>68</v>
+      </c>
+      <c r="H64" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I64" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="J64" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K64" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="L64" s="30">
+        <v>0</v>
+      </c>
+      <c r="M64" s="30">
+        <v>0</v>
+      </c>
+      <c r="N64" s="30">
+        <v>0</v>
+      </c>
+      <c r="O64" s="30">
+        <v>0</v>
+      </c>
+      <c r="P64" s="30">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="30">
+        <v>0</v>
+      </c>
+      <c r="R64" s="30">
+        <v>0</v>
+      </c>
+      <c r="S64" s="30">
+        <v>0</v>
+      </c>
+      <c r="T64" s="30">
+        <v>0</v>
+      </c>
+      <c r="U64" s="30">
+        <v>1</v>
+      </c>
+      <c r="V64" s="30">
+        <v>1</v>
+      </c>
+      <c r="W64" s="31">
+        <v>0</v>
+      </c>
+      <c r="X64" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y64" s="22" t="s">
+        <v>187</v>
+      </c>
+      <c r="Z64" s="27" t="s">
+        <v>225</v>
+      </c>
+      <c r="AA64" s="25" t="s">
+        <v>247</v>
+      </c>
+      <c r="AB64" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC64" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="65" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+      <c r="A65" s="19" t="s">
+        <v>202</v>
+      </c>
+      <c r="B65" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C65" s="3">
+        <v>0</v>
+      </c>
+      <c r="D65" s="10">
+        <v>1010011</v>
+      </c>
+      <c r="E65" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>0x53</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G65" t="s">
+        <v>68</v>
+      </c>
+      <c r="H65" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I65" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="J65" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K65" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="L65" s="30">
+        <v>0</v>
+      </c>
+      <c r="M65" s="30">
+        <v>0</v>
+      </c>
+      <c r="N65" s="30">
+        <v>0</v>
+      </c>
+      <c r="O65" s="30">
+        <v>0</v>
+      </c>
+      <c r="P65" s="30">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="30">
+        <v>0</v>
+      </c>
+      <c r="R65" s="30">
+        <v>0</v>
+      </c>
+      <c r="S65" s="30">
+        <v>0</v>
+      </c>
+      <c r="T65" s="30">
+        <v>0</v>
+      </c>
+      <c r="U65" s="30">
+        <v>1</v>
+      </c>
+      <c r="V65" s="30">
+        <v>1</v>
+      </c>
+      <c r="W65" s="31">
+        <v>0</v>
+      </c>
+      <c r="X65" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y65" s="22" t="s">
+        <v>187</v>
+      </c>
+      <c r="Z65" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="AA65" s="25" t="s">
+        <v>248</v>
+      </c>
+      <c r="AB65" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC65" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="66" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+      <c r="A66" s="19" t="s">
+        <v>203</v>
+      </c>
+      <c r="B66" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C66" s="3">
+        <v>0</v>
+      </c>
+      <c r="D66" s="10">
+        <v>1010100</v>
+      </c>
+      <c r="E66" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>0x54</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G66" t="s">
+        <v>68</v>
+      </c>
+      <c r="H66" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I66" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="J66" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K66" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="L66" s="30">
+        <v>0</v>
+      </c>
+      <c r="M66" s="30">
+        <v>0</v>
+      </c>
+      <c r="N66" s="30">
+        <v>0</v>
+      </c>
+      <c r="O66" s="30">
+        <v>0</v>
+      </c>
+      <c r="P66" s="30">
+        <v>0</v>
+      </c>
+      <c r="Q66" s="30">
+        <v>0</v>
+      </c>
+      <c r="R66" s="30">
+        <v>0</v>
+      </c>
+      <c r="S66" s="30">
+        <v>0</v>
+      </c>
+      <c r="T66" s="30">
+        <v>0</v>
+      </c>
+      <c r="U66" s="30">
+        <v>1</v>
+      </c>
+      <c r="V66" s="30">
+        <v>1</v>
+      </c>
+      <c r="W66" s="31">
+        <v>0</v>
+      </c>
+      <c r="X66" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y66" s="22" t="s">
+        <v>187</v>
+      </c>
+      <c r="Z66" s="27" t="s">
+        <v>225</v>
+      </c>
+      <c r="AA66" s="25" t="s">
+        <v>249</v>
+      </c>
+      <c r="AB66" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC66" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="67" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+      <c r="A67" s="19" t="s">
+        <v>204</v>
+      </c>
+      <c r="B67" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C67" s="3">
+        <v>0</v>
+      </c>
+      <c r="D67" s="10">
+        <v>1010101</v>
+      </c>
+      <c r="E67" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>0x55</v>
+      </c>
+      <c r="F67" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G67" t="s">
+        <v>68</v>
+      </c>
+      <c r="H67" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I67" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="J67" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K67" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="L67" s="30">
+        <v>0</v>
+      </c>
+      <c r="M67" s="30">
+        <v>0</v>
+      </c>
+      <c r="N67" s="30">
+        <v>0</v>
+      </c>
+      <c r="O67" s="30">
+        <v>0</v>
+      </c>
+      <c r="P67" s="30">
+        <v>0</v>
+      </c>
+      <c r="Q67" s="30">
+        <v>0</v>
+      </c>
+      <c r="R67" s="30">
+        <v>0</v>
+      </c>
+      <c r="S67" s="30">
+        <v>0</v>
+      </c>
+      <c r="T67" s="30">
+        <v>0</v>
+      </c>
+      <c r="U67" s="30">
+        <v>1</v>
+      </c>
+      <c r="V67" s="30">
+        <v>1</v>
+      </c>
+      <c r="W67" s="31">
+        <v>0</v>
+      </c>
+      <c r="X67" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y67" s="22" t="s">
+        <v>187</v>
+      </c>
+      <c r="Z67" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="AA67" s="25" t="s">
+        <v>250</v>
+      </c>
+      <c r="AB67" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC67" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="68" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+      <c r="A68" s="19" t="s">
+        <v>205</v>
+      </c>
+      <c r="B68" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C68" s="3">
+        <v>0</v>
+      </c>
+      <c r="D68" s="10">
+        <v>1010110</v>
+      </c>
+      <c r="E68" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>0x56</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G68" t="s">
+        <v>68</v>
+      </c>
+      <c r="H68" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I68" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="J68" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K68" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="L68" s="30">
+        <v>0</v>
+      </c>
+      <c r="M68" s="30">
+        <v>0</v>
+      </c>
+      <c r="N68" s="30">
+        <v>0</v>
+      </c>
+      <c r="O68" s="30">
+        <v>0</v>
+      </c>
+      <c r="P68" s="30">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="30">
+        <v>0</v>
+      </c>
+      <c r="R68" s="30">
+        <v>0</v>
+      </c>
+      <c r="S68" s="30">
+        <v>0</v>
+      </c>
+      <c r="T68" s="30">
+        <v>0</v>
+      </c>
+      <c r="U68" s="30">
+        <v>1</v>
+      </c>
+      <c r="V68" s="30">
+        <v>1</v>
+      </c>
+      <c r="W68" s="31">
+        <v>0</v>
+      </c>
+      <c r="X68" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y68" s="22" t="s">
+        <v>187</v>
+      </c>
+      <c r="Z68" s="27" t="s">
+        <v>225</v>
+      </c>
+      <c r="AA68" s="25" t="s">
+        <v>251</v>
+      </c>
+      <c r="AB68" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC68" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="69" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+      <c r="A69" s="19" t="s">
+        <v>206</v>
+      </c>
+      <c r="B69" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C69" s="3">
+        <v>0</v>
+      </c>
+      <c r="D69" s="10">
+        <v>1010111</v>
+      </c>
+      <c r="E69" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>0x57</v>
+      </c>
+      <c r="F69" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G69" t="s">
+        <v>68</v>
+      </c>
+      <c r="H69" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I69" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="J69" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K69" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="L69" s="30">
+        <v>0</v>
+      </c>
+      <c r="M69" s="30">
+        <v>0</v>
+      </c>
+      <c r="N69" s="30">
+        <v>0</v>
+      </c>
+      <c r="O69" s="30">
+        <v>0</v>
+      </c>
+      <c r="P69" s="30">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="30">
+        <v>0</v>
+      </c>
+      <c r="R69" s="30">
+        <v>0</v>
+      </c>
+      <c r="S69" s="30">
+        <v>0</v>
+      </c>
+      <c r="T69" s="30">
+        <v>0</v>
+      </c>
+      <c r="U69" s="30">
+        <v>1</v>
+      </c>
+      <c r="V69" s="30">
+        <v>1</v>
+      </c>
+      <c r="W69" s="31">
+        <v>0</v>
+      </c>
+      <c r="X69" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y69" s="22" t="s">
+        <v>187</v>
+      </c>
+      <c r="Z69" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="AA69" s="25" t="s">
+        <v>252</v>
+      </c>
+      <c r="AB69" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC69" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="70" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+      <c r="A70" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="B70" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C70" s="3">
+        <v>0</v>
+      </c>
+      <c r="D70" s="10">
+        <v>1011000</v>
+      </c>
+      <c r="E70" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>0x58</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G70" t="s">
+        <v>68</v>
+      </c>
+      <c r="H70" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I70" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="J70" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K70" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="L70" s="30">
+        <v>0</v>
+      </c>
+      <c r="M70" s="30">
+        <v>0</v>
+      </c>
+      <c r="N70" s="30">
+        <v>0</v>
+      </c>
+      <c r="O70" s="30">
+        <v>0</v>
+      </c>
+      <c r="P70" s="30">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="30">
+        <v>0</v>
+      </c>
+      <c r="R70" s="30">
+        <v>0</v>
+      </c>
+      <c r="S70" s="30">
+        <v>0</v>
+      </c>
+      <c r="T70" s="30">
+        <v>0</v>
+      </c>
+      <c r="U70" s="30">
+        <v>1</v>
+      </c>
+      <c r="V70" s="30">
+        <v>1</v>
+      </c>
+      <c r="W70" s="31">
+        <v>0</v>
+      </c>
+      <c r="X70" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y70" s="22" t="s">
+        <v>187</v>
+      </c>
+      <c r="Z70" s="27" t="s">
+        <v>225</v>
+      </c>
+      <c r="AA70" s="25" t="s">
+        <v>253</v>
+      </c>
+      <c r="AB70" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC70" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="71" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+      <c r="A71" s="19" t="s">
+        <v>208</v>
+      </c>
+      <c r="B71" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C71" s="3">
+        <v>0</v>
+      </c>
+      <c r="D71" s="10">
+        <v>1011001</v>
+      </c>
+      <c r="E71" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>0x59</v>
+      </c>
+      <c r="F71" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G71" t="s">
+        <v>68</v>
+      </c>
+      <c r="H71" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I71" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="J71" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K71" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="L71" s="30">
+        <v>0</v>
+      </c>
+      <c r="M71" s="30">
+        <v>0</v>
+      </c>
+      <c r="N71" s="30">
+        <v>0</v>
+      </c>
+      <c r="O71" s="30">
+        <v>0</v>
+      </c>
+      <c r="P71" s="30">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="30">
+        <v>0</v>
+      </c>
+      <c r="R71" s="30">
+        <v>0</v>
+      </c>
+      <c r="S71" s="30">
+        <v>0</v>
+      </c>
+      <c r="T71" s="30">
+        <v>0</v>
+      </c>
+      <c r="U71" s="30">
+        <v>1</v>
+      </c>
+      <c r="V71" s="30">
+        <v>1</v>
+      </c>
+      <c r="W71" s="31">
+        <v>0</v>
+      </c>
+      <c r="X71" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y71" s="22" t="s">
+        <v>187</v>
+      </c>
+      <c r="Z71" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="AA71" s="25" t="s">
+        <v>254</v>
+      </c>
+      <c r="AB71" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC71" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="72" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+      <c r="A72" s="19" t="s">
+        <v>217</v>
+      </c>
+      <c r="B72" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C72" s="3">
+        <v>0</v>
+      </c>
+      <c r="D72" s="10">
+        <v>1011010</v>
+      </c>
+      <c r="E72" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>0x5A</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G72" t="s">
+        <v>68</v>
+      </c>
+      <c r="H72" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I72" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="J72" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K72" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="L72" s="30">
+        <v>0</v>
+      </c>
+      <c r="M72" s="30">
+        <v>0</v>
+      </c>
+      <c r="N72" s="30">
+        <v>0</v>
+      </c>
+      <c r="O72" s="30">
+        <v>0</v>
+      </c>
+      <c r="P72" s="30">
+        <v>0</v>
+      </c>
+      <c r="Q72" s="30">
+        <v>0</v>
+      </c>
+      <c r="R72" s="30">
+        <v>0</v>
+      </c>
+      <c r="S72" s="30">
+        <v>0</v>
+      </c>
+      <c r="T72" s="30">
+        <v>0</v>
+      </c>
+      <c r="U72" s="30">
+        <v>1</v>
+      </c>
+      <c r="V72" s="30">
+        <v>1</v>
+      </c>
+      <c r="W72" s="31">
+        <v>0</v>
+      </c>
+      <c r="X72" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y72" s="22" t="s">
+        <v>187</v>
+      </c>
+      <c r="Z72" s="27" t="s">
+        <v>225</v>
+      </c>
+      <c r="AA72" s="25" t="s">
+        <v>255</v>
+      </c>
+      <c r="AB72" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC72" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="73" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+      <c r="A73" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="B73" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C73" s="3">
+        <v>0</v>
+      </c>
+      <c r="D73" s="10">
+        <v>1011011</v>
+      </c>
+      <c r="E73" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>0x5B</v>
+      </c>
+      <c r="F73" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G73" t="s">
+        <v>68</v>
+      </c>
+      <c r="H73" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I73" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="J73" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K73" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="L73" s="30">
+        <v>0</v>
+      </c>
+      <c r="M73" s="30">
+        <v>0</v>
+      </c>
+      <c r="N73" s="30">
+        <v>0</v>
+      </c>
+      <c r="O73" s="30">
+        <v>0</v>
+      </c>
+      <c r="P73" s="30">
+        <v>0</v>
+      </c>
+      <c r="Q73" s="30">
+        <v>0</v>
+      </c>
+      <c r="R73" s="30">
+        <v>0</v>
+      </c>
+      <c r="S73" s="30">
+        <v>0</v>
+      </c>
+      <c r="T73" s="30">
+        <v>0</v>
+      </c>
+      <c r="U73" s="30">
+        <v>1</v>
+      </c>
+      <c r="V73" s="30">
+        <v>1</v>
+      </c>
+      <c r="W73" s="31">
+        <v>0</v>
+      </c>
+      <c r="X73" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y73" s="22" t="s">
+        <v>187</v>
+      </c>
+      <c r="Z73" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="AA73" s="25" t="s">
+        <v>256</v>
+      </c>
+      <c r="AB73" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC73" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="74" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+      <c r="A74" s="19" t="s">
+        <v>219</v>
+      </c>
+      <c r="B74" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C74" s="3">
+        <v>0</v>
+      </c>
+      <c r="D74" s="10">
+        <v>1011100</v>
+      </c>
+      <c r="E74" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>0x5C</v>
+      </c>
+      <c r="F74" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G74" t="s">
+        <v>68</v>
+      </c>
+      <c r="H74" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I74" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="J74" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K74" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="L74" s="30">
+        <v>0</v>
+      </c>
+      <c r="M74" s="30">
+        <v>0</v>
+      </c>
+      <c r="N74" s="30">
+        <v>0</v>
+      </c>
+      <c r="O74" s="30">
+        <v>0</v>
+      </c>
+      <c r="P74" s="30">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="30">
+        <v>0</v>
+      </c>
+      <c r="R74" s="30">
+        <v>0</v>
+      </c>
+      <c r="S74" s="30">
+        <v>0</v>
+      </c>
+      <c r="T74" s="30">
+        <v>0</v>
+      </c>
+      <c r="U74" s="30">
+        <v>1</v>
+      </c>
+      <c r="V74" s="30">
+        <v>1</v>
+      </c>
+      <c r="W74" s="31">
+        <v>0</v>
+      </c>
+      <c r="X74" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y74" s="22" t="s">
+        <v>187</v>
+      </c>
+      <c r="Z74" s="27" t="s">
+        <v>225</v>
+      </c>
+      <c r="AA74" s="25" t="s">
+        <v>257</v>
+      </c>
+      <c r="AB74" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC74" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="75" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+      <c r="A75" s="19" t="s">
+        <v>220</v>
+      </c>
+      <c r="B75" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C75" s="3">
+        <v>0</v>
+      </c>
+      <c r="D75" s="10">
+        <v>1011101</v>
+      </c>
+      <c r="E75" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>0x5D</v>
+      </c>
+      <c r="F75" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G75" t="s">
+        <v>68</v>
+      </c>
+      <c r="H75" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I75" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="J75" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K75" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="L75" s="30">
+        <v>0</v>
+      </c>
+      <c r="M75" s="30">
+        <v>0</v>
+      </c>
+      <c r="N75" s="30">
+        <v>0</v>
+      </c>
+      <c r="O75" s="30">
+        <v>0</v>
+      </c>
+      <c r="P75" s="30">
+        <v>0</v>
+      </c>
+      <c r="Q75" s="30">
+        <v>0</v>
+      </c>
+      <c r="R75" s="30">
+        <v>0</v>
+      </c>
+      <c r="S75" s="30">
+        <v>0</v>
+      </c>
+      <c r="T75" s="30">
+        <v>0</v>
+      </c>
+      <c r="U75" s="30">
+        <v>1</v>
+      </c>
+      <c r="V75" s="30">
+        <v>1</v>
+      </c>
+      <c r="W75" s="31">
+        <v>0</v>
+      </c>
+      <c r="X75" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y75" s="22" t="s">
+        <v>187</v>
+      </c>
+      <c r="Z75" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="AA75" s="25" t="s">
+        <v>258</v>
+      </c>
+      <c r="AB75" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC75" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="76" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+      <c r="A76" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="B76" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C76" s="3">
+        <v>0</v>
+      </c>
+      <c r="D76" s="10">
+        <v>1011110</v>
+      </c>
+      <c r="E76" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>0x5E</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G76" t="s">
+        <v>68</v>
+      </c>
+      <c r="H76" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I76" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="J76" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K76" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="L76" s="30">
+        <v>0</v>
+      </c>
+      <c r="M76" s="30">
+        <v>0</v>
+      </c>
+      <c r="N76" s="30">
+        <v>0</v>
+      </c>
+      <c r="O76" s="30">
+        <v>0</v>
+      </c>
+      <c r="P76" s="30">
+        <v>0</v>
+      </c>
+      <c r="Q76" s="30">
+        <v>0</v>
+      </c>
+      <c r="R76" s="30">
+        <v>0</v>
+      </c>
+      <c r="S76" s="30">
+        <v>0</v>
+      </c>
+      <c r="T76" s="30">
+        <v>0</v>
+      </c>
+      <c r="U76" s="30">
+        <v>1</v>
+      </c>
+      <c r="V76" s="30">
+        <v>1</v>
+      </c>
+      <c r="W76" s="31">
+        <v>0</v>
+      </c>
+      <c r="X76" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y76" s="22" t="s">
+        <v>187</v>
+      </c>
+      <c r="Z76" s="27" t="s">
+        <v>225</v>
+      </c>
+      <c r="AA76" s="25" t="s">
+        <v>259</v>
+      </c>
+      <c r="AB76" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC76" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="77" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+      <c r="A77" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="B77" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C77" s="3">
+        <v>0</v>
+      </c>
+      <c r="D77" s="10">
+        <v>1011111</v>
+      </c>
+      <c r="E77" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>0x5F</v>
+      </c>
+      <c r="F77" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G77" t="s">
+        <v>68</v>
+      </c>
+      <c r="H77" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I77" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="J77" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K77" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="L77" s="30">
+        <v>0</v>
+      </c>
+      <c r="M77" s="30">
+        <v>0</v>
+      </c>
+      <c r="N77" s="30">
+        <v>0</v>
+      </c>
+      <c r="O77" s="30">
+        <v>0</v>
+      </c>
+      <c r="P77" s="30">
+        <v>0</v>
+      </c>
+      <c r="Q77" s="30">
+        <v>0</v>
+      </c>
+      <c r="R77" s="30">
+        <v>0</v>
+      </c>
+      <c r="S77" s="30">
+        <v>0</v>
+      </c>
+      <c r="T77" s="30">
+        <v>0</v>
+      </c>
+      <c r="U77" s="30">
+        <v>1</v>
+      </c>
+      <c r="V77" s="30">
+        <v>1</v>
+      </c>
+      <c r="W77" s="31">
+        <v>0</v>
+      </c>
+      <c r="X77" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y77" s="22" t="s">
+        <v>187</v>
+      </c>
+      <c r="Z77" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="AA77" s="25" t="s">
+        <v>260</v>
+      </c>
+      <c r="AB77" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC77" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="78" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+      <c r="A78" s="19" t="s">
+        <v>209</v>
+      </c>
+      <c r="B78" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C78" s="3">
+        <v>0</v>
+      </c>
+      <c r="D78" s="10">
+        <v>1100000</v>
+      </c>
+      <c r="E78" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>0x60</v>
+      </c>
+      <c r="F78" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G78" t="s">
+        <v>68</v>
+      </c>
+      <c r="H78" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I78" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="J78" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K78" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="L78" s="30">
+        <v>0</v>
+      </c>
+      <c r="M78" s="30">
+        <v>0</v>
+      </c>
+      <c r="N78" s="30">
+        <v>0</v>
+      </c>
+      <c r="O78" s="30">
+        <v>0</v>
+      </c>
+      <c r="P78" s="30">
+        <v>0</v>
+      </c>
+      <c r="Q78" s="30">
+        <v>0</v>
+      </c>
+      <c r="R78" s="30">
+        <v>0</v>
+      </c>
+      <c r="S78" s="30">
+        <v>0</v>
+      </c>
+      <c r="T78" s="30">
+        <v>0</v>
+      </c>
+      <c r="U78" s="30">
+        <v>1</v>
+      </c>
+      <c r="V78" s="30">
+        <v>1</v>
+      </c>
+      <c r="W78" s="31">
+        <v>0</v>
+      </c>
+      <c r="X78" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y78" s="22" t="s">
+        <v>187</v>
+      </c>
+      <c r="Z78" s="27" t="s">
+        <v>225</v>
+      </c>
+      <c r="AA78" s="23" t="s">
+        <v>261</v>
+      </c>
+      <c r="AB78" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC78" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="79" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+      <c r="A79" s="19" t="s">
+        <v>210</v>
+      </c>
+      <c r="B79" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C79" s="3">
+        <v>0</v>
+      </c>
+      <c r="D79" s="10">
+        <v>1100001</v>
+      </c>
+      <c r="E79" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>0x61</v>
+      </c>
+      <c r="F79" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G79" t="s">
+        <v>68</v>
+      </c>
+      <c r="H79" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I79" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="J79" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K79" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="L79" s="30">
+        <v>0</v>
+      </c>
+      <c r="M79" s="30">
+        <v>0</v>
+      </c>
+      <c r="N79" s="30">
+        <v>0</v>
+      </c>
+      <c r="O79" s="30">
+        <v>0</v>
+      </c>
+      <c r="P79" s="30">
+        <v>0</v>
+      </c>
+      <c r="Q79" s="30">
+        <v>0</v>
+      </c>
+      <c r="R79" s="30">
+        <v>0</v>
+      </c>
+      <c r="S79" s="30">
+        <v>0</v>
+      </c>
+      <c r="T79" s="30">
+        <v>0</v>
+      </c>
+      <c r="U79" s="30">
+        <v>1</v>
+      </c>
+      <c r="V79" s="30">
+        <v>1</v>
+      </c>
+      <c r="W79" s="31">
+        <v>0</v>
+      </c>
+      <c r="X79" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y79" s="22" t="s">
+        <v>187</v>
+      </c>
+      <c r="Z79" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="AA79" s="23" t="s">
+        <v>262</v>
+      </c>
+      <c r="AB79" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC79" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="80" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+      <c r="A80" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B80" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C80" s="3">
+        <v>0</v>
+      </c>
+      <c r="D80" s="10">
+        <v>1110000</v>
+      </c>
+      <c r="E80" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>0x70</v>
+      </c>
+      <c r="F80" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G80" t="s">
+        <v>17</v>
+      </c>
+      <c r="H80" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I80" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="J80" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K80" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="L80" s="6">
+        <v>0</v>
+      </c>
+      <c r="M80" s="6">
+        <v>0</v>
+      </c>
+      <c r="N80" s="6">
+        <v>0</v>
+      </c>
+      <c r="O80" s="6">
+        <v>0</v>
+      </c>
+      <c r="P80" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q80" s="6">
+        <v>0</v>
+      </c>
+      <c r="R80" s="6">
+        <v>0</v>
+      </c>
+      <c r="S80" s="6">
+        <v>0</v>
+      </c>
+      <c r="T80" s="6">
+        <v>0</v>
+      </c>
+      <c r="U80" s="6">
+        <v>1</v>
+      </c>
+      <c r="V80" s="6">
+        <v>1</v>
+      </c>
+      <c r="W80" s="6">
+        <v>0</v>
+      </c>
+      <c r="X80" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y80" s="22" t="s">
+        <v>187</v>
+      </c>
+      <c r="Z80" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="AA80" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="AB80" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC80" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="81" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+      <c r="A81" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B81" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C81" s="3">
+        <v>0</v>
+      </c>
+      <c r="D81" s="10">
+        <v>1110001</v>
+      </c>
+      <c r="E81" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>0x71</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G81" t="s">
+        <v>17</v>
+      </c>
+      <c r="H81" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I81" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="J81" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K81" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="L81" s="6">
+        <v>0</v>
+      </c>
+      <c r="M81" s="6">
+        <v>0</v>
+      </c>
+      <c r="N81" s="6">
+        <v>0</v>
+      </c>
+      <c r="O81" s="6">
+        <v>0</v>
+      </c>
+      <c r="P81" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q81" s="6">
+        <v>0</v>
+      </c>
+      <c r="R81" s="6">
+        <v>0</v>
+      </c>
+      <c r="S81" s="6">
+        <v>0</v>
+      </c>
+      <c r="T81" s="6">
+        <v>0</v>
+      </c>
+      <c r="U81" s="6">
+        <v>1</v>
+      </c>
+      <c r="V81" s="6">
+        <v>1</v>
+      </c>
+      <c r="W81" s="6">
+        <v>0</v>
+      </c>
+      <c r="X81" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y81" s="22" t="s">
+        <v>187</v>
+      </c>
+      <c r="Z81" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="AA81" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="AB81" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC81" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="82" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+      <c r="A82" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B82" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C82" s="3">
+        <v>0</v>
+      </c>
+      <c r="D82" s="10">
+        <v>1110010</v>
+      </c>
+      <c r="E82" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>0x72</v>
+      </c>
+      <c r="F82" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G82" t="s">
+        <v>17</v>
+      </c>
+      <c r="H82" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I82" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="J82" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K82" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="L82" s="6">
+        <v>0</v>
+      </c>
+      <c r="M82" s="6">
+        <v>0</v>
+      </c>
+      <c r="N82" s="6">
+        <v>0</v>
+      </c>
+      <c r="O82" s="6">
+        <v>0</v>
+      </c>
+      <c r="P82" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q82" s="6">
+        <v>0</v>
+      </c>
+      <c r="R82" s="6">
+        <v>0</v>
+      </c>
+      <c r="S82" s="6">
+        <v>0</v>
+      </c>
+      <c r="T82" s="6">
+        <v>0</v>
+      </c>
+      <c r="U82" s="6">
+        <v>1</v>
+      </c>
+      <c r="V82" s="6">
+        <v>1</v>
+      </c>
+      <c r="W82" s="6">
+        <v>0</v>
+      </c>
+      <c r="X82" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y82" s="22" t="s">
+        <v>187</v>
+      </c>
+      <c r="Z82" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="AA82" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="AB82" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC82" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="83" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+      <c r="A83" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B83" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C83" s="3">
+        <v>0</v>
+      </c>
+      <c r="D83" s="10">
+        <v>1110011</v>
+      </c>
+      <c r="E83" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>0x73</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G83" t="s">
+        <v>17</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I83" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K83" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="L83" s="6">
+        <v>0</v>
+      </c>
+      <c r="M83" s="6">
+        <v>0</v>
+      </c>
+      <c r="N83" s="6">
+        <v>0</v>
+      </c>
+      <c r="O83" s="6">
+        <v>0</v>
+      </c>
+      <c r="P83" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q83" s="6">
+        <v>0</v>
+      </c>
+      <c r="R83" s="6">
+        <v>0</v>
+      </c>
+      <c r="S83" s="6">
+        <v>0</v>
+      </c>
+      <c r="T83" s="6">
+        <v>0</v>
+      </c>
+      <c r="U83" s="6">
+        <v>1</v>
+      </c>
+      <c r="V83" s="6">
+        <v>1</v>
+      </c>
+      <c r="W83" s="6">
+        <v>0</v>
+      </c>
+      <c r="X83" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y83" s="22" t="s">
+        <v>187</v>
+      </c>
+      <c r="Z83" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="AA83" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="AB83" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC83" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="84" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+      <c r="A84" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B84" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C84" s="3">
+        <v>0</v>
+      </c>
+      <c r="D84" s="10">
+        <v>1110100</v>
+      </c>
+      <c r="E84" s="3" t="str">
+        <f t="shared" ref="E84:E85" si="2">_xlfn.CONCAT("0x", DEC2HEX(_xlfn.BITLSHIFT($C84,7) + BIN2DEC($D84)))</f>
+        <v>0x74</v>
+      </c>
+      <c r="F84" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G84" t="s">
+        <v>17</v>
+      </c>
+      <c r="H84" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I84" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="J84" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K84" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="L84" s="6">
+        <v>0</v>
+      </c>
+      <c r="M84" s="6">
+        <v>0</v>
+      </c>
+      <c r="N84" s="6">
+        <v>0</v>
+      </c>
+      <c r="O84" s="6">
+        <v>0</v>
+      </c>
+      <c r="P84" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q84" s="6">
+        <v>0</v>
+      </c>
+      <c r="R84" s="6">
+        <v>0</v>
+      </c>
+      <c r="S84" s="6">
+        <v>0</v>
+      </c>
+      <c r="T84" s="6">
+        <v>0</v>
+      </c>
+      <c r="U84" s="6">
+        <v>1</v>
+      </c>
+      <c r="V84" s="6">
+        <v>1</v>
+      </c>
+      <c r="W84" s="6">
+        <v>0</v>
+      </c>
+      <c r="X84" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y84" s="22" t="s">
+        <v>187</v>
+      </c>
+      <c r="Z84" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="AA84" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="AB84" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC84" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="85" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+      <c r="A85" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B85" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C85" s="3">
+        <v>0</v>
+      </c>
+      <c r="D85" s="10">
         <v>1111000</v>
       </c>
-      <c r="E63" s="3" t="str">
+      <c r="E85" s="3" t="str">
         <f t="shared" si="2"/>
         <v>0x78</v>
       </c>
-      <c r="F63" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G63" t="s">
-        <v>17</v>
-      </c>
-      <c r="H63" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I63" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="J63" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K63" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="L63" s="6">
-        <v>0</v>
-      </c>
-      <c r="M63" s="6">
-        <v>0</v>
-      </c>
-      <c r="N63" s="6">
-        <v>0</v>
-      </c>
-      <c r="O63" s="6">
-        <v>0</v>
-      </c>
-      <c r="P63" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q63" s="6">
-        <v>0</v>
-      </c>
-      <c r="R63" s="6">
-        <v>0</v>
-      </c>
-      <c r="S63" s="6">
-        <v>0</v>
-      </c>
-      <c r="T63" s="6">
-        <v>0</v>
-      </c>
-      <c r="U63" s="6">
-        <v>1</v>
-      </c>
-      <c r="V63" s="6">
-        <v>1</v>
-      </c>
-      <c r="W63" s="6">
-        <v>0</v>
-      </c>
-      <c r="X63" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="Y63" s="22" t="s">
-        <v>218</v>
-      </c>
-      <c r="Z63" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="AA63" s="23" t="s">
-        <v>144</v>
-      </c>
-      <c r="AB63" t="s">
-        <v>100</v>
-      </c>
-      <c r="AC63" t="s">
-        <v>96</v>
+      <c r="F85" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G85" t="s">
+        <v>17</v>
+      </c>
+      <c r="H85" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I85" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="J85" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K85" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="L85" s="6">
+        <v>0</v>
+      </c>
+      <c r="M85" s="6">
+        <v>0</v>
+      </c>
+      <c r="N85" s="6">
+        <v>0</v>
+      </c>
+      <c r="O85" s="6">
+        <v>0</v>
+      </c>
+      <c r="P85" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q85" s="6">
+        <v>0</v>
+      </c>
+      <c r="R85" s="6">
+        <v>0</v>
+      </c>
+      <c r="S85" s="6">
+        <v>0</v>
+      </c>
+      <c r="T85" s="6">
+        <v>0</v>
+      </c>
+      <c r="U85" s="6">
+        <v>1</v>
+      </c>
+      <c r="V85" s="6">
+        <v>1</v>
+      </c>
+      <c r="W85" s="6">
+        <v>0</v>
+      </c>
+      <c r="X85" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y85" s="22" t="s">
+        <v>187</v>
+      </c>
+      <c r="Z85" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="AA85" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="AB85" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC85" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/commands/cmos1/cmos1_command_deck.xlsx
+++ b/commands/cmos1/cmos1_command_deck.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thanasi/Documents/FOXSI/Data/formatter/foxsi-4matter/foxsi4-commands/commands/cmos1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C615F99-7E64-6C4C-9DB1-273FBF26C5A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1E802CE-4E87-BA43-B76B-ED029AD0DD20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17900" xr2:uid="{1DE950B2-129E-5A4D-8896-FB78BBCF4CAC}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1176" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1178" uniqueCount="301">
   <si>
     <t>R=1/W=0</t>
   </si>
@@ -925,6 +925,18 @@
   </si>
   <si>
     <t>0x218</t>
+  </si>
+  <si>
+    <t>shuts down CMOS operating system</t>
+  </si>
+  <si>
+    <t>enables shutdown, reboot, and remove all data commands</t>
+  </si>
+  <si>
+    <t>reboots CMOS operating system</t>
+  </si>
+  <si>
+    <t>deletes all stored image data</t>
   </si>
 </sst>
 </file>
@@ -1427,10 +1439,10 @@
   <dimension ref="A1:AC85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B64" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B55" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A80" sqref="A80:A85"/>
+      <selection pane="bottomRight" activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -5209,7 +5221,7 @@
         <v>70</v>
       </c>
       <c r="AC43" t="s">
-        <v>82</v>
+        <v>298</v>
       </c>
     </row>
     <row r="44" spans="1:29" ht="16" x14ac:dyDescent="0.2">
@@ -5299,7 +5311,7 @@
         <v>70</v>
       </c>
       <c r="AC44" t="s">
-        <v>82</v>
+        <v>297</v>
       </c>
     </row>
     <row r="45" spans="1:29" ht="16" x14ac:dyDescent="0.2">
@@ -5388,6 +5400,9 @@
       <c r="AB45" t="s">
         <v>70</v>
       </c>
+      <c r="AC45" t="s">
+        <v>299</v>
+      </c>
     </row>
     <row r="46" spans="1:29" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="19" t="s">
@@ -5474,6 +5489,9 @@
       </c>
       <c r="AB46" t="s">
         <v>70</v>
+      </c>
+      <c r="AC46" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="47" spans="1:29" ht="16" x14ac:dyDescent="0.2">

--- a/commands/cmos1/cmos1_command_deck.xlsx
+++ b/commands/cmos1/cmos1_command_deck.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thanasi/Documents/FOXSI/Data/formatter/foxsi-4matter/foxsi4-commands/commands/cmos1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1E802CE-4E87-BA43-B76B-ED029AD0DD20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D66346D7-8988-D74D-99E7-F5014444A5CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17900" xr2:uid="{1DE950B2-129E-5A4D-8896-FB78BBCF4CAC}"/>
+    <workbookView xWindow="20" yWindow="760" windowWidth="30220" windowHeight="17880" xr2:uid="{1DE950B2-129E-5A4D-8896-FB78BBCF4CAC}"/>
   </bookViews>
   <sheets>
     <sheet name="all_systems" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1178" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1178" uniqueCount="298">
   <si>
     <t>R=1/W=0</t>
   </si>
@@ -597,9 +597,6 @@
     <t>0x0000008c</t>
   </si>
   <si>
-    <t>0x75</t>
-  </si>
-  <si>
     <t>start CMOS setup (first stops, then inits, then trains, then sets exposure).</t>
   </si>
   <si>
@@ -609,105 +606,6 @@
     <t>set_exposure_192</t>
   </si>
   <si>
-    <t>set_exposure_value_02</t>
-  </si>
-  <si>
-    <t>set_exposure_value_03</t>
-  </si>
-  <si>
-    <t>set_exposure_value_04</t>
-  </si>
-  <si>
-    <t>set_exposure_value_05</t>
-  </si>
-  <si>
-    <t>set_exposure_value_06</t>
-  </si>
-  <si>
-    <t>set_exposure_value_07</t>
-  </si>
-  <si>
-    <t>set_exposure_value_08</t>
-  </si>
-  <si>
-    <t>set_exposure_value_09</t>
-  </si>
-  <si>
-    <t>set_exposure_value_10</t>
-  </si>
-  <si>
-    <t>set_exposure_value_11</t>
-  </si>
-  <si>
-    <t>set_exposure_value_12</t>
-  </si>
-  <si>
-    <t>set_exposure_value_13</t>
-  </si>
-  <si>
-    <t>set_exposure_value_14</t>
-  </si>
-  <si>
-    <t>set_exposure_value_15</t>
-  </si>
-  <si>
-    <t>set_exposure_value_16</t>
-  </si>
-  <si>
-    <t>set_exposure_value_17</t>
-  </si>
-  <si>
-    <t>set_exposure_value_18</t>
-  </si>
-  <si>
-    <t>set_exposure_value_19</t>
-  </si>
-  <si>
-    <t>set_exposure_value_20</t>
-  </si>
-  <si>
-    <t>set_exposure_value_21</t>
-  </si>
-  <si>
-    <t>set_exposure_value_0a</t>
-  </si>
-  <si>
-    <t>set_exposure_value_0b</t>
-  </si>
-  <si>
-    <t>set_exposure_value_0c</t>
-  </si>
-  <si>
-    <t>set_exposure_value_0d</t>
-  </si>
-  <si>
-    <t>set_exposure_value_0e</t>
-  </si>
-  <si>
-    <t>set_exposure_value_0f</t>
-  </si>
-  <si>
-    <t>set_exposure_value_1a</t>
-  </si>
-  <si>
-    <t>set_exposure_value_1b</t>
-  </si>
-  <si>
-    <t>set_exposure_value_1c</t>
-  </si>
-  <si>
-    <t>set_exposure_value_1d</t>
-  </si>
-  <si>
-    <t>set_exposure_value_1e</t>
-  </si>
-  <si>
-    <t>set_exposure_value_1f</t>
-  </si>
-  <si>
-    <t>set quick look mode and photon counting mode exposure time to 192 for CMOS camera</t>
-  </si>
-  <si>
     <t>0x00000030</t>
   </si>
   <si>
@@ -717,21 +615,6 @@
     <t>0x021085f0</t>
   </si>
   <si>
-    <t>set quick look mode and photon counting mode exposure time to 0x02 for CMOS sensor</t>
-  </si>
-  <si>
-    <t>set quick look mode and photon counting mode exposure time to 0x03 for CMOS sensor</t>
-  </si>
-  <si>
-    <t>set quick look mode and photon counting mode exposure time to 0x04 for CMOS sensor</t>
-  </si>
-  <si>
-    <t>set quick look mode and photon counting mode exposure time to 0x05 for CMOS sensor</t>
-  </si>
-  <si>
-    <t>set quick look mode and photon counting mode exposure time to 0x06 for CMOS sensor</t>
-  </si>
-  <si>
     <t>0x031085f0</t>
   </si>
   <si>
@@ -750,162 +633,33 @@
     <t>0x081085f0</t>
   </si>
   <si>
-    <t>0x091085f0</t>
-  </si>
-  <si>
     <t>0x0a1085f0</t>
   </si>
   <si>
     <t>0x0b1085f0</t>
   </si>
   <si>
-    <t>0x0c1085f0</t>
-  </si>
-  <si>
     <t>0x0d1085f0</t>
   </si>
   <si>
-    <t>0x0e1085f0</t>
-  </si>
-  <si>
     <t>0x0f1085f0</t>
   </si>
   <si>
-    <t>0x111085f0</t>
-  </si>
-  <si>
-    <t>0x101085f0</t>
-  </si>
-  <si>
     <t>0x121085f0</t>
   </si>
   <si>
-    <t>0x131085f0</t>
-  </si>
-  <si>
     <t>0x141085f0</t>
   </si>
   <si>
-    <t>0x151085f0</t>
-  </si>
-  <si>
-    <t>0x161085f0</t>
-  </si>
-  <si>
-    <t>0x171085f0</t>
-  </si>
-  <si>
     <t>0x181085f0</t>
   </si>
   <si>
-    <t>0x191085f0</t>
-  </si>
-  <si>
-    <t>0x1a1085f0</t>
-  </si>
-  <si>
     <t>0x1b1085f0</t>
   </si>
   <si>
-    <t>0x1c1085f0</t>
-  </si>
-  <si>
-    <t>0x1d1085f0</t>
-  </si>
-  <si>
-    <t>0x1e1085f0</t>
-  </si>
-  <si>
     <t>0x1f1085f0</t>
   </si>
   <si>
-    <t>0x201085f0</t>
-  </si>
-  <si>
-    <t>0x211085f0</t>
-  </si>
-  <si>
-    <t>set quick look mode and photon counting mode exposure time to 0x07 for CMOS sensor</t>
-  </si>
-  <si>
-    <t>set quick look mode and photon counting mode exposure time to 0x08 for CMOS sensor</t>
-  </si>
-  <si>
-    <t>set quick look mode and photon counting mode exposure time to 0x09 for CMOS sensor</t>
-  </si>
-  <si>
-    <t>set quick look mode and photon counting mode exposure time to 0x0a for CMOS sensor</t>
-  </si>
-  <si>
-    <t>set quick look mode and photon counting mode exposure time to 0x0b for CMOS sensor</t>
-  </si>
-  <si>
-    <t>set quick look mode and photon counting mode exposure time to 0x0c for CMOS sensor</t>
-  </si>
-  <si>
-    <t>set quick look mode and photon counting mode exposure time to 0x0d for CMOS sensor</t>
-  </si>
-  <si>
-    <t>set quick look mode and photon counting mode exposure time to 0x0e for CMOS sensor</t>
-  </si>
-  <si>
-    <t>set quick look mode and photon counting mode exposure time to 0x0f for CMOS sensor</t>
-  </si>
-  <si>
-    <t>set quick look mode and photon counting mode exposure time to 0x10 for CMOS sensor</t>
-  </si>
-  <si>
-    <t>set quick look mode and photon counting mode exposure time to 0x11 for CMOS sensor</t>
-  </si>
-  <si>
-    <t>set quick look mode and photon counting mode exposure time to 0x12 for CMOS sensor</t>
-  </si>
-  <si>
-    <t>set quick look mode and photon counting mode exposure time to 0x13 for CMOS sensor</t>
-  </si>
-  <si>
-    <t>set quick look mode and photon counting mode exposure time to 0x14 for CMOS sensor</t>
-  </si>
-  <si>
-    <t>set quick look mode and photon counting mode exposure time to 0x15 for CMOS sensor</t>
-  </si>
-  <si>
-    <t>set quick look mode and photon counting mode exposure time to 0x16 for CMOS sensor</t>
-  </si>
-  <si>
-    <t>set quick look mode and photon counting mode exposure time to 0x17 for CMOS sensor</t>
-  </si>
-  <si>
-    <t>set quick look mode and photon counting mode exposure time to 0x18 for CMOS sensor</t>
-  </si>
-  <si>
-    <t>set quick look mode and photon counting mode exposure time to 0x19 for CMOS sensor</t>
-  </si>
-  <si>
-    <t>set quick look mode and photon counting mode exposure time to 0x1a for CMOS sensor</t>
-  </si>
-  <si>
-    <t>set quick look mode and photon counting mode exposure time to 0x1b for CMOS sensor</t>
-  </si>
-  <si>
-    <t>set quick look mode and photon counting mode exposure time to 0x1c for CMOS sensor</t>
-  </si>
-  <si>
-    <t>set quick look mode and photon counting mode exposure time to 0x1d for CMOS sensor</t>
-  </si>
-  <si>
-    <t>set quick look mode and photon counting mode exposure time to 0x1e for CMOS sensor</t>
-  </si>
-  <si>
-    <t>set quick look mode and photon counting mode exposure time to 0x1f for CMOS sensor</t>
-  </si>
-  <si>
-    <t>set quick look mode and photon counting mode exposure time to 0x20 for CMOS sensor</t>
-  </si>
-  <si>
-    <t>set quick look mode and photon counting mode exposure time to 0x21 for CMOS sensor</t>
-  </si>
-  <si>
     <t>cmos_stop_to_start</t>
   </si>
   <si>
@@ -937,6 +691,243 @@
   </si>
   <si>
     <t>deletes all stored image data</t>
+  </si>
+  <si>
+    <t>set_exposure_slot_00</t>
+  </si>
+  <si>
+    <t>set_exposure_slot_01</t>
+  </si>
+  <si>
+    <t>set_exposure_slot_02</t>
+  </si>
+  <si>
+    <t>set_exposure_slot_03</t>
+  </si>
+  <si>
+    <t>set_exposure_slot_04</t>
+  </si>
+  <si>
+    <t>set_exposure_slot_05</t>
+  </si>
+  <si>
+    <t>set_exposure_slot_06</t>
+  </si>
+  <si>
+    <t>set_exposure_slot_07</t>
+  </si>
+  <si>
+    <t>set_exposure_slot_08</t>
+  </si>
+  <si>
+    <t>set_exposure_slot_09</t>
+  </si>
+  <si>
+    <t>set_exposure_slot_10</t>
+  </si>
+  <si>
+    <t>set_exposure_slot_11</t>
+  </si>
+  <si>
+    <t>set_exposure_slot_12</t>
+  </si>
+  <si>
+    <t>set_exposure_slot_13</t>
+  </si>
+  <si>
+    <t>set_exposure_slot_14</t>
+  </si>
+  <si>
+    <t>set_exposure_slot_15</t>
+  </si>
+  <si>
+    <t>set_exposure_slot_16</t>
+  </si>
+  <si>
+    <t>set_exposure_slot_17</t>
+  </si>
+  <si>
+    <t>set_exposure_slot_18</t>
+  </si>
+  <si>
+    <t>set_exposure_slot_19</t>
+  </si>
+  <si>
+    <t>set_exposure_slot_20</t>
+  </si>
+  <si>
+    <t>set_exposure_slot_21</t>
+  </si>
+  <si>
+    <t>set_exposure_slot_22</t>
+  </si>
+  <si>
+    <t>set_exposure_slot_23</t>
+  </si>
+  <si>
+    <t>set_exposure_slot_24</t>
+  </si>
+  <si>
+    <t>set_exposure_slot_25</t>
+  </si>
+  <si>
+    <t>set_exposure_slot_26</t>
+  </si>
+  <si>
+    <t>set_exposure_slot_27</t>
+  </si>
+  <si>
+    <t>set_exposure_slot_28</t>
+  </si>
+  <si>
+    <t>set_exposure_slot_29</t>
+  </si>
+  <si>
+    <t>set_exposure_slot_30</t>
+  </si>
+  <si>
+    <t>set_exposure_slot_31</t>
+  </si>
+  <si>
+    <t>0xc01085f0</t>
+  </si>
+  <si>
+    <t>0xa91085f0</t>
+  </si>
+  <si>
+    <t>0x931085f0</t>
+  </si>
+  <si>
+    <t>0x801085f0</t>
+  </si>
+  <si>
+    <t>0x6f1085f0</t>
+  </si>
+  <si>
+    <t>0x611085f0</t>
+  </si>
+  <si>
+    <t>0x541085f0</t>
+  </si>
+  <si>
+    <t>0x491085f0</t>
+  </si>
+  <si>
+    <t>0x401085f0</t>
+  </si>
+  <si>
+    <t>0x371085f0</t>
+  </si>
+  <si>
+    <t>0x301085f0</t>
+  </si>
+  <si>
+    <t>0x2a1085f0</t>
+  </si>
+  <si>
+    <t>0x241085f0</t>
+  </si>
+  <si>
+    <t>0x001085f0</t>
+  </si>
+  <si>
+    <t>0x08</t>
+  </si>
+  <si>
+    <t>0x7d</t>
+  </si>
+  <si>
+    <t>set quick look mode and photon counting mode inttim to 192 for CMOS sensor</t>
+  </si>
+  <si>
+    <t>set quick look mode and photon counting mode inttim to 169 for CMOS sensor</t>
+  </si>
+  <si>
+    <t>set quick look mode and photon counting mode inttim to 147 for CMOS sensor</t>
+  </si>
+  <si>
+    <t>set quick look mode and photon counting mode inttim to 128 for CMOS sensor</t>
+  </si>
+  <si>
+    <t>set quick look mode and photon counting mode inttim to 111 for CMOS sensor</t>
+  </si>
+  <si>
+    <t>set quick look mode and photon counting mode inttim to 97 for CMOS sensor</t>
+  </si>
+  <si>
+    <t>set quick look mode and photon counting mode inttim to 84 for CMOS sensor</t>
+  </si>
+  <si>
+    <t>set quick look mode and photon counting mode inttim to 73 for CMOS sensor</t>
+  </si>
+  <si>
+    <t>set quick look mode and photon counting mode inttim to 64 for CMOS sensor</t>
+  </si>
+  <si>
+    <t>set quick look mode and photon counting mode inttim to 55 for CMOS sensor</t>
+  </si>
+  <si>
+    <t>set quick look mode and photon counting mode inttim to 48 for CMOS sensor</t>
+  </si>
+  <si>
+    <t>set quick look mode and photon counting mode inttim to 42 for CMOS sensor</t>
+  </si>
+  <si>
+    <t>set quick look mode and photon counting mode inttim to 36 for CMOS sensor</t>
+  </si>
+  <si>
+    <t>set quick look mode and photon counting mode inttim to 31 for CMOS sensor</t>
+  </si>
+  <si>
+    <t>set quick look mode and photon counting mode inttim to 27 for CMOS sensor</t>
+  </si>
+  <si>
+    <t>set quick look mode and photon counting mode inttim to 24 for CMOS sensor</t>
+  </si>
+  <si>
+    <t>set quick look mode and photon counting mode inttim to 20 for CMOS sensor</t>
+  </si>
+  <si>
+    <t>set quick look mode and photon counting mode inttim to 18 for CMOS sensor</t>
+  </si>
+  <si>
+    <t>set quick look mode and photon counting mode inttim to 15 for CMOS sensor</t>
+  </si>
+  <si>
+    <t>set quick look mode and photon counting mode inttim to 13 for CMOS sensor</t>
+  </si>
+  <si>
+    <t>set quick look mode and photon counting mode inttim to 11 for CMOS sensor</t>
+  </si>
+  <si>
+    <t>set quick look mode and photon counting mode inttim to 10 for CMOS sensor</t>
+  </si>
+  <si>
+    <t>set quick look mode and photon counting mode inttim to 8 for CMOS sensor</t>
+  </si>
+  <si>
+    <t>set quick look mode and photon counting mode inttim to 7 for CMOS sensor</t>
+  </si>
+  <si>
+    <t>set quick look mode and photon counting mode inttim to 6 for CMOS sensor</t>
+  </si>
+  <si>
+    <t>set quick look mode and photon counting mode inttim to 5 for CMOS sensor</t>
+  </si>
+  <si>
+    <t>set quick look mode and photon counting mode inttim to 4 for CMOS sensor</t>
+  </si>
+  <si>
+    <t>set quick look mode and photon counting mode inttim to 3 for CMOS sensor</t>
+  </si>
+  <si>
+    <t>set quick look mode and photon counting mode inttim to 2 for CMOS sensor</t>
+  </si>
+  <si>
+    <t>set quick look mode and photon counting mode inttim to 1 for CMOS sensor</t>
+  </si>
+  <si>
+    <t>set quick look mode and photon counting mode inttim to 0 for CMOS sensor</t>
   </si>
 </sst>
 </file>
@@ -1439,10 +1430,10 @@
   <dimension ref="A1:AC85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B55" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="E32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E45" sqref="E45"/>
+      <selection pane="bottomRight" activeCell="A79" sqref="A79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -1899,7 +1890,7 @@
         <v>44</v>
       </c>
       <c r="K6" s="23" t="s">
-        <v>296</v>
+        <v>214</v>
       </c>
       <c r="L6" s="6">
         <v>0</v>
@@ -1944,7 +1935,7 @@
         <v>74</v>
       </c>
       <c r="Z6" s="3" t="s">
-        <v>295</v>
+        <v>213</v>
       </c>
       <c r="AA6" s="25" t="s">
         <v>41</v>
@@ -4357,7 +4348,7 @@
         <v>17</v>
       </c>
       <c r="K34" s="23" t="s">
-        <v>41</v>
+        <v>265</v>
       </c>
       <c r="L34" s="6">
         <v>1</v>
@@ -4399,7 +4390,7 @@
         <v>68</v>
       </c>
       <c r="Y34" s="22" t="s">
-        <v>187</v>
+        <v>266</v>
       </c>
       <c r="Z34" s="3" t="s">
         <v>41</v>
@@ -4447,7 +4438,7 @@
         <v>17</v>
       </c>
       <c r="K35" s="23" t="s">
-        <v>41</v>
+        <v>265</v>
       </c>
       <c r="L35" s="6">
         <v>1</v>
@@ -4489,7 +4480,7 @@
         <v>68</v>
       </c>
       <c r="Y35" s="22" t="s">
-        <v>187</v>
+        <v>266</v>
       </c>
       <c r="Z35" s="3" t="s">
         <v>41</v>
@@ -4537,7 +4528,7 @@
         <v>17</v>
       </c>
       <c r="K36" s="23" t="s">
-        <v>41</v>
+        <v>265</v>
       </c>
       <c r="L36" s="6">
         <v>0</v>
@@ -4579,7 +4570,7 @@
         <v>68</v>
       </c>
       <c r="Y36" s="22" t="s">
-        <v>187</v>
+        <v>266</v>
       </c>
       <c r="Z36" s="3" t="s">
         <v>87</v>
@@ -4627,7 +4618,7 @@
         <v>17</v>
       </c>
       <c r="K37" s="23" t="s">
-        <v>41</v>
+        <v>265</v>
       </c>
       <c r="L37" s="6">
         <v>0</v>
@@ -4669,7 +4660,7 @@
         <v>68</v>
       </c>
       <c r="Y37" s="22" t="s">
-        <v>187</v>
+        <v>266</v>
       </c>
       <c r="Z37" s="3" t="s">
         <v>88</v>
@@ -4717,7 +4708,7 @@
         <v>17</v>
       </c>
       <c r="K38" s="23" t="s">
-        <v>41</v>
+        <v>265</v>
       </c>
       <c r="L38" s="6">
         <v>0</v>
@@ -4759,7 +4750,7 @@
         <v>68</v>
       </c>
       <c r="Y38" s="22" t="s">
-        <v>187</v>
+        <v>266</v>
       </c>
       <c r="Z38" s="3" t="s">
         <v>89</v>
@@ -4807,7 +4798,7 @@
         <v>17</v>
       </c>
       <c r="K39" s="23" t="s">
-        <v>41</v>
+        <v>265</v>
       </c>
       <c r="L39" s="6">
         <v>0</v>
@@ -4849,7 +4840,7 @@
         <v>68</v>
       </c>
       <c r="Y39" s="22" t="s">
-        <v>187</v>
+        <v>266</v>
       </c>
       <c r="Z39" s="3" t="s">
         <v>41</v>
@@ -4897,7 +4888,7 @@
         <v>17</v>
       </c>
       <c r="K40" s="23" t="s">
-        <v>41</v>
+        <v>265</v>
       </c>
       <c r="L40" s="6">
         <v>0</v>
@@ -4939,7 +4930,7 @@
         <v>68</v>
       </c>
       <c r="Y40" s="22" t="s">
-        <v>187</v>
+        <v>266</v>
       </c>
       <c r="Z40" s="3" t="s">
         <v>90</v>
@@ -4987,7 +4978,7 @@
         <v>17</v>
       </c>
       <c r="K41" s="23" t="s">
-        <v>41</v>
+        <v>265</v>
       </c>
       <c r="L41" s="6">
         <v>0</v>
@@ -5029,7 +5020,7 @@
         <v>68</v>
       </c>
       <c r="Y41" s="22" t="s">
-        <v>187</v>
+        <v>266</v>
       </c>
       <c r="Z41" s="3" t="s">
         <v>91</v>
@@ -5046,7 +5037,7 @@
     </row>
     <row r="42" spans="1:29" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="19" t="s">
-        <v>290</v>
+        <v>208</v>
       </c>
       <c r="B42" s="18" t="s">
         <v>55</v>
@@ -5077,7 +5068,7 @@
         <v>17</v>
       </c>
       <c r="K42" s="23" t="s">
-        <v>41</v>
+        <v>265</v>
       </c>
       <c r="L42" s="6">
         <v>0</v>
@@ -5119,10 +5110,10 @@
         <v>68</v>
       </c>
       <c r="Y42" s="22" t="s">
-        <v>187</v>
+        <v>266</v>
       </c>
       <c r="Z42" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AA42" s="23" t="s">
         <v>113</v>
@@ -5131,7 +5122,7 @@
         <v>70</v>
       </c>
       <c r="AC42" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="43" spans="1:29" ht="16" x14ac:dyDescent="0.2">
@@ -5167,7 +5158,7 @@
         <v>17</v>
       </c>
       <c r="K43" s="23" t="s">
-        <v>41</v>
+        <v>265</v>
       </c>
       <c r="L43" s="6">
         <v>0</v>
@@ -5209,7 +5200,7 @@
         <v>68</v>
       </c>
       <c r="Y43" s="22" t="s">
-        <v>187</v>
+        <v>266</v>
       </c>
       <c r="Z43" s="3" t="s">
         <v>185</v>
@@ -5221,7 +5212,7 @@
         <v>70</v>
       </c>
       <c r="AC43" t="s">
-        <v>298</v>
+        <v>216</v>
       </c>
     </row>
     <row r="44" spans="1:29" ht="16" x14ac:dyDescent="0.2">
@@ -5257,7 +5248,7 @@
         <v>17</v>
       </c>
       <c r="K44" s="23" t="s">
-        <v>41</v>
+        <v>265</v>
       </c>
       <c r="L44" s="6">
         <v>0</v>
@@ -5299,7 +5290,7 @@
         <v>68</v>
       </c>
       <c r="Y44" s="22" t="s">
-        <v>187</v>
+        <v>266</v>
       </c>
       <c r="Z44" s="3" t="s">
         <v>186</v>
@@ -5311,12 +5302,12 @@
         <v>70</v>
       </c>
       <c r="AC44" t="s">
-        <v>297</v>
+        <v>215</v>
       </c>
     </row>
     <row r="45" spans="1:29" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="19" t="s">
-        <v>291</v>
+        <v>209</v>
       </c>
       <c r="B45" s="18" t="s">
         <v>55</v>
@@ -5347,7 +5338,7 @@
         <v>17</v>
       </c>
       <c r="K45" s="23" t="s">
-        <v>41</v>
+        <v>265</v>
       </c>
       <c r="L45" s="6">
         <v>0</v>
@@ -5389,10 +5380,10 @@
         <v>68</v>
       </c>
       <c r="Y45" s="22" t="s">
-        <v>187</v>
+        <v>266</v>
       </c>
       <c r="Z45" s="3" t="s">
-        <v>293</v>
+        <v>211</v>
       </c>
       <c r="AA45" s="23" t="s">
         <v>113</v>
@@ -5401,12 +5392,12 @@
         <v>70</v>
       </c>
       <c r="AC45" t="s">
-        <v>299</v>
+        <v>217</v>
       </c>
     </row>
     <row r="46" spans="1:29" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="19" t="s">
-        <v>292</v>
+        <v>210</v>
       </c>
       <c r="B46" s="18" t="s">
         <v>55</v>
@@ -5437,7 +5428,7 @@
         <v>17</v>
       </c>
       <c r="K46" s="23" t="s">
-        <v>41</v>
+        <v>265</v>
       </c>
       <c r="L46" s="6">
         <v>0</v>
@@ -5479,10 +5470,10 @@
         <v>68</v>
       </c>
       <c r="Y46" s="22" t="s">
-        <v>187</v>
+        <v>266</v>
       </c>
       <c r="Z46" s="3" t="s">
-        <v>294</v>
+        <v>212</v>
       </c>
       <c r="AA46" s="23" t="s">
         <v>113</v>
@@ -5491,12 +5482,12 @@
         <v>70</v>
       </c>
       <c r="AC46" t="s">
-        <v>300</v>
+        <v>218</v>
       </c>
     </row>
     <row r="47" spans="1:29" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="19" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B47" s="18" t="s">
         <v>55</v>
@@ -5527,7 +5518,7 @@
         <v>17</v>
       </c>
       <c r="K47" s="23" t="s">
-        <v>41</v>
+        <v>265</v>
       </c>
       <c r="L47" s="6">
         <v>0</v>
@@ -5569,10 +5560,10 @@
         <v>68</v>
       </c>
       <c r="Y47" s="22" t="s">
-        <v>187</v>
+        <v>266</v>
       </c>
       <c r="Z47" s="3" t="s">
-        <v>224</v>
+        <v>190</v>
       </c>
       <c r="AA47" s="23" t="s">
         <v>113</v>
@@ -5581,12 +5572,12 @@
         <v>70</v>
       </c>
       <c r="AC47" t="s">
-        <v>223</v>
+        <v>267</v>
       </c>
     </row>
     <row r="48" spans="1:29" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="19" t="s">
-        <v>191</v>
+        <v>219</v>
       </c>
       <c r="B48" s="18" t="s">
         <v>55</v>
@@ -5617,7 +5608,7 @@
         <v>17</v>
       </c>
       <c r="K48" s="23" t="s">
-        <v>41</v>
+        <v>265</v>
       </c>
       <c r="L48" s="30">
         <v>0</v>
@@ -5659,24 +5650,24 @@
         <v>68</v>
       </c>
       <c r="Y48" s="22" t="s">
-        <v>187</v>
+        <v>266</v>
       </c>
       <c r="Z48" s="3" t="s">
-        <v>225</v>
+        <v>191</v>
       </c>
       <c r="AA48" s="23" t="s">
-        <v>226</v>
+        <v>251</v>
       </c>
       <c r="AB48" t="s">
         <v>70</v>
       </c>
       <c r="AC48" t="s">
-        <v>227</v>
+        <v>267</v>
       </c>
     </row>
     <row r="49" spans="1:29" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="19" t="s">
-        <v>192</v>
+        <v>220</v>
       </c>
       <c r="B49" s="18" t="s">
         <v>55</v>
@@ -5707,7 +5698,7 @@
         <v>17</v>
       </c>
       <c r="K49" s="23" t="s">
-        <v>41</v>
+        <v>265</v>
       </c>
       <c r="L49" s="30">
         <v>0</v>
@@ -5749,24 +5740,24 @@
         <v>68</v>
       </c>
       <c r="Y49" s="22" t="s">
-        <v>187</v>
+        <v>266</v>
       </c>
       <c r="Z49" s="3" t="s">
-        <v>225</v>
+        <v>191</v>
       </c>
       <c r="AA49" s="23" t="s">
-        <v>232</v>
+        <v>252</v>
       </c>
       <c r="AB49" t="s">
         <v>70</v>
       </c>
       <c r="AC49" t="s">
-        <v>228</v>
+        <v>268</v>
       </c>
     </row>
     <row r="50" spans="1:29" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="19" t="s">
-        <v>193</v>
+        <v>221</v>
       </c>
       <c r="B50" s="18" t="s">
         <v>55</v>
@@ -5797,7 +5788,7 @@
         <v>17</v>
       </c>
       <c r="K50" s="23" t="s">
-        <v>41</v>
+        <v>265</v>
       </c>
       <c r="L50" s="30">
         <v>0</v>
@@ -5839,24 +5830,24 @@
         <v>68</v>
       </c>
       <c r="Y50" s="22" t="s">
-        <v>187</v>
+        <v>266</v>
       </c>
       <c r="Z50" s="27" t="s">
-        <v>225</v>
+        <v>191</v>
       </c>
       <c r="AA50" s="23" t="s">
-        <v>233</v>
+        <v>253</v>
       </c>
       <c r="AB50" t="s">
         <v>70</v>
       </c>
       <c r="AC50" t="s">
-        <v>229</v>
+        <v>269</v>
       </c>
     </row>
     <row r="51" spans="1:29" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="19" t="s">
-        <v>194</v>
+        <v>222</v>
       </c>
       <c r="B51" s="18" t="s">
         <v>55</v>
@@ -5887,7 +5878,7 @@
         <v>17</v>
       </c>
       <c r="K51" s="23" t="s">
-        <v>41</v>
+        <v>265</v>
       </c>
       <c r="L51" s="30">
         <v>0</v>
@@ -5929,24 +5920,24 @@
         <v>68</v>
       </c>
       <c r="Y51" s="22" t="s">
-        <v>187</v>
+        <v>266</v>
       </c>
       <c r="Z51" s="3" t="s">
-        <v>225</v>
+        <v>191</v>
       </c>
       <c r="AA51" s="23" t="s">
-        <v>234</v>
+        <v>254</v>
       </c>
       <c r="AB51" t="s">
         <v>70</v>
       </c>
       <c r="AC51" t="s">
-        <v>230</v>
+        <v>270</v>
       </c>
     </row>
     <row r="52" spans="1:29" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="19" t="s">
-        <v>195</v>
+        <v>223</v>
       </c>
       <c r="B52" s="18" t="s">
         <v>55</v>
@@ -5977,7 +5968,7 @@
         <v>17</v>
       </c>
       <c r="K52" s="23" t="s">
-        <v>41</v>
+        <v>265</v>
       </c>
       <c r="L52" s="30">
         <v>0</v>
@@ -6019,24 +6010,24 @@
         <v>68</v>
       </c>
       <c r="Y52" s="22" t="s">
-        <v>187</v>
+        <v>266</v>
       </c>
       <c r="Z52" s="27" t="s">
-        <v>225</v>
+        <v>191</v>
       </c>
       <c r="AA52" s="25" t="s">
-        <v>235</v>
+        <v>255</v>
       </c>
       <c r="AB52" t="s">
         <v>70</v>
       </c>
       <c r="AC52" t="s">
-        <v>231</v>
+        <v>271</v>
       </c>
     </row>
     <row r="53" spans="1:29" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="19" t="s">
-        <v>196</v>
+        <v>224</v>
       </c>
       <c r="B53" s="18" t="s">
         <v>55</v>
@@ -6067,7 +6058,7 @@
         <v>17</v>
       </c>
       <c r="K53" s="23" t="s">
-        <v>41</v>
+        <v>265</v>
       </c>
       <c r="L53" s="30">
         <v>0</v>
@@ -6109,24 +6100,24 @@
         <v>68</v>
       </c>
       <c r="Y53" s="22" t="s">
-        <v>187</v>
+        <v>266</v>
       </c>
       <c r="Z53" s="3" t="s">
-        <v>225</v>
+        <v>191</v>
       </c>
       <c r="AA53" s="25" t="s">
-        <v>236</v>
+        <v>256</v>
       </c>
       <c r="AB53" t="s">
         <v>70</v>
       </c>
       <c r="AC53" t="s">
-        <v>263</v>
+        <v>272</v>
       </c>
     </row>
     <row r="54" spans="1:29" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" s="19" t="s">
-        <v>197</v>
+        <v>225</v>
       </c>
       <c r="B54" s="18" t="s">
         <v>55</v>
@@ -6157,7 +6148,7 @@
         <v>17</v>
       </c>
       <c r="K54" s="23" t="s">
-        <v>41</v>
+        <v>265</v>
       </c>
       <c r="L54" s="30">
         <v>0</v>
@@ -6199,24 +6190,24 @@
         <v>68</v>
       </c>
       <c r="Y54" s="22" t="s">
-        <v>187</v>
+        <v>266</v>
       </c>
       <c r="Z54" s="27" t="s">
-        <v>225</v>
+        <v>191</v>
       </c>
       <c r="AA54" s="25" t="s">
-        <v>237</v>
+        <v>257</v>
       </c>
       <c r="AB54" t="s">
         <v>70</v>
       </c>
       <c r="AC54" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
     </row>
     <row r="55" spans="1:29" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="19" t="s">
-        <v>198</v>
+        <v>226</v>
       </c>
       <c r="B55" s="18" t="s">
         <v>55</v>
@@ -6247,7 +6238,7 @@
         <v>17</v>
       </c>
       <c r="K55" s="23" t="s">
-        <v>41</v>
+        <v>265</v>
       </c>
       <c r="L55" s="30">
         <v>0</v>
@@ -6289,24 +6280,24 @@
         <v>68</v>
       </c>
       <c r="Y55" s="22" t="s">
-        <v>187</v>
+        <v>266</v>
       </c>
       <c r="Z55" s="3" t="s">
-        <v>225</v>
+        <v>191</v>
       </c>
       <c r="AA55" s="25" t="s">
-        <v>238</v>
+        <v>258</v>
       </c>
       <c r="AB55" t="s">
         <v>70</v>
       </c>
       <c r="AC55" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
     </row>
     <row r="56" spans="1:29" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" s="19" t="s">
-        <v>211</v>
+        <v>227</v>
       </c>
       <c r="B56" s="18" t="s">
         <v>55</v>
@@ -6337,7 +6328,7 @@
         <v>17</v>
       </c>
       <c r="K56" s="23" t="s">
-        <v>41</v>
+        <v>265</v>
       </c>
       <c r="L56" s="30">
         <v>0</v>
@@ -6379,24 +6370,24 @@
         <v>68</v>
       </c>
       <c r="Y56" s="22" t="s">
-        <v>187</v>
+        <v>266</v>
       </c>
       <c r="Z56" s="27" t="s">
-        <v>225</v>
+        <v>191</v>
       </c>
       <c r="AA56" s="25" t="s">
-        <v>239</v>
+        <v>259</v>
       </c>
       <c r="AB56" t="s">
         <v>70</v>
       </c>
       <c r="AC56" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
     </row>
     <row r="57" spans="1:29" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" s="19" t="s">
-        <v>212</v>
+        <v>228</v>
       </c>
       <c r="B57" s="18" t="s">
         <v>55</v>
@@ -6427,7 +6418,7 @@
         <v>17</v>
       </c>
       <c r="K57" s="23" t="s">
-        <v>41</v>
+        <v>265</v>
       </c>
       <c r="L57" s="30">
         <v>0</v>
@@ -6469,24 +6460,24 @@
         <v>68</v>
       </c>
       <c r="Y57" s="22" t="s">
-        <v>187</v>
+        <v>266</v>
       </c>
       <c r="Z57" s="3" t="s">
-        <v>225</v>
+        <v>191</v>
       </c>
       <c r="AA57" s="25" t="s">
-        <v>240</v>
+        <v>260</v>
       </c>
       <c r="AB57" t="s">
         <v>70</v>
       </c>
       <c r="AC57" t="s">
-        <v>267</v>
+        <v>276</v>
       </c>
     </row>
     <row r="58" spans="1:29" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" s="19" t="s">
-        <v>213</v>
+        <v>229</v>
       </c>
       <c r="B58" s="18" t="s">
         <v>55</v>
@@ -6517,7 +6508,7 @@
         <v>17</v>
       </c>
       <c r="K58" s="23" t="s">
-        <v>41</v>
+        <v>265</v>
       </c>
       <c r="L58" s="30">
         <v>0</v>
@@ -6559,24 +6550,24 @@
         <v>68</v>
       </c>
       <c r="Y58" s="22" t="s">
-        <v>187</v>
+        <v>266</v>
       </c>
       <c r="Z58" s="27" t="s">
-        <v>225</v>
+        <v>191</v>
       </c>
       <c r="AA58" s="23" t="s">
-        <v>241</v>
+        <v>261</v>
       </c>
       <c r="AB58" t="s">
         <v>70</v>
       </c>
       <c r="AC58" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
     </row>
     <row r="59" spans="1:29" ht="16" x14ac:dyDescent="0.2">
       <c r="A59" s="19" t="s">
-        <v>214</v>
+        <v>230</v>
       </c>
       <c r="B59" s="18" t="s">
         <v>55</v>
@@ -6607,7 +6598,7 @@
         <v>17</v>
       </c>
       <c r="K59" s="23" t="s">
-        <v>41</v>
+        <v>265</v>
       </c>
       <c r="L59" s="30">
         <v>0</v>
@@ -6649,24 +6640,24 @@
         <v>68</v>
       </c>
       <c r="Y59" s="22" t="s">
-        <v>187</v>
+        <v>266</v>
       </c>
       <c r="Z59" s="3" t="s">
-        <v>225</v>
+        <v>191</v>
       </c>
       <c r="AA59" s="25" t="s">
-        <v>242</v>
+        <v>262</v>
       </c>
       <c r="AB59" t="s">
         <v>70</v>
       </c>
       <c r="AC59" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
     </row>
     <row r="60" spans="1:29" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" s="19" t="s">
-        <v>215</v>
+        <v>231</v>
       </c>
       <c r="B60" s="18" t="s">
         <v>55</v>
@@ -6697,7 +6688,7 @@
         <v>17</v>
       </c>
       <c r="K60" s="23" t="s">
-        <v>41</v>
+        <v>265</v>
       </c>
       <c r="L60" s="30">
         <v>0</v>
@@ -6739,24 +6730,24 @@
         <v>68</v>
       </c>
       <c r="Y60" s="22" t="s">
-        <v>187</v>
+        <v>266</v>
       </c>
       <c r="Z60" s="27" t="s">
-        <v>225</v>
+        <v>191</v>
       </c>
       <c r="AA60" s="25" t="s">
-        <v>243</v>
+        <v>263</v>
       </c>
       <c r="AB60" t="s">
         <v>70</v>
       </c>
       <c r="AC60" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
     </row>
     <row r="61" spans="1:29" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" s="19" t="s">
-        <v>216</v>
+        <v>232</v>
       </c>
       <c r="B61" s="18" t="s">
         <v>55</v>
@@ -6787,7 +6778,7 @@
         <v>17</v>
       </c>
       <c r="K61" s="23" t="s">
-        <v>41</v>
+        <v>265</v>
       </c>
       <c r="L61" s="30">
         <v>0</v>
@@ -6829,24 +6820,24 @@
         <v>68</v>
       </c>
       <c r="Y61" s="22" t="s">
-        <v>187</v>
+        <v>266</v>
       </c>
       <c r="Z61" s="3" t="s">
-        <v>225</v>
+        <v>191</v>
       </c>
       <c r="AA61" s="25" t="s">
-        <v>244</v>
+        <v>207</v>
       </c>
       <c r="AB61" t="s">
         <v>70</v>
       </c>
       <c r="AC61" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
     </row>
     <row r="62" spans="1:29" ht="16" x14ac:dyDescent="0.2">
       <c r="A62" s="19" t="s">
-        <v>199</v>
+        <v>233</v>
       </c>
       <c r="B62" s="18" t="s">
         <v>55</v>
@@ -6877,7 +6868,7 @@
         <v>17</v>
       </c>
       <c r="K62" s="23" t="s">
-        <v>41</v>
+        <v>265</v>
       </c>
       <c r="L62" s="30">
         <v>0</v>
@@ -6919,24 +6910,24 @@
         <v>68</v>
       </c>
       <c r="Y62" s="22" t="s">
-        <v>187</v>
+        <v>266</v>
       </c>
       <c r="Z62" s="27" t="s">
-        <v>225</v>
+        <v>191</v>
       </c>
       <c r="AA62" s="23" t="s">
-        <v>246</v>
+        <v>206</v>
       </c>
       <c r="AB62" t="s">
         <v>70</v>
       </c>
       <c r="AC62" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
     </row>
     <row r="63" spans="1:29" ht="16" x14ac:dyDescent="0.2">
       <c r="A63" s="19" t="s">
-        <v>200</v>
+        <v>234</v>
       </c>
       <c r="B63" s="18" t="s">
         <v>55</v>
@@ -6967,7 +6958,7 @@
         <v>17</v>
       </c>
       <c r="K63" s="23" t="s">
-        <v>41</v>
+        <v>265</v>
       </c>
       <c r="L63" s="30">
         <v>0</v>
@@ -7009,24 +7000,24 @@
         <v>68</v>
       </c>
       <c r="Y63" s="22" t="s">
-        <v>187</v>
+        <v>266</v>
       </c>
       <c r="Z63" s="3" t="s">
-        <v>225</v>
+        <v>191</v>
       </c>
       <c r="AA63" s="23" t="s">
-        <v>245</v>
+        <v>205</v>
       </c>
       <c r="AB63" t="s">
         <v>70</v>
       </c>
       <c r="AC63" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
     </row>
     <row r="64" spans="1:29" ht="16" x14ac:dyDescent="0.2">
       <c r="A64" s="19" t="s">
-        <v>201</v>
+        <v>235</v>
       </c>
       <c r="B64" s="18" t="s">
         <v>55</v>
@@ -7057,7 +7048,7 @@
         <v>17</v>
       </c>
       <c r="K64" s="23" t="s">
-        <v>41</v>
+        <v>265</v>
       </c>
       <c r="L64" s="30">
         <v>0</v>
@@ -7099,24 +7090,24 @@
         <v>68</v>
       </c>
       <c r="Y64" s="22" t="s">
-        <v>187</v>
+        <v>266</v>
       </c>
       <c r="Z64" s="27" t="s">
-        <v>225</v>
+        <v>191</v>
       </c>
       <c r="AA64" s="25" t="s">
-        <v>247</v>
+        <v>204</v>
       </c>
       <c r="AB64" t="s">
         <v>70</v>
       </c>
       <c r="AC64" t="s">
-        <v>274</v>
+        <v>283</v>
       </c>
     </row>
     <row r="65" spans="1:29" ht="16" x14ac:dyDescent="0.2">
       <c r="A65" s="19" t="s">
-        <v>202</v>
+        <v>236</v>
       </c>
       <c r="B65" s="18" t="s">
         <v>55</v>
@@ -7147,7 +7138,7 @@
         <v>17</v>
       </c>
       <c r="K65" s="23" t="s">
-        <v>41</v>
+        <v>265</v>
       </c>
       <c r="L65" s="30">
         <v>0</v>
@@ -7189,24 +7180,24 @@
         <v>68</v>
       </c>
       <c r="Y65" s="22" t="s">
-        <v>187</v>
+        <v>266</v>
       </c>
       <c r="Z65" s="3" t="s">
-        <v>225</v>
+        <v>191</v>
       </c>
       <c r="AA65" s="25" t="s">
-        <v>248</v>
+        <v>203</v>
       </c>
       <c r="AB65" t="s">
         <v>70</v>
       </c>
       <c r="AC65" t="s">
-        <v>275</v>
+        <v>284</v>
       </c>
     </row>
     <row r="66" spans="1:29" ht="16" x14ac:dyDescent="0.2">
       <c r="A66" s="19" t="s">
-        <v>203</v>
+        <v>237</v>
       </c>
       <c r="B66" s="18" t="s">
         <v>55</v>
@@ -7237,7 +7228,7 @@
         <v>17</v>
       </c>
       <c r="K66" s="23" t="s">
-        <v>41</v>
+        <v>265</v>
       </c>
       <c r="L66" s="30">
         <v>0</v>
@@ -7279,24 +7270,24 @@
         <v>68</v>
       </c>
       <c r="Y66" s="22" t="s">
-        <v>187</v>
+        <v>266</v>
       </c>
       <c r="Z66" s="27" t="s">
-        <v>225</v>
+        <v>191</v>
       </c>
       <c r="AA66" s="25" t="s">
-        <v>249</v>
+        <v>202</v>
       </c>
       <c r="AB66" t="s">
         <v>70</v>
       </c>
       <c r="AC66" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
     </row>
     <row r="67" spans="1:29" ht="16" x14ac:dyDescent="0.2">
       <c r="A67" s="19" t="s">
-        <v>204</v>
+        <v>238</v>
       </c>
       <c r="B67" s="18" t="s">
         <v>55</v>
@@ -7327,7 +7318,7 @@
         <v>17</v>
       </c>
       <c r="K67" s="23" t="s">
-        <v>41</v>
+        <v>265</v>
       </c>
       <c r="L67" s="30">
         <v>0</v>
@@ -7369,24 +7360,24 @@
         <v>68</v>
       </c>
       <c r="Y67" s="22" t="s">
-        <v>187</v>
+        <v>266</v>
       </c>
       <c r="Z67" s="3" t="s">
-        <v>225</v>
+        <v>191</v>
       </c>
       <c r="AA67" s="25" t="s">
-        <v>250</v>
+        <v>201</v>
       </c>
       <c r="AB67" t="s">
         <v>70</v>
       </c>
       <c r="AC67" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
     </row>
     <row r="68" spans="1:29" ht="16" x14ac:dyDescent="0.2">
       <c r="A68" s="19" t="s">
-        <v>205</v>
+        <v>239</v>
       </c>
       <c r="B68" s="18" t="s">
         <v>55</v>
@@ -7417,7 +7408,7 @@
         <v>17</v>
       </c>
       <c r="K68" s="23" t="s">
-        <v>41</v>
+        <v>265</v>
       </c>
       <c r="L68" s="30">
         <v>0</v>
@@ -7459,24 +7450,24 @@
         <v>68</v>
       </c>
       <c r="Y68" s="22" t="s">
-        <v>187</v>
+        <v>266</v>
       </c>
       <c r="Z68" s="27" t="s">
-        <v>225</v>
+        <v>191</v>
       </c>
       <c r="AA68" s="25" t="s">
-        <v>251</v>
+        <v>200</v>
       </c>
       <c r="AB68" t="s">
         <v>70</v>
       </c>
       <c r="AC68" t="s">
-        <v>278</v>
+        <v>287</v>
       </c>
     </row>
     <row r="69" spans="1:29" ht="16" x14ac:dyDescent="0.2">
       <c r="A69" s="19" t="s">
-        <v>206</v>
+        <v>240</v>
       </c>
       <c r="B69" s="18" t="s">
         <v>55</v>
@@ -7507,7 +7498,7 @@
         <v>17</v>
       </c>
       <c r="K69" s="23" t="s">
-        <v>41</v>
+        <v>265</v>
       </c>
       <c r="L69" s="30">
         <v>0</v>
@@ -7549,24 +7540,24 @@
         <v>68</v>
       </c>
       <c r="Y69" s="22" t="s">
-        <v>187</v>
+        <v>266</v>
       </c>
       <c r="Z69" s="3" t="s">
-        <v>225</v>
+        <v>191</v>
       </c>
       <c r="AA69" s="25" t="s">
-        <v>252</v>
+        <v>199</v>
       </c>
       <c r="AB69" t="s">
         <v>70</v>
       </c>
       <c r="AC69" t="s">
-        <v>279</v>
+        <v>288</v>
       </c>
     </row>
     <row r="70" spans="1:29" ht="16" x14ac:dyDescent="0.2">
       <c r="A70" s="19" t="s">
-        <v>207</v>
+        <v>241</v>
       </c>
       <c r="B70" s="18" t="s">
         <v>55</v>
@@ -7597,7 +7588,7 @@
         <v>17</v>
       </c>
       <c r="K70" s="23" t="s">
-        <v>41</v>
+        <v>265</v>
       </c>
       <c r="L70" s="30">
         <v>0</v>
@@ -7639,24 +7630,24 @@
         <v>68</v>
       </c>
       <c r="Y70" s="22" t="s">
-        <v>187</v>
+        <v>266</v>
       </c>
       <c r="Z70" s="27" t="s">
-        <v>225</v>
+        <v>191</v>
       </c>
       <c r="AA70" s="25" t="s">
-        <v>253</v>
+        <v>198</v>
       </c>
       <c r="AB70" t="s">
         <v>70</v>
       </c>
       <c r="AC70" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
     </row>
     <row r="71" spans="1:29" ht="16" x14ac:dyDescent="0.2">
       <c r="A71" s="19" t="s">
-        <v>208</v>
+        <v>242</v>
       </c>
       <c r="B71" s="18" t="s">
         <v>55</v>
@@ -7687,7 +7678,7 @@
         <v>17</v>
       </c>
       <c r="K71" s="23" t="s">
-        <v>41</v>
+        <v>265</v>
       </c>
       <c r="L71" s="30">
         <v>0</v>
@@ -7729,24 +7720,24 @@
         <v>68</v>
       </c>
       <c r="Y71" s="22" t="s">
-        <v>187</v>
+        <v>266</v>
       </c>
       <c r="Z71" s="3" t="s">
-        <v>225</v>
+        <v>191</v>
       </c>
       <c r="AA71" s="25" t="s">
-        <v>254</v>
+        <v>197</v>
       </c>
       <c r="AB71" t="s">
         <v>70</v>
       </c>
       <c r="AC71" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
     </row>
     <row r="72" spans="1:29" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" s="19" t="s">
-        <v>217</v>
+        <v>243</v>
       </c>
       <c r="B72" s="18" t="s">
         <v>55</v>
@@ -7777,7 +7768,7 @@
         <v>17</v>
       </c>
       <c r="K72" s="23" t="s">
-        <v>41</v>
+        <v>265</v>
       </c>
       <c r="L72" s="30">
         <v>0</v>
@@ -7819,24 +7810,24 @@
         <v>68</v>
       </c>
       <c r="Y72" s="22" t="s">
-        <v>187</v>
+        <v>266</v>
       </c>
       <c r="Z72" s="27" t="s">
-        <v>225</v>
+        <v>191</v>
       </c>
       <c r="AA72" s="25" t="s">
-        <v>255</v>
+        <v>196</v>
       </c>
       <c r="AB72" t="s">
         <v>70</v>
       </c>
       <c r="AC72" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
     </row>
     <row r="73" spans="1:29" ht="16" x14ac:dyDescent="0.2">
       <c r="A73" s="19" t="s">
-        <v>218</v>
+        <v>244</v>
       </c>
       <c r="B73" s="18" t="s">
         <v>55</v>
@@ -7867,7 +7858,7 @@
         <v>17</v>
       </c>
       <c r="K73" s="23" t="s">
-        <v>41</v>
+        <v>265</v>
       </c>
       <c r="L73" s="30">
         <v>0</v>
@@ -7909,24 +7900,24 @@
         <v>68</v>
       </c>
       <c r="Y73" s="22" t="s">
-        <v>187</v>
+        <v>266</v>
       </c>
       <c r="Z73" s="3" t="s">
-        <v>225</v>
+        <v>191</v>
       </c>
       <c r="AA73" s="25" t="s">
-        <v>256</v>
+        <v>195</v>
       </c>
       <c r="AB73" t="s">
         <v>70</v>
       </c>
       <c r="AC73" t="s">
-        <v>283</v>
+        <v>292</v>
       </c>
     </row>
     <row r="74" spans="1:29" ht="16" x14ac:dyDescent="0.2">
       <c r="A74" s="19" t="s">
-        <v>219</v>
+        <v>245</v>
       </c>
       <c r="B74" s="18" t="s">
         <v>55</v>
@@ -7957,7 +7948,7 @@
         <v>17</v>
       </c>
       <c r="K74" s="23" t="s">
-        <v>41</v>
+        <v>265</v>
       </c>
       <c r="L74" s="30">
         <v>0</v>
@@ -7999,24 +7990,24 @@
         <v>68</v>
       </c>
       <c r="Y74" s="22" t="s">
-        <v>187</v>
+        <v>266</v>
       </c>
       <c r="Z74" s="27" t="s">
-        <v>225</v>
+        <v>191</v>
       </c>
       <c r="AA74" s="25" t="s">
-        <v>257</v>
+        <v>194</v>
       </c>
       <c r="AB74" t="s">
         <v>70</v>
       </c>
       <c r="AC74" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
     </row>
     <row r="75" spans="1:29" ht="16" x14ac:dyDescent="0.2">
       <c r="A75" s="19" t="s">
-        <v>220</v>
+        <v>246</v>
       </c>
       <c r="B75" s="18" t="s">
         <v>55</v>
@@ -8047,7 +8038,7 @@
         <v>17</v>
       </c>
       <c r="K75" s="23" t="s">
-        <v>41</v>
+        <v>265</v>
       </c>
       <c r="L75" s="30">
         <v>0</v>
@@ -8089,24 +8080,24 @@
         <v>68</v>
       </c>
       <c r="Y75" s="22" t="s">
-        <v>187</v>
+        <v>266</v>
       </c>
       <c r="Z75" s="3" t="s">
-        <v>225</v>
+        <v>191</v>
       </c>
       <c r="AA75" s="25" t="s">
-        <v>258</v>
+        <v>193</v>
       </c>
       <c r="AB75" t="s">
         <v>70</v>
       </c>
       <c r="AC75" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
     </row>
     <row r="76" spans="1:29" ht="16" x14ac:dyDescent="0.2">
       <c r="A76" s="19" t="s">
-        <v>221</v>
+        <v>247</v>
       </c>
       <c r="B76" s="18" t="s">
         <v>55</v>
@@ -8137,7 +8128,7 @@
         <v>17</v>
       </c>
       <c r="K76" s="23" t="s">
-        <v>41</v>
+        <v>265</v>
       </c>
       <c r="L76" s="30">
         <v>0</v>
@@ -8179,24 +8170,24 @@
         <v>68</v>
       </c>
       <c r="Y76" s="22" t="s">
-        <v>187</v>
+        <v>266</v>
       </c>
       <c r="Z76" s="27" t="s">
-        <v>225</v>
+        <v>191</v>
       </c>
       <c r="AA76" s="25" t="s">
-        <v>259</v>
+        <v>192</v>
       </c>
       <c r="AB76" t="s">
         <v>70</v>
       </c>
       <c r="AC76" t="s">
-        <v>286</v>
+        <v>295</v>
       </c>
     </row>
     <row r="77" spans="1:29" ht="16" x14ac:dyDescent="0.2">
       <c r="A77" s="19" t="s">
-        <v>222</v>
+        <v>248</v>
       </c>
       <c r="B77" s="18" t="s">
         <v>55</v>
@@ -8227,7 +8218,7 @@
         <v>17</v>
       </c>
       <c r="K77" s="23" t="s">
-        <v>41</v>
+        <v>265</v>
       </c>
       <c r="L77" s="30">
         <v>0</v>
@@ -8269,24 +8260,24 @@
         <v>68</v>
       </c>
       <c r="Y77" s="22" t="s">
-        <v>187</v>
+        <v>266</v>
       </c>
       <c r="Z77" s="3" t="s">
-        <v>225</v>
+        <v>191</v>
       </c>
       <c r="AA77" s="25" t="s">
-        <v>260</v>
+        <v>113</v>
       </c>
       <c r="AB77" t="s">
         <v>70</v>
       </c>
       <c r="AC77" t="s">
-        <v>287</v>
+        <v>296</v>
       </c>
     </row>
     <row r="78" spans="1:29" ht="16" x14ac:dyDescent="0.2">
       <c r="A78" s="19" t="s">
-        <v>209</v>
+        <v>249</v>
       </c>
       <c r="B78" s="18" t="s">
         <v>55</v>
@@ -8317,7 +8308,7 @@
         <v>17</v>
       </c>
       <c r="K78" s="23" t="s">
-        <v>41</v>
+        <v>265</v>
       </c>
       <c r="L78" s="30">
         <v>0</v>
@@ -8359,24 +8350,24 @@
         <v>68</v>
       </c>
       <c r="Y78" s="22" t="s">
-        <v>187</v>
+        <v>266</v>
       </c>
       <c r="Z78" s="27" t="s">
-        <v>225</v>
+        <v>191</v>
       </c>
       <c r="AA78" s="23" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="AB78" t="s">
         <v>70</v>
       </c>
       <c r="AC78" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
     </row>
     <row r="79" spans="1:29" ht="16" x14ac:dyDescent="0.2">
       <c r="A79" s="19" t="s">
-        <v>210</v>
+        <v>250</v>
       </c>
       <c r="B79" s="18" t="s">
         <v>55</v>
@@ -8407,7 +8398,7 @@
         <v>17</v>
       </c>
       <c r="K79" s="23" t="s">
-        <v>41</v>
+        <v>265</v>
       </c>
       <c r="L79" s="30">
         <v>0</v>
@@ -8449,19 +8440,19 @@
         <v>68</v>
       </c>
       <c r="Y79" s="22" t="s">
-        <v>187</v>
+        <v>266</v>
       </c>
       <c r="Z79" s="3" t="s">
-        <v>225</v>
+        <v>191</v>
       </c>
       <c r="AA79" s="23" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="AB79" t="s">
         <v>70</v>
       </c>
       <c r="AC79" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
     </row>
     <row r="80" spans="1:29" ht="16" x14ac:dyDescent="0.2">
@@ -8497,7 +8488,7 @@
         <v>17</v>
       </c>
       <c r="K80" s="23" t="s">
-        <v>41</v>
+        <v>265</v>
       </c>
       <c r="L80" s="6">
         <v>0</v>
@@ -8539,7 +8530,7 @@
         <v>68</v>
       </c>
       <c r="Y80" s="22" t="s">
-        <v>187</v>
+        <v>266</v>
       </c>
       <c r="Z80" s="3" t="s">
         <v>119</v>
@@ -8587,7 +8578,7 @@
         <v>17</v>
       </c>
       <c r="K81" s="23" t="s">
-        <v>41</v>
+        <v>265</v>
       </c>
       <c r="L81" s="6">
         <v>0</v>
@@ -8629,7 +8620,7 @@
         <v>68</v>
       </c>
       <c r="Y81" s="22" t="s">
-        <v>187</v>
+        <v>266</v>
       </c>
       <c r="Z81" s="3" t="s">
         <v>118</v>
@@ -8677,7 +8668,7 @@
         <v>17</v>
       </c>
       <c r="K82" s="23" t="s">
-        <v>41</v>
+        <v>265</v>
       </c>
       <c r="L82" s="6">
         <v>0</v>
@@ -8719,7 +8710,7 @@
         <v>68</v>
       </c>
       <c r="Y82" s="22" t="s">
-        <v>187</v>
+        <v>266</v>
       </c>
       <c r="Z82" s="3" t="s">
         <v>117</v>
@@ -8767,7 +8758,7 @@
         <v>17</v>
       </c>
       <c r="K83" s="23" t="s">
-        <v>41</v>
+        <v>265</v>
       </c>
       <c r="L83" s="6">
         <v>0</v>
@@ -8809,7 +8800,7 @@
         <v>68</v>
       </c>
       <c r="Y83" s="22" t="s">
-        <v>187</v>
+        <v>266</v>
       </c>
       <c r="Z83" s="3" t="s">
         <v>116</v>
@@ -8857,7 +8848,7 @@
         <v>17</v>
       </c>
       <c r="K84" s="23" t="s">
-        <v>41</v>
+        <v>265</v>
       </c>
       <c r="L84" s="6">
         <v>0</v>
@@ -8899,7 +8890,7 @@
         <v>68</v>
       </c>
       <c r="Y84" s="22" t="s">
-        <v>187</v>
+        <v>266</v>
       </c>
       <c r="Z84" s="3" t="s">
         <v>115</v>
@@ -8947,7 +8938,7 @@
         <v>17</v>
       </c>
       <c r="K85" s="23" t="s">
-        <v>41</v>
+        <v>265</v>
       </c>
       <c r="L85" s="6">
         <v>0</v>
@@ -8989,7 +8980,7 @@
         <v>68</v>
       </c>
       <c r="Y85" s="22" t="s">
-        <v>187</v>
+        <v>266</v>
       </c>
       <c r="Z85" s="3" t="s">
         <v>114</v>

--- a/commands/cmos1/cmos1_command_deck.xlsx
+++ b/commands/cmos1/cmos1_command_deck.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thanasi/Documents/FOXSI/Data/formatter/foxsi-4matter/foxsi4-commands/commands/cmos1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D66346D7-8988-D74D-99E7-F5014444A5CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E9701B2-62F4-8C41-A3EE-F92FA573F3CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20" yWindow="760" windowWidth="30220" windowHeight="17880" xr2:uid="{1DE950B2-129E-5A4D-8896-FB78BBCF4CAC}"/>
   </bookViews>
@@ -1433,7 +1433,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="E32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A79" sqref="A79"/>
+      <selection pane="bottomRight" activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0.25"/>

--- a/commands/cmos1/cmos1_command_deck.xlsx
+++ b/commands/cmos1/cmos1_command_deck.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thanasi/Documents/FOXSI/Data/formatter/foxsi-4matter/foxsi4-commands/commands/cmos1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thanasi/Documents/FOXSI/GSE/GSE-FOXSI-4/foxsi4-commands/commands/cmos1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E9701B2-62F4-8C41-A3EE-F92FA573F3CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3D5C583-1720-A54B-BBCE-B597A1043A20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20" yWindow="760" windowWidth="30220" windowHeight="17880" xr2:uid="{1DE950B2-129E-5A4D-8896-FB78BBCF4CAC}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1178" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1262" uniqueCount="303">
   <si>
     <t>R=1/W=0</t>
   </si>
@@ -928,6 +928,21 @@
   </si>
   <si>
     <t>set quick look mode and photon counting mode inttim to 0 for CMOS sensor</t>
+  </si>
+  <si>
+    <t>order</t>
+  </si>
+  <si>
+    <t>color</t>
+  </si>
+  <si>
+    <t>0xff1741</t>
+  </si>
+  <si>
+    <t>0x000000</t>
+  </si>
+  <si>
+    <t>0xff8f4b</t>
   </si>
 </sst>
 </file>
@@ -1045,7 +1060,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1113,6 +1128,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1427,13 +1450,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{283F008E-2DBD-E446-BC2F-AA0D9FF4122A}">
-  <dimension ref="A1:AC85"/>
+  <dimension ref="A1:AE85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="E32" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="M23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A49" sqref="A49"/>
+      <selection pane="bottomRight" activeCell="AC44" sqref="AC44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -1455,11 +1478,13 @@
     <col min="25" max="25" width="12.83203125" style="20" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="11.1640625" style="20" customWidth="1"/>
     <col min="27" max="27" width="27.6640625" style="21" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="19.1640625" customWidth="1"/>
-    <col min="29" max="29" width="73.1640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="5.5" style="42" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="9.1640625" style="42" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="19.1640625" customWidth="1"/>
+    <col min="31" max="31" width="73.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:31" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="C1" s="35" t="s">
         <v>2</v>
       </c>
@@ -1497,8 +1522,10 @@
       </c>
       <c r="Z1" s="35"/>
       <c r="AA1" s="36"/>
+      <c r="AB1" s="37"/>
+      <c r="AC1" s="37"/>
     </row>
-    <row r="2" spans="1:29" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:31" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -1580,14 +1607,20 @@
       <c r="AA2" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="AB2" s="1" t="s">
+      <c r="AB2" s="38" t="s">
+        <v>298</v>
+      </c>
+      <c r="AC2" s="38" t="s">
+        <v>299</v>
+      </c>
+      <c r="AD2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="AC2" s="1" t="s">
+      <c r="AE2" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>14</v>
       </c>
@@ -1670,14 +1703,20 @@
       <c r="AA3" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AB3" s="39">
+        <v>71</v>
+      </c>
+      <c r="AC3" s="27" t="s">
+        <v>301</v>
+      </c>
+      <c r="AD3" t="s">
         <v>70</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AE3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>19</v>
       </c>
@@ -1760,14 +1799,20 @@
       <c r="AA4" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AB4" s="39">
+        <v>72</v>
+      </c>
+      <c r="AC4" s="27" t="s">
+        <v>301</v>
+      </c>
+      <c r="AD4" t="s">
         <v>70</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AE4" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>20</v>
       </c>
@@ -1850,14 +1895,20 @@
       <c r="AA5" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AB5" s="39">
+        <v>73</v>
+      </c>
+      <c r="AC5" s="27" t="s">
+        <v>301</v>
+      </c>
+      <c r="AD5" t="s">
         <v>70</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AE5" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="19" t="s">
         <v>21</v>
       </c>
@@ -1940,14 +1991,20 @@
       <c r="AA6" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AB6" s="39">
+        <v>44</v>
+      </c>
+      <c r="AC6" s="27" t="s">
+        <v>301</v>
+      </c>
+      <c r="AD6" t="s">
         <v>70</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AE6" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>93</v>
       </c>
@@ -2030,14 +2087,20 @@
       <c r="AA7" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AB7" s="39">
+        <v>45</v>
+      </c>
+      <c r="AC7" s="27" t="s">
+        <v>301</v>
+      </c>
+      <c r="AD7" t="s">
         <v>70</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AE7" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>95</v>
       </c>
@@ -2120,14 +2183,20 @@
       <c r="AA8" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AB8" s="39">
+        <v>46</v>
+      </c>
+      <c r="AC8" s="27" t="s">
+        <v>301</v>
+      </c>
+      <c r="AD8" t="s">
         <v>70</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AE8" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="9" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>97</v>
       </c>
@@ -2210,14 +2279,20 @@
       <c r="AA9" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="AB9" t="s">
+      <c r="AB9" s="39">
+        <v>47</v>
+      </c>
+      <c r="AC9" s="27" t="s">
+        <v>301</v>
+      </c>
+      <c r="AD9" t="s">
         <v>70</v>
       </c>
-      <c r="AC9" t="s">
+      <c r="AE9" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="10" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>98</v>
       </c>
@@ -2300,14 +2375,20 @@
       <c r="AA10" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="AB10" t="s">
+      <c r="AB10" s="39">
+        <v>48</v>
+      </c>
+      <c r="AC10" s="27" t="s">
+        <v>301</v>
+      </c>
+      <c r="AD10" t="s">
         <v>70</v>
       </c>
-      <c r="AC10" t="s">
+      <c r="AE10" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="11" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>22</v>
       </c>
@@ -2390,14 +2471,20 @@
       <c r="AA11" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="AB11" t="s">
+      <c r="AB11" s="39">
+        <v>49</v>
+      </c>
+      <c r="AC11" s="27" t="s">
+        <v>301</v>
+      </c>
+      <c r="AD11" t="s">
         <v>70</v>
       </c>
-      <c r="AC11" t="s">
+      <c r="AE11" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="12" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>104</v>
       </c>
@@ -2480,14 +2567,20 @@
       <c r="AA12" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="AB12" s="28" t="s">
+      <c r="AB12" s="39">
+        <v>50</v>
+      </c>
+      <c r="AC12" s="27" t="s">
+        <v>301</v>
+      </c>
+      <c r="AD12" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="AC12" s="28" t="s">
+      <c r="AE12" s="28" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="13" spans="1:29" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:31" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>27</v>
       </c>
@@ -2570,14 +2663,20 @@
       <c r="AA13" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="AB13" t="s">
+      <c r="AB13" s="39">
+        <v>51</v>
+      </c>
+      <c r="AC13" s="27" t="s">
+        <v>301</v>
+      </c>
+      <c r="AD13" t="s">
         <v>70</v>
       </c>
-      <c r="AC13" t="s">
+      <c r="AE13" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="14" spans="1:29" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:31" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>108</v>
       </c>
@@ -2660,14 +2759,20 @@
       <c r="AA14" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="AB14" t="s">
+      <c r="AB14" s="39">
+        <v>52</v>
+      </c>
+      <c r="AC14" s="27" t="s">
+        <v>301</v>
+      </c>
+      <c r="AD14" t="s">
         <v>70</v>
       </c>
-      <c r="AC14" t="s">
+      <c r="AE14" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="15" spans="1:29" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:31" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>111</v>
       </c>
@@ -2750,14 +2855,20 @@
       <c r="AA15" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="AB15" t="s">
+      <c r="AB15" s="39">
+        <v>53</v>
+      </c>
+      <c r="AC15" s="27" t="s">
+        <v>301</v>
+      </c>
+      <c r="AD15" t="s">
         <v>70</v>
       </c>
-      <c r="AC15" t="s">
+      <c r="AE15" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="16" spans="1:29" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:31" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>120</v>
       </c>
@@ -2840,14 +2951,20 @@
       <c r="AA16" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="AB16" t="s">
+      <c r="AB16" s="39">
+        <v>54</v>
+      </c>
+      <c r="AC16" s="27" t="s">
+        <v>301</v>
+      </c>
+      <c r="AD16" t="s">
         <v>70</v>
       </c>
-      <c r="AC16" t="s">
+      <c r="AE16" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="17" spans="1:29" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:31" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>122</v>
       </c>
@@ -2930,14 +3047,20 @@
       <c r="AA17" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="AB17" t="s">
+      <c r="AB17" s="39">
+        <v>55</v>
+      </c>
+      <c r="AC17" s="27" t="s">
+        <v>301</v>
+      </c>
+      <c r="AD17" t="s">
         <v>70</v>
       </c>
-      <c r="AC17" t="s">
+      <c r="AE17" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="18" spans="1:29" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:31" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>124</v>
       </c>
@@ -3020,14 +3143,20 @@
       <c r="AA18" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="AB18" t="s">
+      <c r="AB18" s="39">
+        <v>56</v>
+      </c>
+      <c r="AC18" s="27" t="s">
+        <v>301</v>
+      </c>
+      <c r="AD18" t="s">
         <v>70</v>
       </c>
-      <c r="AC18" t="s">
+      <c r="AE18" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="19" spans="1:29" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:31" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>126</v>
       </c>
@@ -3110,14 +3239,20 @@
       <c r="AA19" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="AB19" t="s">
+      <c r="AB19" s="39">
+        <v>57</v>
+      </c>
+      <c r="AC19" s="27" t="s">
+        <v>301</v>
+      </c>
+      <c r="AD19" t="s">
         <v>70</v>
       </c>
-      <c r="AC19" t="s">
+      <c r="AE19" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="20" spans="1:29" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:31" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>128</v>
       </c>
@@ -3200,14 +3335,20 @@
       <c r="AA20" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="AB20" t="s">
+      <c r="AB20" s="39">
+        <v>58</v>
+      </c>
+      <c r="AC20" s="27" t="s">
+        <v>301</v>
+      </c>
+      <c r="AD20" t="s">
         <v>70</v>
       </c>
-      <c r="AC20" t="s">
+      <c r="AE20" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="21" spans="1:29" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:31" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>131</v>
       </c>
@@ -3290,14 +3431,20 @@
       <c r="AA21" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="AB21" t="s">
+      <c r="AB21" s="39">
+        <v>59</v>
+      </c>
+      <c r="AC21" s="27" t="s">
+        <v>301</v>
+      </c>
+      <c r="AD21" t="s">
         <v>70</v>
       </c>
-      <c r="AC21" t="s">
+      <c r="AE21" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="22" spans="1:29" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:31" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>130</v>
       </c>
@@ -3380,14 +3527,20 @@
       <c r="AA22" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="AB22" t="s">
+      <c r="AB22" s="39">
+        <v>60</v>
+      </c>
+      <c r="AC22" s="27" t="s">
+        <v>301</v>
+      </c>
+      <c r="AD22" t="s">
         <v>70</v>
       </c>
-      <c r="AC22" t="s">
+      <c r="AE22" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="23" spans="1:29" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:31" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>134</v>
       </c>
@@ -3470,14 +3623,20 @@
       <c r="AA23" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="AB23" t="s">
+      <c r="AB23" s="39">
+        <v>61</v>
+      </c>
+      <c r="AC23" s="27" t="s">
+        <v>301</v>
+      </c>
+      <c r="AD23" t="s">
         <v>70</v>
       </c>
-      <c r="AC23" t="s">
+      <c r="AE23" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="24" spans="1:29" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:31" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>136</v>
       </c>
@@ -3560,14 +3719,20 @@
       <c r="AA24" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="AB24" t="s">
+      <c r="AB24" s="39">
+        <v>62</v>
+      </c>
+      <c r="AC24" s="27" t="s">
+        <v>301</v>
+      </c>
+      <c r="AD24" t="s">
         <v>70</v>
       </c>
-      <c r="AC24" t="s">
+      <c r="AE24" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="25" spans="1:29" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:31" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>138</v>
       </c>
@@ -3650,14 +3815,20 @@
       <c r="AA25" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="AB25" t="s">
+      <c r="AB25" s="39">
+        <v>63</v>
+      </c>
+      <c r="AC25" s="27" t="s">
+        <v>301</v>
+      </c>
+      <c r="AD25" t="s">
         <v>70</v>
       </c>
-      <c r="AC25" t="s">
+      <c r="AE25" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="26" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>140</v>
       </c>
@@ -3740,14 +3911,20 @@
       <c r="AA26" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="AB26" t="s">
+      <c r="AB26" s="39">
+        <v>64</v>
+      </c>
+      <c r="AC26" s="27" t="s">
+        <v>301</v>
+      </c>
+      <c r="AD26" t="s">
         <v>70</v>
       </c>
-      <c r="AC26" t="s">
+      <c r="AE26" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="27" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>175</v>
       </c>
@@ -3830,14 +4007,20 @@
       <c r="AA27" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="AB27" t="s">
+      <c r="AB27" s="39">
+        <v>65</v>
+      </c>
+      <c r="AC27" s="27" t="s">
+        <v>301</v>
+      </c>
+      <c r="AD27" t="s">
         <v>70</v>
       </c>
-      <c r="AC27" t="s">
+      <c r="AE27" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="28" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>141</v>
       </c>
@@ -3920,14 +4103,20 @@
       <c r="AA28" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="AB28" t="s">
+      <c r="AB28" s="39">
+        <v>66</v>
+      </c>
+      <c r="AC28" s="27" t="s">
+        <v>301</v>
+      </c>
+      <c r="AD28" t="s">
         <v>70</v>
       </c>
-      <c r="AC28" t="s">
+      <c r="AE28" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="29" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>179</v>
       </c>
@@ -4010,14 +4199,20 @@
       <c r="AA29" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="AB29" t="s">
+      <c r="AB29" s="39">
+        <v>67</v>
+      </c>
+      <c r="AC29" s="27" t="s">
+        <v>301</v>
+      </c>
+      <c r="AD29" t="s">
         <v>70</v>
       </c>
-      <c r="AC29" t="s">
+      <c r="AE29" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="30" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="27" t="s">
         <v>142</v>
       </c>
@@ -4100,14 +4295,20 @@
       <c r="AA30" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="AB30" s="28" t="s">
+      <c r="AB30" s="39">
+        <v>68</v>
+      </c>
+      <c r="AC30" s="27" t="s">
+        <v>301</v>
+      </c>
+      <c r="AD30" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="AC30" s="28" t="s">
+      <c r="AE30" s="28" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="31" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="27" t="s">
         <v>182</v>
       </c>
@@ -4190,14 +4391,20 @@
       <c r="AA31" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="AB31" s="28" t="s">
+      <c r="AB31" s="39">
+        <v>69</v>
+      </c>
+      <c r="AC31" s="27" t="s">
+        <v>301</v>
+      </c>
+      <c r="AD31" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="AC31" s="28" t="s">
+      <c r="AE31" s="28" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="32" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="27" t="s">
         <v>168</v>
       </c>
@@ -4280,14 +4487,20 @@
       <c r="AA32" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="AB32" s="28" t="s">
+      <c r="AB32" s="39">
         <v>70</v>
       </c>
-      <c r="AC32" s="28" t="s">
+      <c r="AC32" s="27" t="s">
+        <v>301</v>
+      </c>
+      <c r="AD32" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="AE32" s="28" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="33" spans="1:29" s="8" customFormat="1" ht="5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:31" s="8" customFormat="1" ht="5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="7"/>
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
@@ -4314,8 +4527,10 @@
       <c r="Y33" s="24"/>
       <c r="Z33" s="7"/>
       <c r="AA33" s="24"/>
+      <c r="AB33" s="41"/>
+      <c r="AC33" s="41"/>
     </row>
-    <row r="34" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>29</v>
       </c>
@@ -4398,14 +4613,20 @@
       <c r="AA34" s="23">
         <v>0</v>
       </c>
-      <c r="AB34" t="s">
+      <c r="AB34" s="40">
+        <v>74</v>
+      </c>
+      <c r="AC34" s="27" t="s">
+        <v>301</v>
+      </c>
+      <c r="AD34" t="s">
         <v>70</v>
       </c>
-      <c r="AC34" t="s">
+      <c r="AE34" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="35" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>28</v>
       </c>
@@ -4488,14 +4709,20 @@
       <c r="AA35" s="23">
         <v>0</v>
       </c>
-      <c r="AB35" t="s">
+      <c r="AB35" s="40">
+        <v>75</v>
+      </c>
+      <c r="AC35" s="27" t="s">
+        <v>301</v>
+      </c>
+      <c r="AD35" t="s">
         <v>70</v>
       </c>
-      <c r="AC35" t="s">
+      <c r="AE35" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="36" spans="1:29" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:31" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>76</v>
       </c>
@@ -4578,14 +4805,20 @@
       <c r="AA36" s="23" t="s">
         <v>113</v>
       </c>
-      <c r="AB36" t="s">
+      <c r="AB36" s="40">
+        <v>7</v>
+      </c>
+      <c r="AC36" s="27" t="s">
+        <v>301</v>
+      </c>
+      <c r="AD36" t="s">
         <v>70</v>
       </c>
-      <c r="AC36" t="s">
+      <c r="AE36" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="37" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>83</v>
       </c>
@@ -4668,14 +4901,20 @@
       <c r="AA37" s="23" t="s">
         <v>113</v>
       </c>
-      <c r="AB37" t="s">
+      <c r="AB37" s="40">
+        <v>8</v>
+      </c>
+      <c r="AC37" s="27" t="s">
+        <v>301</v>
+      </c>
+      <c r="AD37" t="s">
         <v>70</v>
       </c>
-      <c r="AC37" t="s">
+      <c r="AE37" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="38" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>85</v>
       </c>
@@ -4758,14 +4997,20 @@
       <c r="AA38" s="23" t="s">
         <v>113</v>
       </c>
-      <c r="AB38" t="s">
+      <c r="AB38" s="40">
+        <v>9</v>
+      </c>
+      <c r="AC38" s="27" t="s">
+        <v>301</v>
+      </c>
+      <c r="AD38" t="s">
         <v>70</v>
       </c>
-      <c r="AC38" t="s">
+      <c r="AE38" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="39" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>75</v>
       </c>
@@ -4848,14 +5093,20 @@
       <c r="AA39" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="AB39" t="s">
+      <c r="AB39" s="40">
+        <v>82</v>
+      </c>
+      <c r="AC39" s="27" t="s">
+        <v>301</v>
+      </c>
+      <c r="AD39" t="s">
         <v>70</v>
       </c>
-      <c r="AC39" t="s">
+      <c r="AE39" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="40" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>86</v>
       </c>
@@ -4938,14 +5189,20 @@
       <c r="AA40" s="23" t="s">
         <v>113</v>
       </c>
-      <c r="AB40" t="s">
+      <c r="AB40" s="40">
+        <v>10</v>
+      </c>
+      <c r="AC40" s="27" t="s">
+        <v>301</v>
+      </c>
+      <c r="AD40" t="s">
         <v>70</v>
       </c>
-      <c r="AC40" t="s">
+      <c r="AE40" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="41" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>84</v>
       </c>
@@ -5028,14 +5285,20 @@
       <c r="AA41" s="23" t="s">
         <v>113</v>
       </c>
-      <c r="AB41" t="s">
+      <c r="AB41" s="40">
+        <v>2</v>
+      </c>
+      <c r="AC41" s="27" t="s">
+        <v>301</v>
+      </c>
+      <c r="AD41" t="s">
         <v>70</v>
       </c>
-      <c r="AC41" t="s">
+      <c r="AE41" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="42" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="19" t="s">
         <v>208</v>
       </c>
@@ -5118,14 +5381,20 @@
       <c r="AA42" s="23" t="s">
         <v>113</v>
       </c>
-      <c r="AB42" t="s">
+      <c r="AB42" s="40">
+        <v>1</v>
+      </c>
+      <c r="AC42" s="27" t="s">
+        <v>301</v>
+      </c>
+      <c r="AD42" t="s">
         <v>70</v>
       </c>
-      <c r="AC42" t="s">
+      <c r="AE42" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="43" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
         <v>183</v>
       </c>
@@ -5208,14 +5477,20 @@
       <c r="AA43" s="23" t="s">
         <v>113</v>
       </c>
-      <c r="AB43" t="s">
+      <c r="AB43" s="40">
+        <v>3</v>
+      </c>
+      <c r="AC43" s="40" t="s">
+        <v>302</v>
+      </c>
+      <c r="AD43" t="s">
         <v>70</v>
       </c>
-      <c r="AC43" t="s">
+      <c r="AE43" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="44" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="19" t="s">
         <v>184</v>
       </c>
@@ -5298,14 +5573,20 @@
       <c r="AA44" s="23" t="s">
         <v>113</v>
       </c>
-      <c r="AB44" t="s">
+      <c r="AB44" s="40">
+        <v>5</v>
+      </c>
+      <c r="AC44" s="27" t="s">
+        <v>301</v>
+      </c>
+      <c r="AD44" t="s">
         <v>70</v>
       </c>
-      <c r="AC44" t="s">
+      <c r="AE44" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="45" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="19" t="s">
         <v>209</v>
       </c>
@@ -5388,14 +5669,20 @@
       <c r="AA45" s="23" t="s">
         <v>113</v>
       </c>
-      <c r="AB45" t="s">
+      <c r="AB45" s="40">
+        <v>6</v>
+      </c>
+      <c r="AC45" s="27" t="s">
+        <v>301</v>
+      </c>
+      <c r="AD45" t="s">
         <v>70</v>
       </c>
-      <c r="AC45" t="s">
+      <c r="AE45" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="46" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="19" t="s">
         <v>210</v>
       </c>
@@ -5478,14 +5765,20 @@
       <c r="AA46" s="23" t="s">
         <v>113</v>
       </c>
-      <c r="AB46" t="s">
+      <c r="AB46" s="40">
+        <v>4</v>
+      </c>
+      <c r="AC46" s="27" t="s">
+        <v>300</v>
+      </c>
+      <c r="AD46" t="s">
         <v>70</v>
       </c>
-      <c r="AC46" t="s">
+      <c r="AE46" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="47" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="19" t="s">
         <v>189</v>
       </c>
@@ -5568,14 +5861,20 @@
       <c r="AA47" s="23" t="s">
         <v>113</v>
       </c>
-      <c r="AB47" t="s">
+      <c r="AB47" s="40">
+        <v>11</v>
+      </c>
+      <c r="AC47" s="27" t="s">
+        <v>301</v>
+      </c>
+      <c r="AD47" t="s">
         <v>70</v>
       </c>
-      <c r="AC47" t="s">
+      <c r="AE47" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="48" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="19" t="s">
         <v>219</v>
       </c>
@@ -5658,14 +5957,20 @@
       <c r="AA48" s="23" t="s">
         <v>251</v>
       </c>
-      <c r="AB48" t="s">
+      <c r="AB48" s="40">
+        <v>12</v>
+      </c>
+      <c r="AC48" s="27" t="s">
+        <v>301</v>
+      </c>
+      <c r="AD48" t="s">
         <v>70</v>
       </c>
-      <c r="AC48" t="s">
+      <c r="AE48" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="49" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="19" t="s">
         <v>220</v>
       </c>
@@ -5748,14 +6053,20 @@
       <c r="AA49" s="23" t="s">
         <v>252</v>
       </c>
-      <c r="AB49" t="s">
+      <c r="AB49" s="40">
+        <v>13</v>
+      </c>
+      <c r="AC49" s="27" t="s">
+        <v>301</v>
+      </c>
+      <c r="AD49" t="s">
         <v>70</v>
       </c>
-      <c r="AC49" t="s">
+      <c r="AE49" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="50" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="19" t="s">
         <v>221</v>
       </c>
@@ -5838,14 +6149,20 @@
       <c r="AA50" s="23" t="s">
         <v>253</v>
       </c>
-      <c r="AB50" t="s">
+      <c r="AB50" s="40">
+        <v>14</v>
+      </c>
+      <c r="AC50" s="27" t="s">
+        <v>301</v>
+      </c>
+      <c r="AD50" t="s">
         <v>70</v>
       </c>
-      <c r="AC50" t="s">
+      <c r="AE50" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="51" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="19" t="s">
         <v>222</v>
       </c>
@@ -5928,14 +6245,20 @@
       <c r="AA51" s="23" t="s">
         <v>254</v>
       </c>
-      <c r="AB51" t="s">
+      <c r="AB51" s="40">
+        <v>15</v>
+      </c>
+      <c r="AC51" s="27" t="s">
+        <v>301</v>
+      </c>
+      <c r="AD51" t="s">
         <v>70</v>
       </c>
-      <c r="AC51" t="s">
+      <c r="AE51" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="52" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="19" t="s">
         <v>223</v>
       </c>
@@ -6018,14 +6341,20 @@
       <c r="AA52" s="25" t="s">
         <v>255</v>
       </c>
-      <c r="AB52" t="s">
+      <c r="AB52" s="40">
+        <v>16</v>
+      </c>
+      <c r="AC52" s="27" t="s">
+        <v>301</v>
+      </c>
+      <c r="AD52" t="s">
         <v>70</v>
       </c>
-      <c r="AC52" t="s">
+      <c r="AE52" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="53" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="19" t="s">
         <v>224</v>
       </c>
@@ -6108,14 +6437,20 @@
       <c r="AA53" s="25" t="s">
         <v>256</v>
       </c>
-      <c r="AB53" t="s">
+      <c r="AB53" s="40">
+        <v>17</v>
+      </c>
+      <c r="AC53" s="27" t="s">
+        <v>301</v>
+      </c>
+      <c r="AD53" t="s">
         <v>70</v>
       </c>
-      <c r="AC53" t="s">
+      <c r="AE53" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="54" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" s="19" t="s">
         <v>225</v>
       </c>
@@ -6198,14 +6533,20 @@
       <c r="AA54" s="25" t="s">
         <v>257</v>
       </c>
-      <c r="AB54" t="s">
+      <c r="AB54" s="40">
+        <v>18</v>
+      </c>
+      <c r="AC54" s="27" t="s">
+        <v>301</v>
+      </c>
+      <c r="AD54" t="s">
         <v>70</v>
       </c>
-      <c r="AC54" t="s">
+      <c r="AE54" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="55" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="19" t="s">
         <v>226</v>
       </c>
@@ -6288,14 +6629,20 @@
       <c r="AA55" s="25" t="s">
         <v>258</v>
       </c>
-      <c r="AB55" t="s">
+      <c r="AB55" s="40">
+        <v>19</v>
+      </c>
+      <c r="AC55" s="27" t="s">
+        <v>301</v>
+      </c>
+      <c r="AD55" t="s">
         <v>70</v>
       </c>
-      <c r="AC55" t="s">
+      <c r="AE55" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="56" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" s="19" t="s">
         <v>227</v>
       </c>
@@ -6378,14 +6725,20 @@
       <c r="AA56" s="25" t="s">
         <v>259</v>
       </c>
-      <c r="AB56" t="s">
+      <c r="AB56" s="40">
+        <v>20</v>
+      </c>
+      <c r="AC56" s="27" t="s">
+        <v>301</v>
+      </c>
+      <c r="AD56" t="s">
         <v>70</v>
       </c>
-      <c r="AC56" t="s">
+      <c r="AE56" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="57" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" s="19" t="s">
         <v>228</v>
       </c>
@@ -6468,14 +6821,20 @@
       <c r="AA57" s="25" t="s">
         <v>260</v>
       </c>
-      <c r="AB57" t="s">
+      <c r="AB57" s="40">
+        <v>21</v>
+      </c>
+      <c r="AC57" s="27" t="s">
+        <v>301</v>
+      </c>
+      <c r="AD57" t="s">
         <v>70</v>
       </c>
-      <c r="AC57" t="s">
+      <c r="AE57" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="58" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" s="19" t="s">
         <v>229</v>
       </c>
@@ -6558,14 +6917,20 @@
       <c r="AA58" s="23" t="s">
         <v>261</v>
       </c>
-      <c r="AB58" t="s">
+      <c r="AB58" s="40">
+        <v>22</v>
+      </c>
+      <c r="AC58" s="27" t="s">
+        <v>301</v>
+      </c>
+      <c r="AD58" t="s">
         <v>70</v>
       </c>
-      <c r="AC58" t="s">
+      <c r="AE58" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="59" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A59" s="19" t="s">
         <v>230</v>
       </c>
@@ -6648,14 +7013,20 @@
       <c r="AA59" s="25" t="s">
         <v>262</v>
       </c>
-      <c r="AB59" t="s">
+      <c r="AB59" s="40">
+        <v>23</v>
+      </c>
+      <c r="AC59" s="27" t="s">
+        <v>301</v>
+      </c>
+      <c r="AD59" t="s">
         <v>70</v>
       </c>
-      <c r="AC59" t="s">
+      <c r="AE59" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="60" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" s="19" t="s">
         <v>231</v>
       </c>
@@ -6738,14 +7109,20 @@
       <c r="AA60" s="25" t="s">
         <v>263</v>
       </c>
-      <c r="AB60" t="s">
+      <c r="AB60" s="40">
+        <v>24</v>
+      </c>
+      <c r="AC60" s="27" t="s">
+        <v>301</v>
+      </c>
+      <c r="AD60" t="s">
         <v>70</v>
       </c>
-      <c r="AC60" t="s">
+      <c r="AE60" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="61" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" s="19" t="s">
         <v>232</v>
       </c>
@@ -6828,14 +7205,20 @@
       <c r="AA61" s="25" t="s">
         <v>207</v>
       </c>
-      <c r="AB61" t="s">
+      <c r="AB61" s="40">
+        <v>25</v>
+      </c>
+      <c r="AC61" s="27" t="s">
+        <v>301</v>
+      </c>
+      <c r="AD61" t="s">
         <v>70</v>
       </c>
-      <c r="AC61" t="s">
+      <c r="AE61" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="62" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A62" s="19" t="s">
         <v>233</v>
       </c>
@@ -6918,14 +7301,20 @@
       <c r="AA62" s="23" t="s">
         <v>206</v>
       </c>
-      <c r="AB62" t="s">
+      <c r="AB62" s="40">
+        <v>26</v>
+      </c>
+      <c r="AC62" s="27" t="s">
+        <v>301</v>
+      </c>
+      <c r="AD62" t="s">
         <v>70</v>
       </c>
-      <c r="AC62" t="s">
+      <c r="AE62" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="63" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A63" s="19" t="s">
         <v>234</v>
       </c>
@@ -7008,14 +7397,20 @@
       <c r="AA63" s="23" t="s">
         <v>205</v>
       </c>
-      <c r="AB63" t="s">
+      <c r="AB63" s="40">
+        <v>27</v>
+      </c>
+      <c r="AC63" s="27" t="s">
+        <v>301</v>
+      </c>
+      <c r="AD63" t="s">
         <v>70</v>
       </c>
-      <c r="AC63" t="s">
+      <c r="AE63" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="64" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A64" s="19" t="s">
         <v>235</v>
       </c>
@@ -7098,14 +7493,20 @@
       <c r="AA64" s="25" t="s">
         <v>204</v>
       </c>
-      <c r="AB64" t="s">
+      <c r="AB64" s="40">
+        <v>28</v>
+      </c>
+      <c r="AC64" s="27" t="s">
+        <v>301</v>
+      </c>
+      <c r="AD64" t="s">
         <v>70</v>
       </c>
-      <c r="AC64" t="s">
+      <c r="AE64" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="65" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A65" s="19" t="s">
         <v>236</v>
       </c>
@@ -7188,14 +7589,20 @@
       <c r="AA65" s="25" t="s">
         <v>203</v>
       </c>
-      <c r="AB65" t="s">
+      <c r="AB65" s="40">
+        <v>29</v>
+      </c>
+      <c r="AC65" s="27" t="s">
+        <v>301</v>
+      </c>
+      <c r="AD65" t="s">
         <v>70</v>
       </c>
-      <c r="AC65" t="s">
+      <c r="AE65" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="66" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A66" s="19" t="s">
         <v>237</v>
       </c>
@@ -7278,14 +7685,20 @@
       <c r="AA66" s="25" t="s">
         <v>202</v>
       </c>
-      <c r="AB66" t="s">
+      <c r="AB66" s="40">
+        <v>30</v>
+      </c>
+      <c r="AC66" s="27" t="s">
+        <v>301</v>
+      </c>
+      <c r="AD66" t="s">
         <v>70</v>
       </c>
-      <c r="AC66" t="s">
+      <c r="AE66" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="67" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A67" s="19" t="s">
         <v>238</v>
       </c>
@@ -7368,14 +7781,20 @@
       <c r="AA67" s="25" t="s">
         <v>201</v>
       </c>
-      <c r="AB67" t="s">
+      <c r="AB67" s="40">
+        <v>31</v>
+      </c>
+      <c r="AC67" s="27" t="s">
+        <v>301</v>
+      </c>
+      <c r="AD67" t="s">
         <v>70</v>
       </c>
-      <c r="AC67" t="s">
+      <c r="AE67" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="68" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A68" s="19" t="s">
         <v>239</v>
       </c>
@@ -7458,14 +7877,20 @@
       <c r="AA68" s="25" t="s">
         <v>200</v>
       </c>
-      <c r="AB68" t="s">
+      <c r="AB68" s="40">
+        <v>32</v>
+      </c>
+      <c r="AC68" s="27" t="s">
+        <v>301</v>
+      </c>
+      <c r="AD68" t="s">
         <v>70</v>
       </c>
-      <c r="AC68" t="s">
+      <c r="AE68" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="69" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A69" s="19" t="s">
         <v>240</v>
       </c>
@@ -7548,14 +7973,20 @@
       <c r="AA69" s="25" t="s">
         <v>199</v>
       </c>
-      <c r="AB69" t="s">
+      <c r="AB69" s="40">
+        <v>33</v>
+      </c>
+      <c r="AC69" s="27" t="s">
+        <v>301</v>
+      </c>
+      <c r="AD69" t="s">
         <v>70</v>
       </c>
-      <c r="AC69" t="s">
+      <c r="AE69" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="70" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A70" s="19" t="s">
         <v>241</v>
       </c>
@@ -7638,14 +8069,20 @@
       <c r="AA70" s="25" t="s">
         <v>198</v>
       </c>
-      <c r="AB70" t="s">
+      <c r="AB70" s="40">
+        <v>34</v>
+      </c>
+      <c r="AC70" s="27" t="s">
+        <v>301</v>
+      </c>
+      <c r="AD70" t="s">
         <v>70</v>
       </c>
-      <c r="AC70" t="s">
+      <c r="AE70" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="71" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A71" s="19" t="s">
         <v>242</v>
       </c>
@@ -7728,14 +8165,20 @@
       <c r="AA71" s="25" t="s">
         <v>197</v>
       </c>
-      <c r="AB71" t="s">
+      <c r="AB71" s="40">
+        <v>35</v>
+      </c>
+      <c r="AC71" s="27" t="s">
+        <v>301</v>
+      </c>
+      <c r="AD71" t="s">
         <v>70</v>
       </c>
-      <c r="AC71" t="s">
+      <c r="AE71" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="72" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" s="19" t="s">
         <v>243</v>
       </c>
@@ -7818,14 +8261,20 @@
       <c r="AA72" s="25" t="s">
         <v>196</v>
       </c>
-      <c r="AB72" t="s">
+      <c r="AB72" s="40">
+        <v>36</v>
+      </c>
+      <c r="AC72" s="27" t="s">
+        <v>301</v>
+      </c>
+      <c r="AD72" t="s">
         <v>70</v>
       </c>
-      <c r="AC72" t="s">
+      <c r="AE72" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="73" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A73" s="19" t="s">
         <v>244</v>
       </c>
@@ -7908,14 +8357,20 @@
       <c r="AA73" s="25" t="s">
         <v>195</v>
       </c>
-      <c r="AB73" t="s">
+      <c r="AB73" s="40">
+        <v>37</v>
+      </c>
+      <c r="AC73" s="27" t="s">
+        <v>301</v>
+      </c>
+      <c r="AD73" t="s">
         <v>70</v>
       </c>
-      <c r="AC73" t="s">
+      <c r="AE73" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="74" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A74" s="19" t="s">
         <v>245</v>
       </c>
@@ -7998,14 +8453,20 @@
       <c r="AA74" s="25" t="s">
         <v>194</v>
       </c>
-      <c r="AB74" t="s">
+      <c r="AB74" s="40">
+        <v>38</v>
+      </c>
+      <c r="AC74" s="27" t="s">
+        <v>301</v>
+      </c>
+      <c r="AD74" t="s">
         <v>70</v>
       </c>
-      <c r="AC74" t="s">
+      <c r="AE74" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="75" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A75" s="19" t="s">
         <v>246</v>
       </c>
@@ -8088,14 +8549,20 @@
       <c r="AA75" s="25" t="s">
         <v>193</v>
       </c>
-      <c r="AB75" t="s">
+      <c r="AB75" s="40">
+        <v>39</v>
+      </c>
+      <c r="AC75" s="27" t="s">
+        <v>301</v>
+      </c>
+      <c r="AD75" t="s">
         <v>70</v>
       </c>
-      <c r="AC75" t="s">
+      <c r="AE75" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="76" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A76" s="19" t="s">
         <v>247</v>
       </c>
@@ -8178,14 +8645,20 @@
       <c r="AA76" s="25" t="s">
         <v>192</v>
       </c>
-      <c r="AB76" t="s">
+      <c r="AB76" s="40">
+        <v>40</v>
+      </c>
+      <c r="AC76" s="27" t="s">
+        <v>301</v>
+      </c>
+      <c r="AD76" t="s">
         <v>70</v>
       </c>
-      <c r="AC76" t="s">
+      <c r="AE76" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="77" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A77" s="19" t="s">
         <v>248</v>
       </c>
@@ -8268,14 +8741,20 @@
       <c r="AA77" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="AB77" t="s">
+      <c r="AB77" s="40">
+        <v>41</v>
+      </c>
+      <c r="AC77" s="27" t="s">
+        <v>301</v>
+      </c>
+      <c r="AD77" t="s">
         <v>70</v>
       </c>
-      <c r="AC77" t="s">
+      <c r="AE77" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="78" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A78" s="19" t="s">
         <v>249</v>
       </c>
@@ -8358,14 +8837,20 @@
       <c r="AA78" s="23" t="s">
         <v>264</v>
       </c>
-      <c r="AB78" t="s">
+      <c r="AB78" s="40">
+        <v>42</v>
+      </c>
+      <c r="AC78" s="27" t="s">
+        <v>301</v>
+      </c>
+      <c r="AD78" t="s">
         <v>70</v>
       </c>
-      <c r="AC78" t="s">
+      <c r="AE78" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="79" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A79" s="19" t="s">
         <v>250</v>
       </c>
@@ -8448,14 +8933,20 @@
       <c r="AA79" s="23" t="s">
         <v>264</v>
       </c>
-      <c r="AB79" t="s">
+      <c r="AB79" s="40">
+        <v>43</v>
+      </c>
+      <c r="AC79" s="27" t="s">
+        <v>301</v>
+      </c>
+      <c r="AD79" t="s">
         <v>70</v>
       </c>
-      <c r="AC79" t="s">
+      <c r="AE79" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="80" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
         <v>30</v>
       </c>
@@ -8538,14 +9029,20 @@
       <c r="AA80" s="23" t="s">
         <v>113</v>
       </c>
-      <c r="AB80" t="s">
+      <c r="AB80" s="40">
+        <v>76</v>
+      </c>
+      <c r="AC80" s="27" t="s">
+        <v>301</v>
+      </c>
+      <c r="AD80" t="s">
         <v>70</v>
       </c>
-      <c r="AC80" t="s">
+      <c r="AE80" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="81" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
         <v>31</v>
       </c>
@@ -8628,14 +9125,20 @@
       <c r="AA81" s="23" t="s">
         <v>113</v>
       </c>
-      <c r="AB81" t="s">
+      <c r="AB81" s="40">
+        <v>77</v>
+      </c>
+      <c r="AC81" s="27" t="s">
+        <v>301</v>
+      </c>
+      <c r="AD81" t="s">
         <v>70</v>
       </c>
-      <c r="AC81" t="s">
+      <c r="AE81" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="82" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
         <v>32</v>
       </c>
@@ -8718,14 +9221,20 @@
       <c r="AA82" s="23" t="s">
         <v>113</v>
       </c>
-      <c r="AB82" t="s">
+      <c r="AB82" s="40">
+        <v>78</v>
+      </c>
+      <c r="AC82" s="27" t="s">
+        <v>301</v>
+      </c>
+      <c r="AD82" t="s">
         <v>70</v>
       </c>
-      <c r="AC82" t="s">
+      <c r="AE82" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="83" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
         <v>33</v>
       </c>
@@ -8808,14 +9317,20 @@
       <c r="AA83" s="23" t="s">
         <v>113</v>
       </c>
-      <c r="AB83" t="s">
+      <c r="AB83" s="40">
+        <v>79</v>
+      </c>
+      <c r="AC83" s="27" t="s">
+        <v>301</v>
+      </c>
+      <c r="AD83" t="s">
         <v>70</v>
       </c>
-      <c r="AC83" t="s">
+      <c r="AE83" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="84" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
         <v>34</v>
       </c>
@@ -8898,14 +9413,20 @@
       <c r="AA84" s="23" t="s">
         <v>113</v>
       </c>
-      <c r="AB84" t="s">
+      <c r="AB84" s="40">
+        <v>80</v>
+      </c>
+      <c r="AC84" s="27" t="s">
+        <v>301</v>
+      </c>
+      <c r="AD84" t="s">
         <v>70</v>
       </c>
-      <c r="AC84" t="s">
+      <c r="AE84" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="85" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
         <v>35</v>
       </c>
@@ -8988,10 +9509,16 @@
       <c r="AA85" s="23" t="s">
         <v>113</v>
       </c>
-      <c r="AB85" t="s">
+      <c r="AB85" s="40">
+        <v>81</v>
+      </c>
+      <c r="AC85" s="27" t="s">
+        <v>301</v>
+      </c>
+      <c r="AD85" t="s">
         <v>70</v>
       </c>
-      <c r="AC85" t="s">
+      <c r="AE85" t="s">
         <v>67</v>
       </c>
     </row>
